--- a/DATA/rechargingstationproject/GIS_distance.xlsx
+++ b/DATA/rechargingstationproject/GIS_distance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liveutk-my.sharepoint.com/personal/kpk628_mocs_utc_edu/Documents/Documents/CUIP Projects/EV PTOJECT/sevenstate/DATA/rechargingstationproject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1001" documentId="8_{246D277F-2BB0-4C79-9112-5396CBB4CC5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D2E9C995-8678-49F0-8EEA-3046CA9C9BBE}"/>
+  <xr:revisionPtr revIDLastSave="1022" documentId="8_{246D277F-2BB0-4C79-9112-5396CBB4CC5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F9CE3425-8993-40E4-9A24-E4996AC386F8}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1896,7 +1896,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1911,6 +1911,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1966,7 +1974,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1983,6 +1991,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1990,14 +2013,22 @@
       <alignment horizontal="left"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2307,8 +2338,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="V19" sqref="V19"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2323,125 +2354,126 @@
     <col min="9" max="9" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="19.42578125" customWidth="1"/>
-    <col min="15" max="15" width="15.28515625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="14.28515625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="23.140625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="13.42578125" style="2" customWidth="1"/>
-    <col min="19" max="19" width="8.85546875" style="2" customWidth="1"/>
-    <col min="20" max="20" width="10.5703125" style="2" customWidth="1"/>
-    <col min="21" max="21" width="15.5703125" style="3" customWidth="1"/>
-    <col min="22" max="22" width="18.42578125" style="3" customWidth="1"/>
-    <col min="23" max="23" width="16.7109375" style="3" customWidth="1"/>
-    <col min="24" max="24" width="13.85546875" style="4" customWidth="1"/>
-    <col min="25" max="25" width="13.7109375" style="4" customWidth="1"/>
-    <col min="26" max="26" width="8.7109375" style="4" customWidth="1"/>
-    <col min="27" max="27" width="16.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="11" style="5" customWidth="1"/>
-    <col min="29" max="29" width="9" style="5" customWidth="1"/>
-    <col min="30" max="30" width="13.140625" style="6" customWidth="1"/>
-    <col min="31" max="31" width="9.140625" style="6" customWidth="1"/>
-    <col min="32" max="32" width="11.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="10" customWidth="1"/>
+    <col min="13" max="13" width="11.7109375" customWidth="1"/>
+    <col min="15" max="15" width="15.7109375" style="8" customWidth="1"/>
+    <col min="16" max="16" width="19" style="8" customWidth="1"/>
+    <col min="17" max="17" width="5.140625" style="8" customWidth="1"/>
+    <col min="18" max="18" width="13.42578125" style="9" customWidth="1"/>
+    <col min="19" max="19" width="15.85546875" style="9" customWidth="1"/>
+    <col min="20" max="20" width="3.5703125" style="9" customWidth="1"/>
+    <col min="21" max="21" width="13.28515625" style="10" customWidth="1"/>
+    <col min="22" max="22" width="23.42578125" style="10" customWidth="1"/>
+    <col min="23" max="23" width="3.85546875" style="10" customWidth="1"/>
+    <col min="24" max="24" width="7.5703125" style="11" customWidth="1"/>
+    <col min="25" max="25" width="18" style="11" customWidth="1"/>
+    <col min="26" max="26" width="4.7109375" style="11" customWidth="1"/>
+    <col min="27" max="27" width="18.28515625" style="12" customWidth="1"/>
+    <col min="28" max="28" width="7" style="12" customWidth="1"/>
+    <col min="29" max="29" width="9" style="12" customWidth="1"/>
+    <col min="30" max="30" width="15.7109375" style="13" customWidth="1"/>
+    <col min="31" max="31" width="11.28515625" style="13" customWidth="1"/>
+    <col min="32" max="32" width="5.28515625" style="13" customWidth="1"/>
+    <col min="33" max="33" width="10" style="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>616</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="2" t="s">
         <v>609</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="2" t="s">
         <v>602</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="2" t="s">
         <v>605</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="R1" s="3" t="s">
         <v>615</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="S1" s="3" t="s">
         <v>473</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="T1" s="3" t="s">
         <v>604</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="U1" s="4" t="s">
         <v>610</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="V1" s="4" t="s">
         <v>474</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="W1" s="4" t="s">
         <v>603</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="X1" s="5" t="s">
         <v>611</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="Y1" s="5" t="s">
         <v>524</v>
       </c>
-      <c r="Z1" s="4" t="s">
+      <c r="Z1" s="5" t="s">
         <v>606</v>
       </c>
-      <c r="AA1" s="5" t="s">
+      <c r="AA1" s="6" t="s">
         <v>612</v>
       </c>
-      <c r="AB1" s="5" t="s">
+      <c r="AB1" s="6" t="s">
         <v>577</v>
       </c>
-      <c r="AC1" s="5" t="s">
+      <c r="AC1" s="6" t="s">
         <v>607</v>
       </c>
-      <c r="AD1" s="6" t="s">
+      <c r="AD1" s="7" t="s">
         <v>614</v>
       </c>
-      <c r="AE1" s="6" t="s">
+      <c r="AE1" s="7" t="s">
         <v>601</v>
       </c>
-      <c r="AF1" s="6" t="s">
+      <c r="AF1" s="7" t="s">
         <v>608</v>
       </c>
-      <c r="AG1" s="6" t="s">
+      <c r="AG1" s="7" t="s">
         <v>613</v>
       </c>
     </row>
@@ -2488,61 +2520,61 @@
       <c r="N2" t="s">
         <v>15</v>
       </c>
-      <c r="O2" s="1">
+      <c r="O2" s="8">
         <v>320.56506540961118</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="P2" s="8" t="s">
         <v>378</v>
       </c>
-      <c r="Q2" s="1">
-        <v>1</v>
-      </c>
-      <c r="R2" s="2">
+      <c r="Q2" s="8">
+        <v>1</v>
+      </c>
+      <c r="R2" s="9">
         <v>351.68485576768239</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="S2" s="9" t="s">
         <v>435</v>
       </c>
-      <c r="T2" s="2">
-        <v>1</v>
-      </c>
-      <c r="U2" s="3">
+      <c r="T2" s="9">
+        <v>1</v>
+      </c>
+      <c r="U2" s="10">
         <v>20.466203716138217</v>
       </c>
-      <c r="V2" s="3" t="s">
+      <c r="V2" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="W2" s="3">
-        <v>0</v>
-      </c>
-      <c r="X2" s="4">
+      <c r="W2" s="10">
+        <v>0</v>
+      </c>
+      <c r="X2" s="11">
         <v>1936.1025165624999</v>
       </c>
-      <c r="Y2" s="4" t="s">
+      <c r="Y2" s="11" t="s">
         <v>490</v>
       </c>
-      <c r="Z2" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA2" s="5">
+      <c r="Z2" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="12">
         <v>1706.7030374825608</v>
       </c>
-      <c r="AB2" s="5" t="s">
+      <c r="AB2" s="12" t="s">
         <v>540</v>
       </c>
-      <c r="AC2" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD2" s="6">
+      <c r="AC2" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD2" s="13">
         <v>320.56498776355579</v>
       </c>
-      <c r="AE2" s="6" t="s">
+      <c r="AE2" s="13" t="s">
         <v>378</v>
       </c>
-      <c r="AF2" s="6">
-        <v>1</v>
-      </c>
-      <c r="AG2">
+      <c r="AF2" s="13">
+        <v>1</v>
+      </c>
+      <c r="AG2" s="14">
         <f t="shared" ref="AG2:AG33" si="0">AF2+AC2+Z2+W2+T2+Q2</f>
         <v>3</v>
       </c>
@@ -2590,58 +2622,58 @@
       <c r="N3" t="s">
         <v>24</v>
       </c>
-      <c r="O3" s="1">
+      <c r="O3" s="8">
         <v>2045.8033945434336</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="P3" s="8" t="s">
         <v>384</v>
       </c>
-      <c r="Q3" s="1">
-        <v>0</v>
-      </c>
-      <c r="R3" s="2">
+      <c r="Q3" s="8">
+        <v>0</v>
+      </c>
+      <c r="R3" s="9">
         <v>1331.1645035906322</v>
       </c>
-      <c r="S3" s="2" t="s">
+      <c r="S3" s="9" t="s">
         <v>440</v>
       </c>
-      <c r="T3" s="2">
-        <v>1</v>
-      </c>
-      <c r="U3" s="3">
+      <c r="T3" s="9">
+        <v>1</v>
+      </c>
+      <c r="U3" s="10">
         <v>72.014199258625169</v>
       </c>
-      <c r="V3" s="3" t="s">
+      <c r="V3" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="W3" s="3">
-        <v>1</v>
-      </c>
-      <c r="X3" s="4">
+      <c r="W3" s="10">
+        <v>1</v>
+      </c>
+      <c r="X3" s="11">
         <v>13570.997683264684</v>
       </c>
-      <c r="Y3" s="4" t="s">
+      <c r="Y3" s="11" t="s">
         <v>494</v>
       </c>
-      <c r="Z3" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA3" s="5">
+      <c r="Z3" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="12">
         <v>914.17964078807665</v>
       </c>
-      <c r="AB3" s="5" t="s">
+      <c r="AB3" s="12" t="s">
         <v>546</v>
       </c>
-      <c r="AC3" s="5">
-        <v>1</v>
-      </c>
-      <c r="AD3" s="6">
+      <c r="AC3" s="12">
+        <v>1</v>
+      </c>
+      <c r="AD3" s="13">
         <v>914.17979576746666</v>
       </c>
-      <c r="AF3" s="6">
-        <v>1</v>
-      </c>
-      <c r="AG3">
+      <c r="AF3" s="13">
+        <v>1</v>
+      </c>
+      <c r="AG3" s="14">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -2689,61 +2721,61 @@
       <c r="N4" t="s">
         <v>24</v>
       </c>
-      <c r="O4" s="1">
+      <c r="O4" s="8">
         <v>202.30535810823011</v>
       </c>
-      <c r="P4" s="1" t="s">
+      <c r="P4" s="8" t="s">
         <v>406</v>
       </c>
-      <c r="Q4" s="1">
-        <v>1</v>
-      </c>
-      <c r="R4" s="2">
+      <c r="Q4" s="8">
+        <v>1</v>
+      </c>
+      <c r="R4" s="9">
         <v>202.30535810823011</v>
       </c>
-      <c r="S4" s="2" t="s">
+      <c r="S4" s="9" t="s">
         <v>431</v>
       </c>
-      <c r="T4" s="2">
-        <v>1</v>
-      </c>
-      <c r="U4" s="3">
+      <c r="T4" s="9">
+        <v>1</v>
+      </c>
+      <c r="U4" s="10">
         <v>75.048618630513786</v>
       </c>
-      <c r="V4" s="3" t="s">
+      <c r="V4" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="W4" s="3">
-        <v>1</v>
-      </c>
-      <c r="X4" s="4">
+      <c r="W4" s="10">
+        <v>1</v>
+      </c>
+      <c r="X4" s="11">
         <v>4127.280651237048</v>
       </c>
-      <c r="Y4" s="4" t="s">
+      <c r="Y4" s="11" t="s">
         <v>486</v>
       </c>
-      <c r="Z4" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA4" s="5">
+      <c r="Z4" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="12">
         <v>27520.258090511124</v>
       </c>
-      <c r="AB4" s="5" t="s">
+      <c r="AB4" s="12" t="s">
         <v>566</v>
       </c>
-      <c r="AC4" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD4" s="6">
+      <c r="AC4" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="13">
         <v>202.30523506121415</v>
       </c>
-      <c r="AE4" s="6" t="s">
+      <c r="AE4" s="13" t="s">
         <v>431</v>
       </c>
-      <c r="AF4" s="6">
-        <v>1</v>
-      </c>
-      <c r="AG4">
+      <c r="AF4" s="13">
+        <v>1</v>
+      </c>
+      <c r="AG4" s="14">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -2791,61 +2823,61 @@
       <c r="N5" t="s">
         <v>24</v>
       </c>
-      <c r="O5" s="1">
+      <c r="O5" s="8">
         <v>213.08001483391007</v>
       </c>
-      <c r="P5" s="1" t="s">
+      <c r="P5" s="8" t="s">
         <v>406</v>
       </c>
-      <c r="Q5" s="1">
-        <v>1</v>
-      </c>
-      <c r="R5" s="2">
+      <c r="Q5" s="8">
+        <v>1</v>
+      </c>
+      <c r="R5" s="9">
         <v>213.08001483391007</v>
       </c>
-      <c r="S5" s="2" t="s">
+      <c r="S5" s="9" t="s">
         <v>431</v>
       </c>
-      <c r="T5" s="2">
-        <v>1</v>
-      </c>
-      <c r="U5" s="3">
+      <c r="T5" s="9">
+        <v>1</v>
+      </c>
+      <c r="U5" s="10">
         <v>75.751280617933986</v>
       </c>
-      <c r="V5" s="3" t="s">
+      <c r="V5" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="W5" s="3">
-        <v>1</v>
-      </c>
-      <c r="X5" s="4">
+      <c r="W5" s="10">
+        <v>1</v>
+      </c>
+      <c r="X5" s="11">
         <v>4111.5426359771154</v>
       </c>
-      <c r="Y5" s="4" t="s">
+      <c r="Y5" s="11" t="s">
         <v>486</v>
       </c>
-      <c r="Z5" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="5">
+      <c r="Z5" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="12">
         <v>27516.988735676339</v>
       </c>
-      <c r="AB5" s="5" t="s">
+      <c r="AB5" s="12" t="s">
         <v>566</v>
       </c>
-      <c r="AC5" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD5" s="6">
+      <c r="AC5" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="13">
         <v>213.07989402976887</v>
       </c>
-      <c r="AE5" s="6" t="s">
+      <c r="AE5" s="13" t="s">
         <v>431</v>
       </c>
-      <c r="AF5" s="6">
-        <v>1</v>
-      </c>
-      <c r="AG5">
+      <c r="AF5" s="13">
+        <v>1</v>
+      </c>
+      <c r="AG5" s="14">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -2893,61 +2925,61 @@
       <c r="N6" t="s">
         <v>15</v>
       </c>
-      <c r="O6" s="1">
+      <c r="O6" s="8">
         <v>1485.4685853936451</v>
       </c>
-      <c r="P6" s="1" t="s">
+      <c r="P6" s="8" t="s">
         <v>399</v>
       </c>
-      <c r="Q6" s="1">
-        <v>0</v>
-      </c>
-      <c r="R6" s="2">
+      <c r="Q6" s="8">
+        <v>0</v>
+      </c>
+      <c r="R6" s="9">
         <v>1527.6393240248924</v>
       </c>
-      <c r="S6" s="2" t="s">
+      <c r="S6" s="9" t="s">
         <v>438</v>
       </c>
-      <c r="T6" s="2">
-        <v>0</v>
-      </c>
-      <c r="U6" s="3">
+      <c r="T6" s="9">
+        <v>0</v>
+      </c>
+      <c r="U6" s="10">
         <v>76.537070086885308</v>
       </c>
-      <c r="V6" s="3" t="s">
+      <c r="V6" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="W6" s="3">
-        <v>0</v>
-      </c>
-      <c r="X6" s="4">
+      <c r="W6" s="10">
+        <v>0</v>
+      </c>
+      <c r="X6" s="11">
         <v>1463.4449972399425</v>
       </c>
-      <c r="Y6" s="4" t="s">
+      <c r="Y6" s="11" t="s">
         <v>507</v>
       </c>
-      <c r="Z6" s="4">
-        <v>1</v>
-      </c>
-      <c r="AA6" s="5">
+      <c r="Z6" s="11">
+        <v>1</v>
+      </c>
+      <c r="AA6" s="12">
         <v>1452.765634376997</v>
       </c>
-      <c r="AB6" s="5" t="s">
+      <c r="AB6" s="12" t="s">
         <v>560</v>
       </c>
-      <c r="AC6" s="5">
-        <v>1</v>
-      </c>
-      <c r="AD6" s="6">
+      <c r="AC6" s="12">
+        <v>1</v>
+      </c>
+      <c r="AD6" s="13">
         <v>1418.0347675141631</v>
       </c>
-      <c r="AE6" s="6" t="s">
+      <c r="AE6" s="13" t="s">
         <v>592</v>
       </c>
-      <c r="AF6" s="6">
-        <v>1</v>
-      </c>
-      <c r="AG6">
+      <c r="AF6" s="13">
+        <v>1</v>
+      </c>
+      <c r="AG6" s="14">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
@@ -2995,61 +3027,61 @@
       <c r="N7" t="s">
         <v>15</v>
       </c>
-      <c r="O7" s="1">
+      <c r="O7" s="8">
         <v>185.43309435797457</v>
       </c>
-      <c r="P7" s="1" t="s">
+      <c r="P7" s="8" t="s">
         <v>396</v>
       </c>
-      <c r="Q7" s="1">
-        <v>1</v>
-      </c>
-      <c r="R7" s="2">
+      <c r="Q7" s="8">
+        <v>1</v>
+      </c>
+      <c r="R7" s="9">
         <v>218.99589527717589</v>
       </c>
-      <c r="S7" s="2" t="s">
+      <c r="S7" s="9" t="s">
         <v>452</v>
       </c>
-      <c r="T7" s="2">
-        <v>1</v>
-      </c>
-      <c r="U7" s="3">
+      <c r="T7" s="9">
+        <v>1</v>
+      </c>
+      <c r="U7" s="10">
         <v>82.907334840038132</v>
       </c>
-      <c r="V7" s="3" t="s">
+      <c r="V7" s="10" t="s">
         <v>222</v>
       </c>
-      <c r="W7" s="3">
-        <v>0</v>
-      </c>
-      <c r="X7" s="4">
+      <c r="W7" s="10">
+        <v>0</v>
+      </c>
+      <c r="X7" s="11">
         <v>8406.324024773643</v>
       </c>
-      <c r="Y7" s="4" t="s">
+      <c r="Y7" s="11" t="s">
         <v>504</v>
       </c>
-      <c r="Z7" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="5">
+      <c r="Z7" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="12">
         <v>1867.8470550141981</v>
       </c>
-      <c r="AB7" s="5" t="s">
+      <c r="AB7" s="12" t="s">
         <v>531</v>
       </c>
-      <c r="AC7" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD7" s="6">
+      <c r="AC7" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="13">
         <v>185.43316824829995</v>
       </c>
-      <c r="AE7" s="6" t="s">
+      <c r="AE7" s="13" t="s">
         <v>396</v>
       </c>
-      <c r="AF7" s="6">
-        <v>1</v>
-      </c>
-      <c r="AG7">
+      <c r="AF7" s="13">
+        <v>1</v>
+      </c>
+      <c r="AG7" s="14">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
@@ -3097,61 +3129,61 @@
       <c r="N8" t="s">
         <v>24</v>
       </c>
-      <c r="O8" s="1">
+      <c r="O8" s="8">
         <v>305.30153970737382</v>
       </c>
-      <c r="P8" s="1" t="s">
+      <c r="P8" s="8" t="s">
         <v>394</v>
       </c>
-      <c r="Q8" s="1">
-        <v>1</v>
-      </c>
-      <c r="R8" s="2">
+      <c r="Q8" s="8">
+        <v>1</v>
+      </c>
+      <c r="R8" s="9">
         <v>975.51932541154122</v>
       </c>
-      <c r="S8" s="2" t="s">
+      <c r="S8" s="9" t="s">
         <v>450</v>
       </c>
-      <c r="T8" s="2">
-        <v>1</v>
-      </c>
-      <c r="U8" s="3">
+      <c r="T8" s="9">
+        <v>1</v>
+      </c>
+      <c r="U8" s="10">
         <v>86.804074231285412</v>
       </c>
-      <c r="V8" s="3" t="s">
+      <c r="V8" s="10" t="s">
         <v>214</v>
       </c>
-      <c r="W8" s="3">
-        <v>1</v>
-      </c>
-      <c r="X8" s="4">
+      <c r="W8" s="10">
+        <v>1</v>
+      </c>
+      <c r="X8" s="11">
         <v>1279.5751050329018</v>
       </c>
-      <c r="Y8" s="4" t="s">
+      <c r="Y8" s="11" t="s">
         <v>502</v>
       </c>
-      <c r="Z8" s="4">
-        <v>1</v>
-      </c>
-      <c r="AA8" s="5">
+      <c r="Z8" s="11">
+        <v>1</v>
+      </c>
+      <c r="AA8" s="12">
         <v>1666.4450756289975</v>
       </c>
-      <c r="AB8" s="5" t="s">
+      <c r="AB8" s="12" t="s">
         <v>556</v>
       </c>
-      <c r="AC8" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD8" s="6">
+      <c r="AC8" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="13">
         <v>305.30158410370632</v>
       </c>
-      <c r="AE8" s="6" t="s">
+      <c r="AE8" s="13" t="s">
         <v>394</v>
       </c>
-      <c r="AF8" s="6">
-        <v>1</v>
-      </c>
-      <c r="AG8">
+      <c r="AF8" s="13">
+        <v>1</v>
+      </c>
+      <c r="AG8" s="14">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
@@ -3199,61 +3231,61 @@
       <c r="N9" t="s">
         <v>15</v>
       </c>
-      <c r="O9" s="1">
+      <c r="O9" s="8">
         <v>192.1939741746267</v>
       </c>
-      <c r="P9" s="1" t="s">
+      <c r="P9" s="8" t="s">
         <v>397</v>
       </c>
-      <c r="Q9" s="1">
-        <v>1</v>
-      </c>
-      <c r="R9" s="2">
+      <c r="Q9" s="8">
+        <v>1</v>
+      </c>
+      <c r="R9" s="9">
         <v>192.1939741746267</v>
       </c>
-      <c r="S9" s="2" t="s">
+      <c r="S9" s="9" t="s">
         <v>453</v>
       </c>
-      <c r="T9" s="2">
-        <v>1</v>
-      </c>
-      <c r="U9" s="3">
+      <c r="T9" s="9">
+        <v>1</v>
+      </c>
+      <c r="U9" s="10">
         <v>93.54447104490221</v>
       </c>
-      <c r="V9" s="3" t="s">
+      <c r="V9" s="10" t="s">
         <v>231</v>
       </c>
-      <c r="W9" s="3">
-        <v>1</v>
-      </c>
-      <c r="X9" s="4">
+      <c r="W9" s="10">
+        <v>1</v>
+      </c>
+      <c r="X9" s="11">
         <v>11356.585458705769</v>
       </c>
-      <c r="Y9" s="4" t="s">
+      <c r="Y9" s="11" t="s">
         <v>505</v>
       </c>
-      <c r="Z9" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA9" s="5">
+      <c r="Z9" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="12">
         <v>7131.6533204247589</v>
       </c>
-      <c r="AB9" s="5" t="s">
+      <c r="AB9" s="12" t="s">
         <v>558</v>
       </c>
-      <c r="AC9" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD9" s="6">
+      <c r="AC9" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="13">
         <v>192.19401374552021</v>
       </c>
-      <c r="AE9" s="6" t="s">
+      <c r="AE9" s="13" t="s">
         <v>453</v>
       </c>
-      <c r="AF9" s="6">
-        <v>1</v>
-      </c>
-      <c r="AG9">
+      <c r="AF9" s="13">
+        <v>1</v>
+      </c>
+      <c r="AG9" s="14">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -3301,58 +3333,58 @@
       <c r="N10" t="s">
         <v>24</v>
       </c>
-      <c r="O10" s="1">
+      <c r="O10" s="8">
         <v>423.09903396432384</v>
       </c>
-      <c r="P10" s="1" t="s">
+      <c r="P10" s="8" t="s">
         <v>376</v>
       </c>
-      <c r="Q10" s="1">
-        <v>1</v>
-      </c>
-      <c r="R10" s="2">
+      <c r="Q10" s="8">
+        <v>1</v>
+      </c>
+      <c r="R10" s="9">
         <v>592.91675013397935</v>
       </c>
-      <c r="S10" s="2" t="s">
+      <c r="S10" s="9" t="s">
         <v>433</v>
       </c>
-      <c r="T10" s="2">
-        <v>1</v>
-      </c>
-      <c r="U10" s="3">
+      <c r="T10" s="9">
+        <v>1</v>
+      </c>
+      <c r="U10" s="10">
         <v>96.187615348459801</v>
       </c>
-      <c r="V10" s="3" t="s">
+      <c r="V10" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="W10" s="3">
-        <v>0</v>
-      </c>
-      <c r="X10" s="4">
+      <c r="W10" s="10">
+        <v>0</v>
+      </c>
+      <c r="X10" s="11">
         <v>9851.8107620763385</v>
       </c>
-      <c r="Y10" s="4" t="s">
+      <c r="Y10" s="11" t="s">
         <v>488</v>
       </c>
-      <c r="Z10" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA10" s="5">
+      <c r="Z10" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="12">
         <v>401.48178518563128</v>
       </c>
-      <c r="AB10" s="5" t="s">
+      <c r="AB10" s="12" t="s">
         <v>538</v>
       </c>
-      <c r="AC10" s="5">
-        <v>1</v>
-      </c>
-      <c r="AD10" s="6">
+      <c r="AC10" s="12">
+        <v>1</v>
+      </c>
+      <c r="AD10" s="13">
         <v>401.48167446014804</v>
       </c>
-      <c r="AF10" s="6">
-        <v>1</v>
-      </c>
-      <c r="AG10">
+      <c r="AF10" s="13">
+        <v>1</v>
+      </c>
+      <c r="AG10" s="14">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -3400,61 +3432,61 @@
       <c r="N11" t="s">
         <v>15</v>
       </c>
-      <c r="O11" s="1">
+      <c r="O11" s="8">
         <v>1411.276905135278</v>
       </c>
-      <c r="P11" s="1" t="s">
+      <c r="P11" s="8" t="s">
         <v>416</v>
       </c>
-      <c r="Q11" s="1">
-        <v>1</v>
-      </c>
-      <c r="R11" s="2">
+      <c r="Q11" s="8">
+        <v>1</v>
+      </c>
+      <c r="R11" s="9">
         <v>2621.2975776200269</v>
       </c>
-      <c r="S11" s="2" t="s">
+      <c r="S11" s="9" t="s">
         <v>401</v>
       </c>
-      <c r="T11" s="2">
-        <v>0</v>
-      </c>
-      <c r="U11" s="3">
+      <c r="T11" s="9">
+        <v>0</v>
+      </c>
+      <c r="U11" s="10">
         <v>97.189233225593355</v>
       </c>
-      <c r="V11" s="3" t="s">
+      <c r="V11" s="10" t="s">
         <v>344</v>
       </c>
-      <c r="W11" s="3">
-        <v>0</v>
-      </c>
-      <c r="X11" s="4">
+      <c r="W11" s="10">
+        <v>0</v>
+      </c>
+      <c r="X11" s="11">
         <v>9146.4449438088704</v>
       </c>
-      <c r="Y11" s="4" t="s">
+      <c r="Y11" s="11" t="s">
         <v>521</v>
       </c>
-      <c r="Z11" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA11" s="5">
+      <c r="Z11" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="12">
         <v>85385.269359024227</v>
       </c>
-      <c r="AB11" s="5" t="s">
+      <c r="AB11" s="12" t="s">
         <v>574</v>
       </c>
-      <c r="AC11" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD11" s="6">
+      <c r="AC11" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="13">
         <v>100.73759906848385</v>
       </c>
-      <c r="AE11" s="6" t="s">
+      <c r="AE11" s="13" t="s">
         <v>598</v>
       </c>
-      <c r="AF11" s="6">
-        <v>1</v>
-      </c>
-      <c r="AG11">
+      <c r="AF11" s="13">
+        <v>1</v>
+      </c>
+      <c r="AG11" s="14">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -3502,61 +3534,61 @@
       <c r="N12" t="s">
         <v>15</v>
       </c>
-      <c r="O12" s="1">
+      <c r="O12" s="8">
         <v>409.61427825593177</v>
       </c>
-      <c r="P12" s="1" t="s">
+      <c r="P12" s="8" t="s">
         <v>387</v>
       </c>
-      <c r="Q12" s="1">
-        <v>1</v>
-      </c>
-      <c r="R12" s="2">
+      <c r="Q12" s="8">
+        <v>1</v>
+      </c>
+      <c r="R12" s="9">
         <v>520.24146947906274</v>
       </c>
-      <c r="S12" s="2" t="s">
+      <c r="S12" s="9" t="s">
         <v>443</v>
       </c>
-      <c r="T12" s="2">
-        <v>1</v>
-      </c>
-      <c r="U12" s="3">
+      <c r="T12" s="9">
+        <v>1</v>
+      </c>
+      <c r="U12" s="10">
         <v>97.92961239863476</v>
       </c>
-      <c r="V12" s="3" t="s">
+      <c r="V12" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="W12" s="3">
-        <v>1</v>
-      </c>
-      <c r="X12" s="4">
+      <c r="W12" s="10">
+        <v>1</v>
+      </c>
+      <c r="X12" s="11">
         <v>689.24769575381697</v>
       </c>
-      <c r="Y12" s="4" t="s">
+      <c r="Y12" s="11" t="s">
         <v>496</v>
       </c>
-      <c r="Z12" s="4">
-        <v>1</v>
-      </c>
-      <c r="AA12" s="5">
+      <c r="Z12" s="11">
+        <v>1</v>
+      </c>
+      <c r="AA12" s="12">
         <v>2100.9665637468806</v>
       </c>
-      <c r="AB12" s="5" t="s">
+      <c r="AB12" s="12" t="s">
         <v>549</v>
       </c>
-      <c r="AC12" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD12" s="6">
+      <c r="AC12" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="13">
         <v>80.228730180445538</v>
       </c>
-      <c r="AE12" s="6" t="s">
+      <c r="AE12" s="13" t="s">
         <v>588</v>
       </c>
-      <c r="AF12" s="6">
-        <v>1</v>
-      </c>
-      <c r="AG12">
+      <c r="AF12" s="13">
+        <v>1</v>
+      </c>
+      <c r="AG12" s="14">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
@@ -3604,61 +3636,61 @@
       <c r="N13" t="s">
         <v>15</v>
       </c>
-      <c r="O13" s="1">
+      <c r="O13" s="8">
         <v>866.25410962472927</v>
       </c>
-      <c r="P13" s="1" t="s">
+      <c r="P13" s="8" t="s">
         <v>409</v>
       </c>
-      <c r="Q13" s="1">
-        <v>1</v>
-      </c>
-      <c r="R13" s="2">
+      <c r="Q13" s="8">
+        <v>1</v>
+      </c>
+      <c r="R13" s="9">
         <v>252.78619722372613</v>
       </c>
-      <c r="S13" s="2" t="s">
+      <c r="S13" s="9" t="s">
         <v>463</v>
       </c>
-      <c r="T13" s="2">
-        <v>1</v>
-      </c>
-      <c r="U13" s="3">
+      <c r="T13" s="9">
+        <v>1</v>
+      </c>
+      <c r="U13" s="10">
         <v>100.09973720264132</v>
       </c>
-      <c r="V13" s="3" t="s">
+      <c r="V13" s="10" t="s">
         <v>303</v>
       </c>
-      <c r="W13" s="3">
-        <v>1</v>
-      </c>
-      <c r="X13" s="4">
+      <c r="W13" s="10">
+        <v>1</v>
+      </c>
+      <c r="X13" s="11">
         <v>2569.7580239595181</v>
       </c>
-      <c r="Y13" s="4" t="s">
+      <c r="Y13" s="11" t="s">
         <v>515</v>
       </c>
-      <c r="Z13" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA13" s="5">
+      <c r="Z13" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="12">
         <v>3160.470371074317</v>
       </c>
-      <c r="AB13" s="5" t="s">
+      <c r="AB13" s="12" t="s">
         <v>568</v>
       </c>
-      <c r="AC13" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD13" s="6">
+      <c r="AC13" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="13">
         <v>252.78615524569162</v>
       </c>
-      <c r="AE13" s="6" t="s">
+      <c r="AE13" s="13" t="s">
         <v>463</v>
       </c>
-      <c r="AF13" s="6">
-        <v>1</v>
-      </c>
-      <c r="AG13">
+      <c r="AF13" s="13">
+        <v>1</v>
+      </c>
+      <c r="AG13" s="14">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -3706,61 +3738,61 @@
       <c r="N14" t="s">
         <v>24</v>
       </c>
-      <c r="O14" s="1">
+      <c r="O14" s="8">
         <v>138.8838866861264</v>
       </c>
-      <c r="P14" s="1" t="s">
+      <c r="P14" s="8" t="s">
         <v>383</v>
       </c>
-      <c r="Q14" s="1">
-        <v>1</v>
-      </c>
-      <c r="R14" s="2">
+      <c r="Q14" s="8">
+        <v>1</v>
+      </c>
+      <c r="R14" s="9">
         <v>152.38553894208889</v>
       </c>
-      <c r="S14" s="2" t="s">
+      <c r="S14" s="9" t="s">
         <v>439</v>
       </c>
-      <c r="T14" s="2">
-        <v>1</v>
-      </c>
-      <c r="U14" s="3">
+      <c r="T14" s="9">
+        <v>1</v>
+      </c>
+      <c r="U14" s="10">
         <v>101.43359532469063</v>
       </c>
-      <c r="V14" s="3" t="s">
+      <c r="V14" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="W14" s="3">
-        <v>1</v>
-      </c>
-      <c r="X14" s="4">
+      <c r="W14" s="10">
+        <v>1</v>
+      </c>
+      <c r="X14" s="11">
         <v>4713.5298736584955</v>
       </c>
-      <c r="Y14" s="4" t="s">
+      <c r="Y14" s="11" t="s">
         <v>493</v>
       </c>
-      <c r="Z14" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA14" s="5">
+      <c r="Z14" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="12">
         <v>443.14262130914807</v>
       </c>
-      <c r="AB14" s="5" t="s">
+      <c r="AB14" s="12" t="s">
         <v>545</v>
       </c>
-      <c r="AC14" s="5">
-        <v>1</v>
-      </c>
-      <c r="AD14" s="6">
+      <c r="AC14" s="12">
+        <v>1</v>
+      </c>
+      <c r="AD14" s="13">
         <v>138.88394507058769</v>
       </c>
-      <c r="AE14" s="6" t="s">
+      <c r="AE14" s="13" t="s">
         <v>383</v>
       </c>
-      <c r="AF14" s="6">
-        <v>1</v>
-      </c>
-      <c r="AG14">
+      <c r="AF14" s="13">
+        <v>1</v>
+      </c>
+      <c r="AG14" s="14">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
@@ -3808,61 +3840,61 @@
       <c r="N15" t="s">
         <v>24</v>
       </c>
-      <c r="O15" s="1">
+      <c r="O15" s="8">
         <v>301.40166346448933</v>
       </c>
-      <c r="P15" s="1" t="s">
+      <c r="P15" s="8" t="s">
         <v>394</v>
       </c>
-      <c r="Q15" s="1">
-        <v>1</v>
-      </c>
-      <c r="R15" s="2">
+      <c r="Q15" s="8">
+        <v>1</v>
+      </c>
+      <c r="R15" s="9">
         <v>989.82418012969958</v>
       </c>
-      <c r="S15" s="2" t="s">
+      <c r="S15" s="9" t="s">
         <v>456</v>
       </c>
-      <c r="T15" s="2">
-        <v>1</v>
-      </c>
-      <c r="U15" s="3">
+      <c r="T15" s="9">
+        <v>1</v>
+      </c>
+      <c r="U15" s="10">
         <v>111.96265587025647</v>
       </c>
-      <c r="V15" s="3" t="s">
+      <c r="V15" s="10" t="s">
         <v>251</v>
       </c>
-      <c r="W15" s="3">
-        <v>0</v>
-      </c>
-      <c r="X15" s="4">
+      <c r="W15" s="10">
+        <v>0</v>
+      </c>
+      <c r="X15" s="11">
         <v>1300.8799419017844</v>
       </c>
-      <c r="Y15" s="4" t="s">
+      <c r="Y15" s="11" t="s">
         <v>502</v>
       </c>
-      <c r="Z15" s="4">
-        <v>1</v>
-      </c>
-      <c r="AA15" s="5">
+      <c r="Z15" s="11">
+        <v>1</v>
+      </c>
+      <c r="AA15" s="12">
         <v>1663.6938536156281</v>
       </c>
-      <c r="AB15" s="5" t="s">
+      <c r="AB15" s="12" t="s">
         <v>556</v>
       </c>
-      <c r="AC15" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD15" s="6">
+      <c r="AC15" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="13">
         <v>301.40171385772925</v>
       </c>
-      <c r="AE15" s="6" t="s">
+      <c r="AE15" s="13" t="s">
         <v>394</v>
       </c>
-      <c r="AF15" s="6">
-        <v>1</v>
-      </c>
-      <c r="AG15">
+      <c r="AF15" s="13">
+        <v>1</v>
+      </c>
+      <c r="AG15" s="14">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -3910,61 +3942,61 @@
       <c r="N16" t="s">
         <v>24</v>
       </c>
-      <c r="O16" s="1">
+      <c r="O16" s="8">
         <v>566.21153521829444</v>
       </c>
-      <c r="P16" s="1" t="s">
+      <c r="P16" s="8" t="s">
         <v>405</v>
       </c>
-      <c r="Q16" s="1">
-        <v>1</v>
-      </c>
-      <c r="R16" s="2">
+      <c r="Q16" s="8">
+        <v>1</v>
+      </c>
+      <c r="R16" s="9">
         <v>1979.4287280187843</v>
       </c>
-      <c r="S16" s="2" t="s">
+      <c r="S16" s="9" t="s">
         <v>460</v>
       </c>
-      <c r="T16" s="2">
-        <v>0</v>
-      </c>
-      <c r="U16" s="3">
+      <c r="T16" s="9">
+        <v>0</v>
+      </c>
+      <c r="U16" s="10">
         <v>112.48356903976104</v>
       </c>
-      <c r="V16" s="3" t="s">
+      <c r="V16" s="10" t="s">
         <v>276</v>
       </c>
-      <c r="W16" s="3">
-        <v>1</v>
-      </c>
-      <c r="X16" s="4">
+      <c r="W16" s="10">
+        <v>1</v>
+      </c>
+      <c r="X16" s="11">
         <v>2560.6531819248062</v>
       </c>
-      <c r="Y16" s="4" t="s">
+      <c r="Y16" s="11" t="s">
         <v>513</v>
       </c>
-      <c r="Z16" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA16" s="5">
+      <c r="Z16" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="12">
         <v>8008.1416914317197</v>
       </c>
-      <c r="AB16" s="5" t="s">
+      <c r="AB16" s="12" t="s">
         <v>565</v>
       </c>
-      <c r="AC16" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD16" s="6">
+      <c r="AC16" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD16" s="13">
         <v>566.21152077247541</v>
       </c>
-      <c r="AE16" s="6" t="s">
+      <c r="AE16" s="13" t="s">
         <v>405</v>
       </c>
-      <c r="AF16" s="6">
-        <v>1</v>
-      </c>
-      <c r="AG16">
+      <c r="AF16" s="13">
+        <v>1</v>
+      </c>
+      <c r="AG16" s="14">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
@@ -4012,61 +4044,61 @@
       <c r="N17" t="s">
         <v>24</v>
       </c>
-      <c r="O17" s="1">
+      <c r="O17" s="8">
         <v>407.03020402733978</v>
       </c>
-      <c r="P17" s="1" t="s">
+      <c r="P17" s="8" t="s">
         <v>376</v>
       </c>
-      <c r="Q17" s="1">
-        <v>1</v>
-      </c>
-      <c r="R17" s="2">
+      <c r="Q17" s="8">
+        <v>1</v>
+      </c>
+      <c r="R17" s="9">
         <v>611.38420192338174</v>
       </c>
-      <c r="S17" s="2" t="s">
+      <c r="S17" s="9" t="s">
         <v>433</v>
       </c>
-      <c r="T17" s="2">
-        <v>1</v>
-      </c>
-      <c r="U17" s="3">
+      <c r="T17" s="9">
+        <v>1</v>
+      </c>
+      <c r="U17" s="10">
         <v>114.3797693133192</v>
       </c>
-      <c r="V17" s="3" t="s">
+      <c r="V17" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="W17" s="3">
-        <v>0</v>
-      </c>
-      <c r="X17" s="4">
+      <c r="W17" s="10">
+        <v>0</v>
+      </c>
+      <c r="X17" s="11">
         <v>9868.3710287543327</v>
       </c>
-      <c r="Y17" s="4" t="s">
+      <c r="Y17" s="11" t="s">
         <v>488</v>
       </c>
-      <c r="Z17" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA17" s="5">
+      <c r="Z17" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="12">
         <v>418.8824799920398</v>
       </c>
-      <c r="AB17" s="5" t="s">
+      <c r="AB17" s="12" t="s">
         <v>538</v>
       </c>
-      <c r="AC17" s="5">
-        <v>1</v>
-      </c>
-      <c r="AD17" s="6">
+      <c r="AC17" s="12">
+        <v>1</v>
+      </c>
+      <c r="AD17" s="13">
         <v>407.0302750021242</v>
       </c>
-      <c r="AE17" s="6" t="s">
+      <c r="AE17" s="13" t="s">
         <v>376</v>
       </c>
-      <c r="AF17" s="6">
-        <v>1</v>
-      </c>
-      <c r="AG17">
+      <c r="AF17" s="13">
+        <v>1</v>
+      </c>
+      <c r="AG17" s="14">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -4114,61 +4146,61 @@
       <c r="N18" t="s">
         <v>24</v>
       </c>
-      <c r="O18" s="1">
+      <c r="O18" s="8">
         <v>133.93484053497704</v>
       </c>
-      <c r="P18" s="1" t="s">
+      <c r="P18" s="8" t="s">
         <v>383</v>
       </c>
-      <c r="Q18" s="1">
-        <v>1</v>
-      </c>
-      <c r="R18" s="2">
+      <c r="Q18" s="8">
+        <v>1</v>
+      </c>
+      <c r="R18" s="9">
         <v>143.89903804011433</v>
       </c>
-      <c r="S18" s="2" t="s">
+      <c r="S18" s="9" t="s">
         <v>439</v>
       </c>
-      <c r="T18" s="2">
-        <v>1</v>
-      </c>
-      <c r="U18" s="3">
+      <c r="T18" s="9">
+        <v>1</v>
+      </c>
+      <c r="U18" s="10">
         <v>123.37093635595352</v>
       </c>
-      <c r="V18" s="3" t="s">
+      <c r="V18" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="W18" s="3">
-        <v>1</v>
-      </c>
-      <c r="X18" s="4">
+      <c r="W18" s="10">
+        <v>1</v>
+      </c>
+      <c r="X18" s="11">
         <v>4691.4292826734745</v>
       </c>
-      <c r="Y18" s="4" t="s">
+      <c r="Y18" s="11" t="s">
         <v>493</v>
       </c>
-      <c r="Z18" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA18" s="5">
+      <c r="Z18" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="12">
         <v>435.1987826090309</v>
       </c>
-      <c r="AB18" s="5" t="s">
+      <c r="AB18" s="12" t="s">
         <v>545</v>
       </c>
-      <c r="AC18" s="5">
-        <v>1</v>
-      </c>
-      <c r="AD18" s="6">
+      <c r="AC18" s="12">
+        <v>1</v>
+      </c>
+      <c r="AD18" s="13">
         <v>133.93487988777366</v>
       </c>
-      <c r="AE18" s="6" t="s">
+      <c r="AE18" s="13" t="s">
         <v>383</v>
       </c>
-      <c r="AF18" s="6">
-        <v>1</v>
-      </c>
-      <c r="AG18">
+      <c r="AF18" s="13">
+        <v>1</v>
+      </c>
+      <c r="AG18" s="14">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
@@ -4216,61 +4248,61 @@
       <c r="N19" t="s">
         <v>15</v>
       </c>
-      <c r="O19" s="1">
+      <c r="O19" s="8">
         <v>60.192575084389276</v>
       </c>
-      <c r="P19" s="1" t="s">
+      <c r="P19" s="8" t="s">
         <v>368</v>
       </c>
-      <c r="Q19" s="1">
-        <v>1</v>
-      </c>
-      <c r="R19" s="2">
+      <c r="Q19" s="8">
+        <v>1</v>
+      </c>
+      <c r="R19" s="9">
         <v>480.4676686317739</v>
       </c>
-      <c r="S19" s="2" t="s">
+      <c r="S19" s="9" t="s">
         <v>425</v>
       </c>
-      <c r="T19" s="2">
-        <v>1</v>
-      </c>
-      <c r="U19" s="3">
+      <c r="T19" s="9">
+        <v>1</v>
+      </c>
+      <c r="U19" s="10">
         <v>124.80358605822749</v>
       </c>
-      <c r="V19" s="3" t="s">
+      <c r="V19" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="W19" s="3">
-        <v>1</v>
-      </c>
-      <c r="X19" s="4">
+      <c r="W19" s="10">
+        <v>1</v>
+      </c>
+      <c r="X19" s="11">
         <v>607.94600033937115</v>
       </c>
-      <c r="Y19" s="4" t="s">
+      <c r="Y19" s="11" t="s">
         <v>480</v>
       </c>
-      <c r="Z19" s="4">
-        <v>1</v>
-      </c>
-      <c r="AA19" s="5">
+      <c r="Z19" s="11">
+        <v>1</v>
+      </c>
+      <c r="AA19" s="12">
         <v>6064.2458772364289</v>
       </c>
-      <c r="AB19" s="5" t="s">
+      <c r="AB19" s="12" t="s">
         <v>530</v>
       </c>
-      <c r="AC19" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD19" s="6">
+      <c r="AC19" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD19" s="13">
         <v>60.192626839835064</v>
       </c>
-      <c r="AE19" s="6" t="s">
+      <c r="AE19" s="13" t="s">
         <v>368</v>
       </c>
-      <c r="AF19" s="6">
-        <v>1</v>
-      </c>
-      <c r="AG19">
+      <c r="AF19" s="13">
+        <v>1</v>
+      </c>
+      <c r="AG19" s="14">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
@@ -4318,61 +4350,61 @@
       <c r="N20" t="s">
         <v>24</v>
       </c>
-      <c r="O20" s="1">
+      <c r="O20" s="8">
         <v>47.958097844009636</v>
       </c>
-      <c r="P20" s="1" t="s">
+      <c r="P20" s="8" t="s">
         <v>368</v>
       </c>
-      <c r="Q20" s="1">
-        <v>1</v>
-      </c>
-      <c r="R20" s="2">
+      <c r="Q20" s="8">
+        <v>1</v>
+      </c>
+      <c r="R20" s="9">
         <v>492.04711253908908</v>
       </c>
-      <c r="S20" s="2" t="s">
+      <c r="S20" s="9" t="s">
         <v>425</v>
       </c>
-      <c r="T20" s="2">
-        <v>1</v>
-      </c>
-      <c r="U20" s="3">
+      <c r="T20" s="9">
+        <v>1</v>
+      </c>
+      <c r="U20" s="10">
         <v>125.23281623103965</v>
       </c>
-      <c r="V20" s="3" t="s">
+      <c r="V20" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="W20" s="3">
-        <v>0</v>
-      </c>
-      <c r="X20" s="4">
+      <c r="W20" s="10">
+        <v>0</v>
+      </c>
+      <c r="X20" s="11">
         <v>595.30772852988548</v>
       </c>
-      <c r="Y20" s="4" t="s">
+      <c r="Y20" s="11" t="s">
         <v>480</v>
       </c>
-      <c r="Z20" s="4">
-        <v>1</v>
-      </c>
-      <c r="AA20" s="5">
+      <c r="Z20" s="11">
+        <v>1</v>
+      </c>
+      <c r="AA20" s="12">
         <v>6051.7066347078471</v>
       </c>
-      <c r="AB20" s="5" t="s">
+      <c r="AB20" s="12" t="s">
         <v>530</v>
       </c>
-      <c r="AC20" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD20" s="6">
+      <c r="AC20" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD20" s="13">
         <v>47.958151168962424</v>
       </c>
-      <c r="AE20" s="6" t="s">
+      <c r="AE20" s="13" t="s">
         <v>368</v>
       </c>
-      <c r="AF20" s="6">
-        <v>1</v>
-      </c>
-      <c r="AG20">
+      <c r="AF20" s="13">
+        <v>1</v>
+      </c>
+      <c r="AG20" s="14">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -4420,61 +4452,61 @@
       <c r="N21" t="s">
         <v>15</v>
       </c>
-      <c r="O21" s="1">
+      <c r="O21" s="8">
         <v>43.126035913793736</v>
       </c>
-      <c r="P21" s="1" t="s">
+      <c r="P21" s="8" t="s">
         <v>379</v>
       </c>
-      <c r="Q21" s="1">
-        <v>1</v>
-      </c>
-      <c r="R21" s="2">
+      <c r="Q21" s="8">
+        <v>1</v>
+      </c>
+      <c r="R21" s="9">
         <v>458.43559672069557</v>
       </c>
-      <c r="S21" s="2" t="s">
+      <c r="S21" s="9" t="s">
         <v>436</v>
       </c>
-      <c r="T21" s="2">
-        <v>1</v>
-      </c>
-      <c r="U21" s="3">
+      <c r="T21" s="9">
+        <v>1</v>
+      </c>
+      <c r="U21" s="10">
         <v>125.51484976572036</v>
       </c>
-      <c r="V21" s="3" t="s">
+      <c r="V21" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="W21" s="3">
-        <v>0</v>
-      </c>
-      <c r="X21" s="4">
+      <c r="W21" s="10">
+        <v>0</v>
+      </c>
+      <c r="X21" s="11">
         <v>4643.5197617561316</v>
       </c>
-      <c r="Y21" s="4" t="s">
+      <c r="Y21" s="11" t="s">
         <v>482</v>
       </c>
-      <c r="Z21" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA21" s="5">
+      <c r="Z21" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="12">
         <v>873.80416930849697</v>
       </c>
-      <c r="AB21" s="5" t="s">
+      <c r="AB21" s="12" t="s">
         <v>541</v>
       </c>
-      <c r="AC21" s="5">
-        <v>1</v>
-      </c>
-      <c r="AD21" s="6">
+      <c r="AC21" s="12">
+        <v>1</v>
+      </c>
+      <c r="AD21" s="13">
         <v>43.125980243756878</v>
       </c>
-      <c r="AE21" s="6" t="s">
+      <c r="AE21" s="13" t="s">
         <v>379</v>
       </c>
-      <c r="AF21" s="6">
-        <v>1</v>
-      </c>
-      <c r="AG21">
+      <c r="AF21" s="13">
+        <v>1</v>
+      </c>
+      <c r="AG21" s="14">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -4522,61 +4554,61 @@
       <c r="N22" t="s">
         <v>24</v>
       </c>
-      <c r="O22" s="1">
+      <c r="O22" s="8">
         <v>554.40754373887478</v>
       </c>
-      <c r="P22" s="1" t="s">
+      <c r="P22" s="8" t="s">
         <v>405</v>
       </c>
-      <c r="Q22" s="1">
-        <v>1</v>
-      </c>
-      <c r="R22" s="2">
+      <c r="Q22" s="8">
+        <v>1</v>
+      </c>
+      <c r="R22" s="9">
         <v>1966.0953194430128</v>
       </c>
-      <c r="S22" s="2" t="s">
+      <c r="S22" s="9" t="s">
         <v>460</v>
       </c>
-      <c r="T22" s="2">
-        <v>0</v>
-      </c>
-      <c r="U22" s="3">
+      <c r="T22" s="9">
+        <v>0</v>
+      </c>
+      <c r="U22" s="10">
         <v>126.45298622631292</v>
       </c>
-      <c r="V22" s="3" t="s">
+      <c r="V22" s="10" t="s">
         <v>276</v>
       </c>
-      <c r="W22" s="3">
-        <v>1</v>
-      </c>
-      <c r="X22" s="4">
+      <c r="W22" s="10">
+        <v>1</v>
+      </c>
+      <c r="X22" s="11">
         <v>2547.7650163273556</v>
       </c>
-      <c r="Y22" s="4" t="s">
+      <c r="Y22" s="11" t="s">
         <v>513</v>
       </c>
-      <c r="Z22" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA22" s="5">
+      <c r="Z22" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="12">
         <v>8022.3718949118174</v>
       </c>
-      <c r="AB22" s="5" t="s">
+      <c r="AB22" s="12" t="s">
         <v>565</v>
       </c>
-      <c r="AC22" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD22" s="6">
+      <c r="AC22" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD22" s="13">
         <v>554.4075296750276</v>
       </c>
-      <c r="AE22" s="6" t="s">
+      <c r="AE22" s="13" t="s">
         <v>405</v>
       </c>
-      <c r="AF22" s="6">
-        <v>1</v>
-      </c>
-      <c r="AG22">
+      <c r="AF22" s="13">
+        <v>1</v>
+      </c>
+      <c r="AG22" s="14">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
@@ -4624,61 +4656,61 @@
       <c r="N23" t="s">
         <v>15</v>
       </c>
-      <c r="O23" s="1">
+      <c r="O23" s="8">
         <v>49.431582334258877</v>
       </c>
-      <c r="P23" s="1" t="s">
+      <c r="P23" s="8" t="s">
         <v>379</v>
       </c>
-      <c r="Q23" s="1">
-        <v>1</v>
-      </c>
-      <c r="R23" s="2">
+      <c r="Q23" s="8">
+        <v>1</v>
+      </c>
+      <c r="R23" s="9">
         <v>449.64426265672847</v>
       </c>
-      <c r="S23" s="2" t="s">
+      <c r="S23" s="9" t="s">
         <v>436</v>
       </c>
-      <c r="T23" s="2">
-        <v>1</v>
-      </c>
-      <c r="U23" s="3">
+      <c r="T23" s="9">
+        <v>1</v>
+      </c>
+      <c r="U23" s="10">
         <v>126.75517608588619</v>
       </c>
-      <c r="V23" s="3" t="s">
+      <c r="V23" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="W23" s="3">
-        <v>0</v>
-      </c>
-      <c r="X23" s="4">
+      <c r="W23" s="10">
+        <v>0</v>
+      </c>
+      <c r="X23" s="11">
         <v>4644.0575534074151</v>
       </c>
-      <c r="Y23" s="4" t="s">
+      <c r="Y23" s="11" t="s">
         <v>482</v>
       </c>
-      <c r="Z23" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA23" s="5">
+      <c r="Z23" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="12">
         <v>869.00864988201454</v>
       </c>
-      <c r="AB23" s="5" t="s">
+      <c r="AB23" s="12" t="s">
         <v>541</v>
       </c>
-      <c r="AC23" s="5">
-        <v>1</v>
-      </c>
-      <c r="AD23" s="6">
+      <c r="AC23" s="12">
+        <v>1</v>
+      </c>
+      <c r="AD23" s="13">
         <v>49.431529009504516</v>
       </c>
-      <c r="AE23" s="6" t="s">
+      <c r="AE23" s="13" t="s">
         <v>379</v>
       </c>
-      <c r="AF23" s="6">
-        <v>1</v>
-      </c>
-      <c r="AG23">
+      <c r="AF23" s="13">
+        <v>1</v>
+      </c>
+      <c r="AG23" s="14">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -4726,61 +4758,61 @@
       <c r="N24" t="s">
         <v>15</v>
       </c>
-      <c r="O24" s="1">
+      <c r="O24" s="8">
         <v>7168.2265703594958</v>
       </c>
-      <c r="P24" s="1" t="s">
+      <c r="P24" s="8" t="s">
         <v>408</v>
       </c>
-      <c r="Q24" s="1">
-        <v>0</v>
-      </c>
-      <c r="R24" s="2">
+      <c r="Q24" s="8">
+        <v>0</v>
+      </c>
+      <c r="R24" s="9">
         <v>5710.4689286164858</v>
       </c>
-      <c r="S24" s="2" t="s">
+      <c r="S24" s="9" t="s">
         <v>462</v>
       </c>
-      <c r="T24" s="2">
-        <v>0</v>
-      </c>
-      <c r="U24" s="3">
+      <c r="T24" s="9">
+        <v>0</v>
+      </c>
+      <c r="U24" s="10">
         <v>137.94418877973834</v>
       </c>
-      <c r="V24" s="3" t="s">
+      <c r="V24" s="10" t="s">
         <v>298</v>
       </c>
-      <c r="W24" s="3">
-        <v>1</v>
-      </c>
-      <c r="X24" s="4">
+      <c r="W24" s="10">
+        <v>1</v>
+      </c>
+      <c r="X24" s="11">
         <v>49248.446145847403</v>
       </c>
-      <c r="Y24" s="4" t="s">
+      <c r="Y24" s="11" t="s">
         <v>488</v>
       </c>
-      <c r="Z24" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA24" s="5">
+      <c r="Z24" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="12">
         <v>6532.5251718864611</v>
       </c>
-      <c r="AB24" s="5" t="s">
+      <c r="AB24" s="12" t="s">
         <v>538</v>
       </c>
-      <c r="AC24" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD24" s="6">
+      <c r="AC24" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD24" s="13">
         <v>481.14549486095751</v>
       </c>
-      <c r="AE24" s="6" t="s">
+      <c r="AE24" s="13" t="s">
         <v>279</v>
       </c>
-      <c r="AF24" s="6">
-        <v>1</v>
-      </c>
-      <c r="AG24">
+      <c r="AF24" s="13">
+        <v>1</v>
+      </c>
+      <c r="AG24" s="14">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -4828,61 +4860,61 @@
       <c r="N25" t="s">
         <v>24</v>
       </c>
-      <c r="O25" s="1">
+      <c r="O25" s="8">
         <v>313.58820476860399</v>
       </c>
-      <c r="P25" s="1" t="s">
+      <c r="P25" s="8" t="s">
         <v>374</v>
       </c>
-      <c r="Q25" s="1">
-        <v>1</v>
-      </c>
-      <c r="R25" s="2">
+      <c r="Q25" s="8">
+        <v>1</v>
+      </c>
+      <c r="R25" s="9">
         <v>434.55747320284559</v>
       </c>
-      <c r="S25" s="2" t="s">
+      <c r="S25" s="9" t="s">
         <v>431</v>
       </c>
-      <c r="T25" s="2">
-        <v>1</v>
-      </c>
-      <c r="U25" s="3">
+      <c r="T25" s="9">
+        <v>1</v>
+      </c>
+      <c r="U25" s="10">
         <v>138.0159751372058</v>
       </c>
-      <c r="V25" s="3" t="s">
+      <c r="V25" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="W25" s="3">
-        <v>1</v>
-      </c>
-      <c r="X25" s="4">
+      <c r="W25" s="10">
+        <v>1</v>
+      </c>
+      <c r="X25" s="11">
         <v>2057.5991598967416</v>
       </c>
-      <c r="Y25" s="4" t="s">
+      <c r="Y25" s="11" t="s">
         <v>486</v>
       </c>
-      <c r="Z25" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA25" s="5">
+      <c r="Z25" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="12">
         <v>3659.4668349389781</v>
       </c>
-      <c r="AB25" s="5" t="s">
+      <c r="AB25" s="12" t="s">
         <v>536</v>
       </c>
-      <c r="AC25" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD25" s="6">
+      <c r="AC25" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD25" s="13">
         <v>313.58820560254077</v>
       </c>
-      <c r="AE25" s="6" t="s">
+      <c r="AE25" s="13" t="s">
         <v>374</v>
       </c>
-      <c r="AF25" s="6">
-        <v>1</v>
-      </c>
-      <c r="AG25">
+      <c r="AF25" s="13">
+        <v>1</v>
+      </c>
+      <c r="AG25" s="14">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -4930,61 +4962,61 @@
       <c r="N26" t="s">
         <v>24</v>
       </c>
-      <c r="O26" s="1">
+      <c r="O26" s="8">
         <v>1858.6819910428515</v>
       </c>
-      <c r="P26" s="1" t="s">
+      <c r="P26" s="8" t="s">
         <v>410</v>
       </c>
-      <c r="Q26" s="1">
-        <v>0</v>
-      </c>
-      <c r="R26" s="2">
+      <c r="Q26" s="8">
+        <v>0</v>
+      </c>
+      <c r="R26" s="9">
         <v>2087.5208815033784</v>
       </c>
-      <c r="S26" s="2" t="s">
+      <c r="S26" s="9" t="s">
         <v>465</v>
       </c>
-      <c r="T26" s="2">
-        <v>0</v>
-      </c>
-      <c r="U26" s="3">
+      <c r="T26" s="9">
+        <v>0</v>
+      </c>
+      <c r="U26" s="10">
         <v>144.92783677483118</v>
       </c>
-      <c r="V26" s="3" t="s">
+      <c r="V26" s="10" t="s">
         <v>311</v>
       </c>
-      <c r="W26" s="3">
-        <v>1</v>
-      </c>
-      <c r="X26" s="4">
+      <c r="W26" s="10">
+        <v>1</v>
+      </c>
+      <c r="X26" s="11">
         <v>19582.307595528244</v>
       </c>
-      <c r="Y26" s="4" t="s">
+      <c r="Y26" s="11" t="s">
         <v>517</v>
       </c>
-      <c r="Z26" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA26" s="5">
+      <c r="Z26" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA26" s="12">
         <v>5744.0339169214021</v>
       </c>
-      <c r="AB26" s="5" t="s">
+      <c r="AB26" s="12" t="s">
         <v>570</v>
       </c>
-      <c r="AC26" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD26" s="6">
+      <c r="AC26" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD26" s="13">
         <v>100.82269605809142</v>
       </c>
-      <c r="AE26" s="6" t="s">
+      <c r="AE26" s="13" t="s">
         <v>307</v>
       </c>
-      <c r="AF26" s="6">
-        <v>1</v>
-      </c>
-      <c r="AG26">
+      <c r="AF26" s="13">
+        <v>1</v>
+      </c>
+      <c r="AG26" s="14">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -5032,61 +5064,61 @@
       <c r="N27" t="s">
         <v>15</v>
       </c>
-      <c r="O27" s="1">
+      <c r="O27" s="8">
         <v>273.90977683163993</v>
       </c>
-      <c r="P27" s="1" t="s">
+      <c r="P27" s="8" t="s">
         <v>373</v>
       </c>
-      <c r="Q27" s="1">
-        <v>1</v>
-      </c>
-      <c r="R27" s="2">
+      <c r="Q27" s="8">
+        <v>1</v>
+      </c>
+      <c r="R27" s="9">
         <v>2113.8624159917122</v>
       </c>
-      <c r="S27" s="2" t="s">
+      <c r="S27" s="9" t="s">
         <v>430</v>
       </c>
-      <c r="T27" s="2">
-        <v>0</v>
-      </c>
-      <c r="U27" s="3">
+      <c r="T27" s="9">
+        <v>0</v>
+      </c>
+      <c r="U27" s="10">
         <v>157.75184101132578</v>
       </c>
-      <c r="V27" s="3" t="s">
+      <c r="V27" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="W27" s="3">
-        <v>0</v>
-      </c>
-      <c r="X27" s="4">
+      <c r="W27" s="10">
+        <v>0</v>
+      </c>
+      <c r="X27" s="11">
         <v>6660.8734537877508</v>
       </c>
-      <c r="Y27" s="4" t="s">
+      <c r="Y27" s="11" t="s">
         <v>485</v>
       </c>
-      <c r="Z27" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA27" s="5">
+      <c r="Z27" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA27" s="12">
         <v>2713.4812052158613</v>
       </c>
-      <c r="AB27" s="5" t="s">
+      <c r="AB27" s="12" t="s">
         <v>535</v>
       </c>
-      <c r="AC27" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD27" s="6">
+      <c r="AC27" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD27" s="13">
         <v>191.34438519363991</v>
       </c>
-      <c r="AE27" s="6" t="s">
+      <c r="AE27" s="13" t="s">
         <v>582</v>
       </c>
-      <c r="AF27" s="6">
-        <v>1</v>
-      </c>
-      <c r="AG27">
+      <c r="AF27" s="13">
+        <v>1</v>
+      </c>
+      <c r="AG27" s="14">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -5134,61 +5166,61 @@
       <c r="N28" t="s">
         <v>24</v>
       </c>
-      <c r="O28" s="1">
+      <c r="O28" s="8">
         <v>13450.638751764784</v>
       </c>
-      <c r="P28" s="1" t="s">
+      <c r="P28" s="8" t="s">
         <v>377</v>
       </c>
-      <c r="Q28" s="1">
-        <v>0</v>
-      </c>
-      <c r="R28" s="2">
+      <c r="Q28" s="8">
+        <v>0</v>
+      </c>
+      <c r="R28" s="9">
         <v>15642.1380980473</v>
       </c>
-      <c r="S28" s="2" t="s">
+      <c r="S28" s="9" t="s">
         <v>434</v>
       </c>
-      <c r="T28" s="2">
-        <v>0</v>
-      </c>
-      <c r="U28" s="3">
+      <c r="T28" s="9">
+        <v>0</v>
+      </c>
+      <c r="U28" s="10">
         <v>160.12268189640059</v>
       </c>
-      <c r="V28" s="3" t="s">
+      <c r="V28" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="W28" s="3">
-        <v>1</v>
-      </c>
-      <c r="X28" s="4">
+      <c r="W28" s="10">
+        <v>1</v>
+      </c>
+      <c r="X28" s="11">
         <v>20290.444585489236</v>
       </c>
-      <c r="Y28" s="4" t="s">
+      <c r="Y28" s="11" t="s">
         <v>489</v>
       </c>
-      <c r="Z28" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA28" s="5">
+      <c r="Z28" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="12">
         <v>164550.28169603134</v>
       </c>
-      <c r="AB28" s="5" t="s">
+      <c r="AB28" s="12" t="s">
         <v>539</v>
       </c>
-      <c r="AC28" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD28" s="6">
+      <c r="AC28" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD28" s="13">
         <v>165.4651796492538</v>
       </c>
-      <c r="AE28" s="6" t="s">
+      <c r="AE28" s="13" t="s">
         <v>585</v>
       </c>
-      <c r="AF28" s="6">
-        <v>1</v>
-      </c>
-      <c r="AG28">
+      <c r="AF28" s="13">
+        <v>1</v>
+      </c>
+      <c r="AG28" s="14">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -5236,61 +5268,61 @@
       <c r="N29" t="s">
         <v>24</v>
       </c>
-      <c r="O29" s="1">
+      <c r="O29" s="8">
         <v>13444.934044586609</v>
       </c>
-      <c r="P29" s="1" t="s">
+      <c r="P29" s="8" t="s">
         <v>377</v>
       </c>
-      <c r="Q29" s="1">
-        <v>0</v>
-      </c>
-      <c r="R29" s="2">
+      <c r="Q29" s="8">
+        <v>0</v>
+      </c>
+      <c r="R29" s="9">
         <v>15631.814605268128</v>
       </c>
-      <c r="S29" s="2" t="s">
+      <c r="S29" s="9" t="s">
         <v>434</v>
       </c>
-      <c r="T29" s="2">
-        <v>0</v>
-      </c>
-      <c r="U29" s="3">
+      <c r="T29" s="9">
+        <v>0</v>
+      </c>
+      <c r="U29" s="10">
         <v>160.19964132929323</v>
       </c>
-      <c r="V29" s="3" t="s">
+      <c r="V29" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="W29" s="3">
-        <v>1</v>
-      </c>
-      <c r="X29" s="4">
+      <c r="W29" s="10">
+        <v>1</v>
+      </c>
+      <c r="X29" s="11">
         <v>20282.774879301902</v>
       </c>
-      <c r="Y29" s="4" t="s">
+      <c r="Y29" s="11" t="s">
         <v>489</v>
       </c>
-      <c r="Z29" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA29" s="5">
+      <c r="Z29" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="12">
         <v>164552.28454281919</v>
       </c>
-      <c r="AB29" s="5" t="s">
+      <c r="AB29" s="12" t="s">
         <v>539</v>
       </c>
-      <c r="AC29" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD29" s="6">
+      <c r="AC29" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD29" s="13">
         <v>159.06664079516437</v>
       </c>
-      <c r="AE29" s="6" t="s">
+      <c r="AE29" s="13" t="s">
         <v>585</v>
       </c>
-      <c r="AF29" s="6">
-        <v>1</v>
-      </c>
-      <c r="AG29">
+      <c r="AF29" s="13">
+        <v>1</v>
+      </c>
+      <c r="AG29" s="14">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -5338,61 +5370,61 @@
       <c r="N30" t="s">
         <v>15</v>
       </c>
-      <c r="O30" s="1">
+      <c r="O30" s="8">
         <v>322.42756887223885</v>
       </c>
-      <c r="P30" s="1" t="s">
+      <c r="P30" s="8" t="s">
         <v>404</v>
       </c>
-      <c r="Q30" s="1">
-        <v>1</v>
-      </c>
-      <c r="R30" s="2">
+      <c r="Q30" s="8">
+        <v>1</v>
+      </c>
+      <c r="R30" s="9">
         <v>1117.0715729565411</v>
       </c>
-      <c r="S30" s="2" t="s">
+      <c r="S30" s="9" t="s">
         <v>459</v>
       </c>
-      <c r="T30" s="2">
-        <v>1</v>
-      </c>
-      <c r="U30" s="3">
+      <c r="T30" s="9">
+        <v>1</v>
+      </c>
+      <c r="U30" s="10">
         <v>164.05153396175663</v>
       </c>
-      <c r="V30" s="3" t="s">
+      <c r="V30" s="10" t="s">
         <v>270</v>
       </c>
-      <c r="W30" s="3">
-        <v>0</v>
-      </c>
-      <c r="X30" s="4">
+      <c r="W30" s="10">
+        <v>0</v>
+      </c>
+      <c r="X30" s="11">
         <v>5104.3531005230734</v>
       </c>
-      <c r="Y30" s="4" t="s">
+      <c r="Y30" s="11" t="s">
         <v>512</v>
       </c>
-      <c r="Z30" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA30" s="5">
+      <c r="Z30" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="12">
         <v>462.45823913976557</v>
       </c>
-      <c r="AB30" s="5" t="s">
+      <c r="AB30" s="12" t="s">
         <v>564</v>
       </c>
-      <c r="AC30" s="5">
-        <v>1</v>
-      </c>
-      <c r="AD30" s="6">
+      <c r="AC30" s="12">
+        <v>1</v>
+      </c>
+      <c r="AD30" s="13">
         <v>322.42749758811539</v>
       </c>
-      <c r="AE30" s="6" t="s">
+      <c r="AE30" s="13" t="s">
         <v>404</v>
       </c>
-      <c r="AF30" s="6">
-        <v>1</v>
-      </c>
-      <c r="AG30">
+      <c r="AF30" s="13">
+        <v>1</v>
+      </c>
+      <c r="AG30" s="14">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -5440,61 +5472,61 @@
       <c r="N31" t="s">
         <v>24</v>
       </c>
-      <c r="O31" s="1">
+      <c r="O31" s="8">
         <v>1883.887978183983</v>
       </c>
-      <c r="P31" s="1" t="s">
+      <c r="P31" s="8" t="s">
         <v>410</v>
       </c>
-      <c r="Q31" s="1">
-        <v>0</v>
-      </c>
-      <c r="R31" s="2">
+      <c r="Q31" s="8">
+        <v>0</v>
+      </c>
+      <c r="R31" s="9">
         <v>2117.5622687807722</v>
       </c>
-      <c r="S31" s="2" t="s">
+      <c r="S31" s="9" t="s">
         <v>465</v>
       </c>
-      <c r="T31" s="2">
-        <v>0</v>
-      </c>
-      <c r="U31" s="3">
+      <c r="T31" s="9">
+        <v>0</v>
+      </c>
+      <c r="U31" s="10">
         <v>175.50722578557699</v>
       </c>
-      <c r="V31" s="3" t="s">
+      <c r="V31" s="10" t="s">
         <v>311</v>
       </c>
-      <c r="W31" s="3">
-        <v>1</v>
-      </c>
-      <c r="X31" s="4">
+      <c r="W31" s="10">
+        <v>1</v>
+      </c>
+      <c r="X31" s="11">
         <v>19590.040958851241</v>
       </c>
-      <c r="Y31" s="4" t="s">
+      <c r="Y31" s="11" t="s">
         <v>517</v>
       </c>
-      <c r="Z31" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA31" s="5">
+      <c r="Z31" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="12">
         <v>5771.5122434846289</v>
       </c>
-      <c r="AB31" s="5" t="s">
+      <c r="AB31" s="12" t="s">
         <v>570</v>
       </c>
-      <c r="AC31" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD31" s="6">
+      <c r="AC31" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD31" s="13">
         <v>94.550321829169519</v>
       </c>
-      <c r="AE31" s="6" t="s">
+      <c r="AE31" s="13" t="s">
         <v>307</v>
       </c>
-      <c r="AF31" s="6">
-        <v>1</v>
-      </c>
-      <c r="AG31">
+      <c r="AF31" s="13">
+        <v>1</v>
+      </c>
+      <c r="AG31" s="14">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -5536,61 +5568,61 @@
       <c r="M32" t="s">
         <v>60</v>
       </c>
-      <c r="O32" s="1">
+      <c r="O32" s="8">
         <v>378.52547454842636</v>
       </c>
-      <c r="P32" s="1" t="s">
+      <c r="P32" s="8" t="s">
         <v>374</v>
       </c>
-      <c r="Q32" s="1">
-        <v>1</v>
-      </c>
-      <c r="R32" s="2">
+      <c r="Q32" s="8">
+        <v>1</v>
+      </c>
+      <c r="R32" s="9">
         <v>381.32406952960309</v>
       </c>
-      <c r="S32" s="2" t="s">
+      <c r="S32" s="9" t="s">
         <v>431</v>
       </c>
-      <c r="T32" s="2">
-        <v>1</v>
-      </c>
-      <c r="U32" s="3">
+      <c r="T32" s="9">
+        <v>1</v>
+      </c>
+      <c r="U32" s="10">
         <v>176.96120670935321</v>
       </c>
-      <c r="V32" s="3" t="s">
+      <c r="V32" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="W32" s="3">
-        <v>1</v>
-      </c>
-      <c r="X32" s="4">
+      <c r="W32" s="10">
+        <v>1</v>
+      </c>
+      <c r="X32" s="11">
         <v>2013.6309994070295</v>
       </c>
-      <c r="Y32" s="4" t="s">
+      <c r="Y32" s="11" t="s">
         <v>486</v>
       </c>
-      <c r="Z32" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA32" s="5">
+      <c r="Z32" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="12">
         <v>3660.4234215433685</v>
       </c>
-      <c r="AB32" s="5" t="s">
+      <c r="AB32" s="12" t="s">
         <v>536</v>
       </c>
-      <c r="AC32" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD32" s="6">
+      <c r="AC32" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD32" s="13">
         <v>346.45429221243364</v>
       </c>
-      <c r="AE32" s="6" t="s">
+      <c r="AE32" s="13" t="s">
         <v>583</v>
       </c>
-      <c r="AF32" s="6">
-        <v>1</v>
-      </c>
-      <c r="AG32">
+      <c r="AF32" s="13">
+        <v>1</v>
+      </c>
+      <c r="AG32" s="14">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -5638,61 +5670,61 @@
       <c r="N33" t="s">
         <v>15</v>
       </c>
-      <c r="O33" s="1">
+      <c r="O33" s="8">
         <v>266.56796273559058</v>
       </c>
-      <c r="P33" s="1" t="s">
+      <c r="P33" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="Q33" s="1">
-        <v>1</v>
-      </c>
-      <c r="R33" s="2">
+      <c r="Q33" s="8">
+        <v>1</v>
+      </c>
+      <c r="R33" s="9">
         <v>5463.0159318041451</v>
       </c>
-      <c r="S33" s="2" t="s">
+      <c r="S33" s="9" t="s">
         <v>464</v>
       </c>
-      <c r="T33" s="2">
-        <v>0</v>
-      </c>
-      <c r="U33" s="3">
+      <c r="T33" s="9">
+        <v>0</v>
+      </c>
+      <c r="U33" s="10">
         <v>179.76090532321808</v>
       </c>
-      <c r="V33" s="3" t="s">
+      <c r="V33" s="10" t="s">
         <v>264</v>
       </c>
-      <c r="W33" s="3">
-        <v>1</v>
-      </c>
-      <c r="X33" s="4">
+      <c r="W33" s="10">
+        <v>1</v>
+      </c>
+      <c r="X33" s="11">
         <v>7448.7979831243983</v>
       </c>
-      <c r="Y33" s="4" t="s">
+      <c r="Y33" s="11" t="s">
         <v>516</v>
       </c>
-      <c r="Z33" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA33" s="5">
+      <c r="Z33" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA33" s="12">
         <v>8987.1065119128998</v>
       </c>
-      <c r="AB33" s="5" t="s">
+      <c r="AB33" s="12" t="s">
         <v>569</v>
       </c>
-      <c r="AC33" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD33" s="6">
+      <c r="AC33" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD33" s="13">
         <v>266.56780513173373</v>
       </c>
-      <c r="AE33" s="6" t="s">
+      <c r="AE33" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="AF33" s="6">
-        <v>1</v>
-      </c>
-      <c r="AG33">
+      <c r="AF33" s="13">
+        <v>1</v>
+      </c>
+      <c r="AG33" s="14">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
@@ -5740,61 +5772,61 @@
       <c r="N34" t="s">
         <v>15</v>
       </c>
-      <c r="O34" s="1">
+      <c r="O34" s="8">
         <v>282.68660054968871</v>
       </c>
-      <c r="P34" s="1" t="s">
+      <c r="P34" s="8" t="s">
         <v>363</v>
       </c>
-      <c r="Q34" s="1">
-        <v>1</v>
-      </c>
-      <c r="R34" s="2">
+      <c r="Q34" s="8">
+        <v>1</v>
+      </c>
+      <c r="R34" s="9">
         <v>959.67825426359855</v>
       </c>
-      <c r="S34" s="2" t="s">
+      <c r="S34" s="9" t="s">
         <v>420</v>
       </c>
-      <c r="T34" s="2">
-        <v>1</v>
-      </c>
-      <c r="U34" s="3">
+      <c r="T34" s="9">
+        <v>1</v>
+      </c>
+      <c r="U34" s="10">
         <v>201.09517364976981</v>
       </c>
-      <c r="V34" s="3" t="s">
+      <c r="V34" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="W34" s="3">
-        <v>0</v>
-      </c>
-      <c r="X34" s="4">
+      <c r="W34" s="10">
+        <v>0</v>
+      </c>
+      <c r="X34" s="11">
         <v>330.63439568697549</v>
       </c>
-      <c r="Y34" s="4" t="s">
+      <c r="Y34" s="11" t="s">
         <v>475</v>
       </c>
-      <c r="Z34" s="4">
-        <v>1</v>
-      </c>
-      <c r="AA34" s="5">
+      <c r="Z34" s="11">
+        <v>1</v>
+      </c>
+      <c r="AA34" s="12">
         <v>1861.251292203066</v>
       </c>
-      <c r="AB34" s="5" t="s">
+      <c r="AB34" s="12" t="s">
         <v>525</v>
       </c>
-      <c r="AC34" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD34" s="6">
+      <c r="AC34" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD34" s="13">
         <v>231.48508625286178</v>
       </c>
-      <c r="AE34" s="6" t="s">
+      <c r="AE34" s="13" t="s">
         <v>578</v>
       </c>
-      <c r="AF34" s="6">
-        <v>1</v>
-      </c>
-      <c r="AG34">
+      <c r="AF34" s="13">
+        <v>1</v>
+      </c>
+      <c r="AG34" s="14">
         <f t="shared" ref="AG34:AG65" si="1">AF34+AC34+Z34+W34+T34+Q34</f>
         <v>4</v>
       </c>
@@ -5842,61 +5874,61 @@
       <c r="N35" t="s">
         <v>24</v>
       </c>
-      <c r="O35" s="1">
+      <c r="O35" s="8">
         <v>287.72493544753036</v>
       </c>
-      <c r="P35" s="1" t="s">
+      <c r="P35" s="8" t="s">
         <v>398</v>
       </c>
-      <c r="Q35" s="1">
-        <v>1</v>
-      </c>
-      <c r="R35" s="2">
+      <c r="Q35" s="8">
+        <v>1</v>
+      </c>
+      <c r="R35" s="9">
         <v>110.57265078424003</v>
       </c>
-      <c r="S35" s="2" t="s">
+      <c r="S35" s="9" t="s">
         <v>454</v>
       </c>
-      <c r="T35" s="2">
-        <v>1</v>
-      </c>
-      <c r="U35" s="3">
+      <c r="T35" s="9">
+        <v>1</v>
+      </c>
+      <c r="U35" s="10">
         <v>201.38131996586753</v>
       </c>
-      <c r="V35" s="3" t="s">
+      <c r="V35" s="10" t="s">
         <v>237</v>
       </c>
-      <c r="W35" s="3">
-        <v>1</v>
-      </c>
-      <c r="X35" s="4">
+      <c r="W35" s="10">
+        <v>1</v>
+      </c>
+      <c r="X35" s="11">
         <v>17155.99924696676</v>
       </c>
-      <c r="Y35" s="4" t="s">
+      <c r="Y35" s="11" t="s">
         <v>506</v>
       </c>
-      <c r="Z35" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA35" s="5">
+      <c r="Z35" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA35" s="12">
         <v>15287.41629505341</v>
       </c>
-      <c r="AB35" s="5" t="s">
+      <c r="AB35" s="12" t="s">
         <v>559</v>
       </c>
-      <c r="AC35" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD35" s="6">
+      <c r="AC35" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD35" s="13">
         <v>110.57272555110228</v>
       </c>
-      <c r="AE35" s="6" t="s">
+      <c r="AE35" s="13" t="s">
         <v>454</v>
       </c>
-      <c r="AF35" s="6">
-        <v>1</v>
-      </c>
-      <c r="AG35">
+      <c r="AF35" s="13">
+        <v>1</v>
+      </c>
+      <c r="AG35" s="14">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
@@ -5944,61 +5976,61 @@
       <c r="N36" t="s">
         <v>24</v>
       </c>
-      <c r="O36" s="1">
+      <c r="O36" s="8">
         <v>8223.0985982382408</v>
       </c>
-      <c r="P36" s="1" t="s">
+      <c r="P36" s="8" t="s">
         <v>380</v>
       </c>
-      <c r="Q36" s="1">
-        <v>0</v>
-      </c>
-      <c r="R36" s="2">
+      <c r="Q36" s="8">
+        <v>0</v>
+      </c>
+      <c r="R36" s="9">
         <v>5955.1524629755359</v>
       </c>
-      <c r="S36" s="2" t="s">
+      <c r="S36" s="9" t="s">
         <v>437</v>
       </c>
-      <c r="T36" s="2">
-        <v>0</v>
-      </c>
-      <c r="U36" s="3">
+      <c r="T36" s="9">
+        <v>0</v>
+      </c>
+      <c r="U36" s="10">
         <v>205.90345382975855</v>
       </c>
-      <c r="V36" s="3" t="s">
+      <c r="V36" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="W36" s="3">
-        <v>1</v>
-      </c>
-      <c r="X36" s="4">
+      <c r="W36" s="10">
+        <v>1</v>
+      </c>
+      <c r="X36" s="11">
         <v>6937.1153223003639</v>
       </c>
-      <c r="Y36" s="4" t="s">
+      <c r="Y36" s="11" t="s">
         <v>491</v>
       </c>
-      <c r="Z36" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA36" s="5">
+      <c r="Z36" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA36" s="12">
         <v>16258.829361836084</v>
       </c>
-      <c r="AB36" s="5" t="s">
+      <c r="AB36" s="12" t="s">
         <v>542</v>
       </c>
-      <c r="AC36" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD36" s="6">
+      <c r="AC36" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD36" s="13">
         <v>5104.3933691568027</v>
       </c>
-      <c r="AE36" s="6" t="s">
+      <c r="AE36" s="13" t="s">
         <v>586</v>
       </c>
-      <c r="AF36" s="6">
-        <v>0</v>
-      </c>
-      <c r="AG36">
+      <c r="AF36" s="13">
+        <v>0</v>
+      </c>
+      <c r="AG36" s="14">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -6046,61 +6078,61 @@
       <c r="N37" t="s">
         <v>15</v>
       </c>
-      <c r="O37" s="1">
+      <c r="O37" s="8">
         <v>392.78428177309695</v>
       </c>
-      <c r="P37" s="1" t="s">
+      <c r="P37" s="8" t="s">
         <v>374</v>
       </c>
-      <c r="Q37" s="1">
-        <v>1</v>
-      </c>
-      <c r="R37" s="2">
+      <c r="Q37" s="8">
+        <v>1</v>
+      </c>
+      <c r="R37" s="9">
         <v>383.85454839632547</v>
       </c>
-      <c r="S37" s="2" t="s">
+      <c r="S37" s="9" t="s">
         <v>431</v>
       </c>
-      <c r="T37" s="2">
-        <v>1</v>
-      </c>
-      <c r="U37" s="3">
+      <c r="T37" s="9">
+        <v>1</v>
+      </c>
+      <c r="U37" s="10">
         <v>207.52242615159074</v>
       </c>
-      <c r="V37" s="3" t="s">
+      <c r="V37" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="W37" s="3">
-        <v>1</v>
-      </c>
-      <c r="X37" s="4">
+      <c r="W37" s="10">
+        <v>1</v>
+      </c>
+      <c r="X37" s="11">
         <v>2020.2191274144177</v>
       </c>
-      <c r="Y37" s="4" t="s">
+      <c r="Y37" s="11" t="s">
         <v>486</v>
       </c>
-      <c r="Z37" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA37" s="5">
+      <c r="Z37" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA37" s="12">
         <v>3636.6146223375831</v>
       </c>
-      <c r="AB37" s="5" t="s">
+      <c r="AB37" s="12" t="s">
         <v>536</v>
       </c>
-      <c r="AC37" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD37" s="6">
+      <c r="AC37" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD37" s="13">
         <v>374.15596964546967</v>
       </c>
-      <c r="AE37" s="6" t="s">
+      <c r="AE37" s="13" t="s">
         <v>583</v>
       </c>
-      <c r="AF37" s="6">
-        <v>1</v>
-      </c>
-      <c r="AG37">
+      <c r="AF37" s="13">
+        <v>1</v>
+      </c>
+      <c r="AG37" s="14">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
@@ -6148,61 +6180,61 @@
       <c r="N38" t="s">
         <v>24</v>
       </c>
-      <c r="O38" s="1">
+      <c r="O38" s="8">
         <v>8232.3356088111777</v>
       </c>
-      <c r="P38" s="1" t="s">
+      <c r="P38" s="8" t="s">
         <v>380</v>
       </c>
-      <c r="Q38" s="1">
-        <v>0</v>
-      </c>
-      <c r="R38" s="2">
+      <c r="Q38" s="8">
+        <v>0</v>
+      </c>
+      <c r="R38" s="9">
         <v>5946.0087593034687</v>
       </c>
-      <c r="S38" s="2" t="s">
+      <c r="S38" s="9" t="s">
         <v>437</v>
       </c>
-      <c r="T38" s="2">
-        <v>0</v>
-      </c>
-      <c r="U38" s="3">
+      <c r="T38" s="9">
+        <v>0</v>
+      </c>
+      <c r="U38" s="10">
         <v>208.1737440770826</v>
       </c>
-      <c r="V38" s="3" t="s">
+      <c r="V38" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="W38" s="3">
-        <v>1</v>
-      </c>
-      <c r="X38" s="4">
+      <c r="W38" s="10">
+        <v>1</v>
+      </c>
+      <c r="X38" s="11">
         <v>6928.6060224268886</v>
       </c>
-      <c r="Y38" s="4" t="s">
+      <c r="Y38" s="11" t="s">
         <v>491</v>
       </c>
-      <c r="Z38" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA38" s="5">
+      <c r="Z38" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA38" s="12">
         <v>16256.63448845946</v>
       </c>
-      <c r="AB38" s="5" t="s">
+      <c r="AB38" s="12" t="s">
         <v>542</v>
       </c>
-      <c r="AC38" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD38" s="6">
+      <c r="AC38" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD38" s="13">
         <v>5094.8689611623204</v>
       </c>
-      <c r="AE38" s="6" t="s">
+      <c r="AE38" s="13" t="s">
         <v>586</v>
       </c>
-      <c r="AF38" s="6">
-        <v>0</v>
-      </c>
-      <c r="AG38">
+      <c r="AF38" s="13">
+        <v>0</v>
+      </c>
+      <c r="AG38" s="14">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -6250,61 +6282,61 @@
       <c r="N39" t="s">
         <v>15</v>
       </c>
-      <c r="O39" s="1">
+      <c r="O39" s="8">
         <v>416.88795979498775</v>
       </c>
-      <c r="P39" s="1" t="s">
+      <c r="P39" s="8" t="s">
         <v>403</v>
       </c>
-      <c r="Q39" s="1">
-        <v>1</v>
-      </c>
-      <c r="R39" s="2">
+      <c r="Q39" s="8">
+        <v>1</v>
+      </c>
+      <c r="R39" s="9">
         <v>1014.8967446916378</v>
       </c>
-      <c r="S39" s="2" t="s">
+      <c r="S39" s="9" t="s">
         <v>458</v>
       </c>
-      <c r="T39" s="2">
-        <v>1</v>
-      </c>
-      <c r="U39" s="3">
+      <c r="T39" s="9">
+        <v>1</v>
+      </c>
+      <c r="U39" s="10">
         <v>212.50373181022579</v>
       </c>
-      <c r="V39" s="3" t="s">
+      <c r="V39" s="10" t="s">
         <v>264</v>
       </c>
-      <c r="W39" s="3">
-        <v>1</v>
-      </c>
-      <c r="X39" s="4">
+      <c r="W39" s="10">
+        <v>1</v>
+      </c>
+      <c r="X39" s="11">
         <v>906.91525616718525</v>
       </c>
-      <c r="Y39" s="4" t="s">
+      <c r="Y39" s="11" t="s">
         <v>511</v>
       </c>
-      <c r="Z39" s="4">
-        <v>1</v>
-      </c>
-      <c r="AA39" s="5">
+      <c r="Z39" s="11">
+        <v>1</v>
+      </c>
+      <c r="AA39" s="12">
         <v>1990.4569058340992</v>
       </c>
-      <c r="AB39" s="5" t="s">
+      <c r="AB39" s="12" t="s">
         <v>563</v>
       </c>
-      <c r="AC39" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD39" s="6">
+      <c r="AC39" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD39" s="13">
         <v>416.88799029712425</v>
       </c>
-      <c r="AE39" s="6" t="s">
+      <c r="AE39" s="13" t="s">
         <v>403</v>
       </c>
-      <c r="AF39" s="6">
-        <v>1</v>
-      </c>
-      <c r="AG39">
+      <c r="AF39" s="13">
+        <v>1</v>
+      </c>
+      <c r="AG39" s="14">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
@@ -6352,61 +6384,61 @@
       <c r="N40" t="s">
         <v>15</v>
       </c>
-      <c r="O40" s="1">
+      <c r="O40" s="8">
         <v>856.83226754915563</v>
       </c>
-      <c r="P40" s="1" t="s">
+      <c r="P40" s="8" t="s">
         <v>390</v>
       </c>
-      <c r="Q40" s="1">
-        <v>1</v>
-      </c>
-      <c r="R40" s="2">
+      <c r="Q40" s="8">
+        <v>1</v>
+      </c>
+      <c r="R40" s="9">
         <v>1155.3832238098173</v>
       </c>
-      <c r="S40" s="2" t="s">
+      <c r="S40" s="9" t="s">
         <v>446</v>
       </c>
-      <c r="T40" s="2">
-        <v>1</v>
-      </c>
-      <c r="U40" s="3">
+      <c r="T40" s="9">
+        <v>1</v>
+      </c>
+      <c r="U40" s="10">
         <v>213.83855550953876</v>
       </c>
-      <c r="V40" s="3" t="s">
+      <c r="V40" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="W40" s="3">
-        <v>0</v>
-      </c>
-      <c r="X40" s="4">
+      <c r="W40" s="10">
+        <v>0</v>
+      </c>
+      <c r="X40" s="11">
         <v>3052.0371657972237</v>
       </c>
-      <c r="Y40" s="4" t="s">
+      <c r="Y40" s="11" t="s">
         <v>486</v>
       </c>
-      <c r="Z40" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA40" s="5">
+      <c r="Z40" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA40" s="12">
         <v>1121.6974292271236</v>
       </c>
-      <c r="AB40" s="5" t="s">
+      <c r="AB40" s="12" t="s">
         <v>552</v>
       </c>
-      <c r="AC40" s="5">
-        <v>1</v>
-      </c>
-      <c r="AD40" s="6">
+      <c r="AC40" s="12">
+        <v>1</v>
+      </c>
+      <c r="AD40" s="13">
         <v>605.49513395193094</v>
       </c>
-      <c r="AE40" s="6" t="s">
+      <c r="AE40" s="13" t="s">
         <v>589</v>
       </c>
-      <c r="AF40" s="6">
-        <v>1</v>
-      </c>
-      <c r="AG40">
+      <c r="AF40" s="13">
+        <v>1</v>
+      </c>
+      <c r="AG40" s="14">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
@@ -6454,61 +6486,61 @@
       <c r="N41" t="s">
         <v>24</v>
       </c>
-      <c r="O41" s="1">
+      <c r="O41" s="8">
         <v>289.80132334457915</v>
       </c>
-      <c r="P41" s="1" t="s">
+      <c r="P41" s="8" t="s">
         <v>398</v>
       </c>
-      <c r="Q41" s="1">
-        <v>1</v>
-      </c>
-      <c r="R41" s="2">
+      <c r="Q41" s="8">
+        <v>1</v>
+      </c>
+      <c r="R41" s="9">
         <v>123.8848971059813</v>
       </c>
-      <c r="S41" s="2" t="s">
+      <c r="S41" s="9" t="s">
         <v>454</v>
       </c>
-      <c r="T41" s="2">
-        <v>1</v>
-      </c>
-      <c r="U41" s="3">
+      <c r="T41" s="9">
+        <v>1</v>
+      </c>
+      <c r="U41" s="10">
         <v>215.12421560282635</v>
       </c>
-      <c r="V41" s="3" t="s">
+      <c r="V41" s="10" t="s">
         <v>237</v>
       </c>
-      <c r="W41" s="3">
-        <v>1</v>
-      </c>
-      <c r="X41" s="4">
+      <c r="W41" s="10">
+        <v>1</v>
+      </c>
+      <c r="X41" s="11">
         <v>17159.022543463521</v>
       </c>
-      <c r="Y41" s="4" t="s">
+      <c r="Y41" s="11" t="s">
         <v>506</v>
       </c>
-      <c r="Z41" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA41" s="5">
+      <c r="Z41" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA41" s="12">
         <v>15285.663689627139</v>
       </c>
-      <c r="AB41" s="5" t="s">
+      <c r="AB41" s="12" t="s">
         <v>559</v>
       </c>
-      <c r="AC41" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD41" s="6">
+      <c r="AC41" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD41" s="13">
         <v>123.88497410172066</v>
       </c>
-      <c r="AE41" s="6" t="s">
+      <c r="AE41" s="13" t="s">
         <v>454</v>
       </c>
-      <c r="AF41" s="6">
-        <v>1</v>
-      </c>
-      <c r="AG41">
+      <c r="AF41" s="13">
+        <v>1</v>
+      </c>
+      <c r="AG41" s="14">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
@@ -6556,61 +6588,61 @@
       <c r="N42" t="s">
         <v>24</v>
       </c>
-      <c r="O42" s="1">
+      <c r="O42" s="8">
         <v>533.78040111858024</v>
       </c>
-      <c r="P42" s="1" t="s">
+      <c r="P42" s="8" t="s">
         <v>404</v>
       </c>
-      <c r="Q42" s="1">
-        <v>1</v>
-      </c>
-      <c r="R42" s="2">
+      <c r="Q42" s="8">
+        <v>1</v>
+      </c>
+      <c r="R42" s="9">
         <v>749.69795601654903</v>
       </c>
-      <c r="S42" s="2" t="s">
+      <c r="S42" s="9" t="s">
         <v>459</v>
       </c>
-      <c r="T42" s="2">
-        <v>1</v>
-      </c>
-      <c r="U42" s="3">
+      <c r="T42" s="9">
+        <v>1</v>
+      </c>
+      <c r="U42" s="10">
         <v>218.27906117062773</v>
       </c>
-      <c r="V42" s="3" t="s">
+      <c r="V42" s="10" t="s">
         <v>270</v>
       </c>
-      <c r="W42" s="3">
-        <v>0</v>
-      </c>
-      <c r="X42" s="4">
+      <c r="W42" s="10">
+        <v>0</v>
+      </c>
+      <c r="X42" s="11">
         <v>5406.6461269759284</v>
       </c>
-      <c r="Y42" s="4" t="s">
+      <c r="Y42" s="11" t="s">
         <v>512</v>
       </c>
-      <c r="Z42" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA42" s="5">
+      <c r="Z42" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA42" s="12">
         <v>707.46934098991119</v>
       </c>
-      <c r="AB42" s="5" t="s">
+      <c r="AB42" s="12" t="s">
         <v>564</v>
       </c>
-      <c r="AC42" s="5">
-        <v>1</v>
-      </c>
-      <c r="AD42" s="6">
+      <c r="AC42" s="12">
+        <v>1</v>
+      </c>
+      <c r="AD42" s="13">
         <v>167.58189667789475</v>
       </c>
-      <c r="AE42" s="6" t="s">
+      <c r="AE42" s="13" t="s">
         <v>595</v>
       </c>
-      <c r="AF42" s="6">
-        <v>1</v>
-      </c>
-      <c r="AG42">
+      <c r="AF42" s="13">
+        <v>1</v>
+      </c>
+      <c r="AG42" s="14">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
@@ -6658,61 +6690,61 @@
       <c r="N43" t="s">
         <v>24</v>
       </c>
-      <c r="O43" s="1">
+      <c r="O43" s="8">
         <v>252.60699967585029</v>
       </c>
-      <c r="P43" s="1" t="s">
+      <c r="P43" s="8" t="s">
         <v>366</v>
       </c>
-      <c r="Q43" s="1">
-        <v>1</v>
-      </c>
-      <c r="R43" s="2">
+      <c r="Q43" s="8">
+        <v>1</v>
+      </c>
+      <c r="R43" s="9">
         <v>255.26437040448732</v>
       </c>
-      <c r="S43" s="2" t="s">
+      <c r="S43" s="9" t="s">
         <v>423</v>
       </c>
-      <c r="T43" s="2">
-        <v>1</v>
-      </c>
-      <c r="U43" s="3">
+      <c r="T43" s="9">
+        <v>1</v>
+      </c>
+      <c r="U43" s="10">
         <v>223.4580273081456</v>
       </c>
-      <c r="V43" s="3" t="s">
+      <c r="V43" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="W43" s="3">
-        <v>1</v>
-      </c>
-      <c r="X43" s="4">
+      <c r="W43" s="10">
+        <v>1</v>
+      </c>
+      <c r="X43" s="11">
         <v>4843.0760992884461</v>
       </c>
-      <c r="Y43" s="4" t="s">
+      <c r="Y43" s="11" t="s">
         <v>478</v>
       </c>
-      <c r="Z43" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA43" s="5">
+      <c r="Z43" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA43" s="12">
         <v>2718.3797939453975</v>
       </c>
-      <c r="AB43" s="5" t="s">
+      <c r="AB43" s="12" t="s">
         <v>528</v>
       </c>
-      <c r="AC43" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD43" s="6">
+      <c r="AC43" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD43" s="13">
         <v>165.01177306157138</v>
       </c>
-      <c r="AE43" s="6" t="s">
+      <c r="AE43" s="13" t="s">
         <v>580</v>
       </c>
-      <c r="AF43" s="6">
-        <v>1</v>
-      </c>
-      <c r="AG43">
+      <c r="AF43" s="13">
+        <v>1</v>
+      </c>
+      <c r="AG43" s="14">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
@@ -6760,61 +6792,61 @@
       <c r="N44" t="s">
         <v>24</v>
       </c>
-      <c r="O44" s="1">
+      <c r="O44" s="8">
         <v>252.63140471202411</v>
       </c>
-      <c r="P44" s="1" t="s">
+      <c r="P44" s="8" t="s">
         <v>366</v>
       </c>
-      <c r="Q44" s="1">
-        <v>1</v>
-      </c>
-      <c r="R44" s="2">
+      <c r="Q44" s="8">
+        <v>1</v>
+      </c>
+      <c r="R44" s="9">
         <v>249.93294624624778</v>
       </c>
-      <c r="S44" s="2" t="s">
+      <c r="S44" s="9" t="s">
         <v>423</v>
       </c>
-      <c r="T44" s="2">
-        <v>1</v>
-      </c>
-      <c r="U44" s="3">
+      <c r="T44" s="9">
+        <v>1</v>
+      </c>
+      <c r="U44" s="10">
         <v>227.26404098360842</v>
       </c>
-      <c r="V44" s="3" t="s">
+      <c r="V44" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="W44" s="3">
-        <v>1</v>
-      </c>
-      <c r="X44" s="4">
+      <c r="W44" s="10">
+        <v>1</v>
+      </c>
+      <c r="X44" s="11">
         <v>4835.2999201872071</v>
       </c>
-      <c r="Y44" s="4" t="s">
+      <c r="Y44" s="11" t="s">
         <v>478</v>
       </c>
-      <c r="Z44" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA44" s="5">
+      <c r="Z44" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA44" s="12">
         <v>2712.5945165585222</v>
       </c>
-      <c r="AB44" s="5" t="s">
+      <c r="AB44" s="12" t="s">
         <v>528</v>
       </c>
-      <c r="AC44" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD44" s="6">
+      <c r="AC44" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD44" s="13">
         <v>172.12599700333354</v>
       </c>
-      <c r="AE44" s="6" t="s">
+      <c r="AE44" s="13" t="s">
         <v>580</v>
       </c>
-      <c r="AF44" s="6">
-        <v>1</v>
-      </c>
-      <c r="AG44">
+      <c r="AF44" s="13">
+        <v>1</v>
+      </c>
+      <c r="AG44" s="14">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
@@ -6862,61 +6894,61 @@
       <c r="N45" t="s">
         <v>15</v>
       </c>
-      <c r="O45" s="1">
+      <c r="O45" s="8">
         <v>508.12505501322602</v>
       </c>
-      <c r="P45" s="1" t="s">
+      <c r="P45" s="8" t="s">
         <v>402</v>
       </c>
-      <c r="Q45" s="1">
-        <v>1</v>
-      </c>
-      <c r="R45" s="2">
+      <c r="Q45" s="8">
+        <v>1</v>
+      </c>
+      <c r="R45" s="9">
         <v>2142.3776579468317</v>
       </c>
-      <c r="S45" s="2" t="s">
+      <c r="S45" s="9" t="s">
         <v>457</v>
       </c>
-      <c r="T45" s="2">
-        <v>0</v>
-      </c>
-      <c r="U45" s="3">
+      <c r="T45" s="9">
+        <v>0</v>
+      </c>
+      <c r="U45" s="10">
         <v>230.28623691014735</v>
       </c>
-      <c r="V45" s="3" t="s">
+      <c r="V45" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="W45" s="3">
-        <v>1</v>
-      </c>
-      <c r="X45" s="4">
+      <c r="W45" s="10">
+        <v>1</v>
+      </c>
+      <c r="X45" s="11">
         <v>3390.2429222985506</v>
       </c>
-      <c r="Y45" s="4" t="s">
+      <c r="Y45" s="11" t="s">
         <v>510</v>
       </c>
-      <c r="Z45" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA45" s="5">
+      <c r="Z45" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA45" s="12">
         <v>4101.1981154294144</v>
       </c>
-      <c r="AB45" s="5" t="s">
+      <c r="AB45" s="12" t="s">
         <v>562</v>
       </c>
-      <c r="AC45" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD45" s="6">
+      <c r="AC45" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD45" s="13">
         <v>348.55230882102722</v>
       </c>
-      <c r="AE45" s="6" t="s">
+      <c r="AE45" s="13" t="s">
         <v>594</v>
       </c>
-      <c r="AF45" s="6">
-        <v>1</v>
-      </c>
-      <c r="AG45">
+      <c r="AF45" s="13">
+        <v>1</v>
+      </c>
+      <c r="AG45" s="14">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
@@ -6964,61 +6996,61 @@
       <c r="N46" t="s">
         <v>15</v>
       </c>
-      <c r="O46" s="1">
+      <c r="O46" s="8">
         <v>286.41230215961275</v>
       </c>
-      <c r="P46" s="1" t="s">
+      <c r="P46" s="8" t="s">
         <v>414</v>
       </c>
-      <c r="Q46" s="1">
-        <v>1</v>
-      </c>
-      <c r="R46" s="2">
+      <c r="Q46" s="8">
+        <v>1</v>
+      </c>
+      <c r="R46" s="9">
         <v>3168.1569012819969</v>
       </c>
-      <c r="S46" s="2" t="s">
+      <c r="S46" s="9" t="s">
         <v>468</v>
       </c>
-      <c r="T46" s="2">
-        <v>0</v>
-      </c>
-      <c r="U46" s="3">
+      <c r="T46" s="9">
+        <v>0</v>
+      </c>
+      <c r="U46" s="10">
         <v>246.55626652809207</v>
       </c>
-      <c r="V46" s="3" t="s">
+      <c r="V46" s="10" t="s">
         <v>329</v>
       </c>
-      <c r="W46" s="3">
-        <v>0</v>
-      </c>
-      <c r="X46" s="4">
+      <c r="W46" s="10">
+        <v>0</v>
+      </c>
+      <c r="X46" s="11">
         <v>8428.4569244973318</v>
       </c>
-      <c r="Y46" s="4" t="s">
+      <c r="Y46" s="11" t="s">
         <v>501</v>
       </c>
-      <c r="Z46" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA46" s="5">
+      <c r="Z46" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA46" s="12">
         <v>4200.2803585497577</v>
       </c>
-      <c r="AB46" s="5" t="s">
+      <c r="AB46" s="12" t="s">
         <v>572</v>
       </c>
-      <c r="AC46" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD46" s="6">
+      <c r="AC46" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD46" s="13">
         <v>286.41231330406407</v>
       </c>
-      <c r="AE46" s="6" t="s">
+      <c r="AE46" s="13" t="s">
         <v>414</v>
       </c>
-      <c r="AF46" s="6">
-        <v>1</v>
-      </c>
-      <c r="AG46">
+      <c r="AF46" s="13">
+        <v>1</v>
+      </c>
+      <c r="AG46" s="14">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -7066,61 +7098,61 @@
       <c r="N47" t="s">
         <v>15</v>
       </c>
-      <c r="O47" s="1">
+      <c r="O47" s="8">
         <v>1017.0684722199026</v>
       </c>
-      <c r="P47" s="1" t="s">
+      <c r="P47" s="8" t="s">
         <v>401</v>
       </c>
-      <c r="Q47" s="1">
-        <v>1</v>
-      </c>
-      <c r="R47" s="2">
+      <c r="Q47" s="8">
+        <v>1</v>
+      </c>
+      <c r="R47" s="9">
         <v>1017.0684722199026</v>
       </c>
-      <c r="S47" s="2" t="s">
+      <c r="S47" s="9" t="s">
         <v>401</v>
       </c>
-      <c r="T47" s="2">
-        <v>1</v>
-      </c>
-      <c r="U47" s="3">
+      <c r="T47" s="9">
+        <v>1</v>
+      </c>
+      <c r="U47" s="10">
         <v>248.04377513404455</v>
       </c>
-      <c r="V47" s="3" t="s">
+      <c r="V47" s="10" t="s">
         <v>256</v>
       </c>
-      <c r="W47" s="3">
-        <v>1</v>
-      </c>
-      <c r="X47" s="4">
+      <c r="W47" s="10">
+        <v>1</v>
+      </c>
+      <c r="X47" s="11">
         <v>1730.3769063107175</v>
       </c>
-      <c r="Y47" s="4" t="s">
+      <c r="Y47" s="11" t="s">
         <v>509</v>
       </c>
-      <c r="Z47" s="4">
-        <v>1</v>
-      </c>
-      <c r="AA47" s="5">
+      <c r="Z47" s="11">
+        <v>1</v>
+      </c>
+      <c r="AA47" s="12">
         <v>3849.7732298766505</v>
       </c>
-      <c r="AB47" s="5" t="s">
+      <c r="AB47" s="12" t="s">
         <v>561</v>
       </c>
-      <c r="AC47" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD47" s="6">
+      <c r="AC47" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD47" s="13">
         <v>1017.0685728301287</v>
       </c>
-      <c r="AE47" s="6" t="s">
+      <c r="AE47" s="13" t="s">
         <v>401</v>
       </c>
-      <c r="AF47" s="6">
-        <v>1</v>
-      </c>
-      <c r="AG47">
+      <c r="AF47" s="13">
+        <v>1</v>
+      </c>
+      <c r="AG47" s="14">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
@@ -7168,61 +7200,61 @@
       <c r="N48" t="s">
         <v>15</v>
       </c>
-      <c r="O48" s="1">
+      <c r="O48" s="8">
         <v>992.61705957111303</v>
       </c>
-      <c r="P48" s="1" t="s">
+      <c r="P48" s="8" t="s">
         <v>401</v>
       </c>
-      <c r="Q48" s="1">
-        <v>1</v>
-      </c>
-      <c r="R48" s="2">
+      <c r="Q48" s="8">
+        <v>1</v>
+      </c>
+      <c r="R48" s="9">
         <v>992.61705957111303</v>
       </c>
-      <c r="S48" s="2" t="s">
+      <c r="S48" s="9" t="s">
         <v>401</v>
       </c>
-      <c r="T48" s="2">
-        <v>1</v>
-      </c>
-      <c r="U48" s="3">
+      <c r="T48" s="9">
+        <v>1</v>
+      </c>
+      <c r="U48" s="10">
         <v>251.86032595612605</v>
       </c>
-      <c r="V48" s="3" t="s">
+      <c r="V48" s="10" t="s">
         <v>256</v>
       </c>
-      <c r="W48" s="3">
-        <v>1</v>
-      </c>
-      <c r="X48" s="4">
+      <c r="W48" s="10">
+        <v>1</v>
+      </c>
+      <c r="X48" s="11">
         <v>1757.2256535694701</v>
       </c>
-      <c r="Y48" s="4" t="s">
+      <c r="Y48" s="11" t="s">
         <v>509</v>
       </c>
-      <c r="Z48" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA48" s="5">
+      <c r="Z48" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA48" s="12">
         <v>3827.7945413987882</v>
       </c>
-      <c r="AB48" s="5" t="s">
+      <c r="AB48" s="12" t="s">
         <v>561</v>
       </c>
-      <c r="AC48" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD48" s="6">
+      <c r="AC48" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD48" s="13">
         <v>992.61715999680223</v>
       </c>
-      <c r="AE48" s="6" t="s">
+      <c r="AE48" s="13" t="s">
         <v>401</v>
       </c>
-      <c r="AF48" s="6">
-        <v>1</v>
-      </c>
-      <c r="AG48">
+      <c r="AF48" s="13">
+        <v>1</v>
+      </c>
+      <c r="AG48" s="14">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
@@ -7270,61 +7302,61 @@
       <c r="N49" t="s">
         <v>15</v>
       </c>
-      <c r="O49" s="1">
+      <c r="O49" s="8">
         <v>3906.2919561748622</v>
       </c>
-      <c r="P49" s="1" t="s">
+      <c r="P49" s="8" t="s">
         <v>412</v>
       </c>
-      <c r="Q49" s="1">
-        <v>0</v>
-      </c>
-      <c r="R49" s="2">
+      <c r="Q49" s="8">
+        <v>0</v>
+      </c>
+      <c r="R49" s="9">
         <v>3316.1619252603277</v>
       </c>
-      <c r="S49" s="2" t="s">
+      <c r="S49" s="9" t="s">
         <v>467</v>
       </c>
-      <c r="T49" s="2">
-        <v>0</v>
-      </c>
-      <c r="U49" s="3">
+      <c r="T49" s="9">
+        <v>0</v>
+      </c>
+      <c r="U49" s="10">
         <v>286.70335072562858</v>
       </c>
-      <c r="V49" s="3" t="s">
+      <c r="V49" s="10" t="s">
         <v>320</v>
       </c>
-      <c r="W49" s="3">
-        <v>1</v>
-      </c>
-      <c r="X49" s="4">
+      <c r="W49" s="10">
+        <v>1</v>
+      </c>
+      <c r="X49" s="11">
         <v>4096.95440791087</v>
       </c>
-      <c r="Y49" s="4" t="s">
+      <c r="Y49" s="11" t="s">
         <v>519</v>
       </c>
-      <c r="Z49" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA49" s="5">
+      <c r="Z49" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA49" s="12">
         <v>4953.0015164607312</v>
       </c>
-      <c r="AB49" s="5" t="s">
+      <c r="AB49" s="12" t="s">
         <v>539</v>
       </c>
-      <c r="AC49" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD49" s="6">
+      <c r="AC49" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD49" s="13">
         <v>3316.1620668607457</v>
       </c>
-      <c r="AE49" s="6" t="s">
+      <c r="AE49" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="AF49" s="6">
-        <v>0</v>
-      </c>
-      <c r="AG49">
+      <c r="AF49" s="13">
+        <v>0</v>
+      </c>
+      <c r="AG49" s="14">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -7372,61 +7404,61 @@
       <c r="N50" t="s">
         <v>24</v>
       </c>
-      <c r="O50" s="1">
+      <c r="O50" s="8">
         <v>373.74360156044713</v>
       </c>
-      <c r="P50" s="1" t="s">
+      <c r="P50" s="8" t="s">
         <v>389</v>
       </c>
-      <c r="Q50" s="1">
-        <v>1</v>
-      </c>
-      <c r="R50" s="2">
+      <c r="Q50" s="8">
+        <v>1</v>
+      </c>
+      <c r="R50" s="9">
         <v>168.89682799402752</v>
       </c>
-      <c r="S50" s="2" t="s">
+      <c r="S50" s="9" t="s">
         <v>445</v>
       </c>
-      <c r="T50" s="2">
-        <v>1</v>
-      </c>
-      <c r="U50" s="3">
+      <c r="T50" s="9">
+        <v>1</v>
+      </c>
+      <c r="U50" s="10">
         <v>352.79178155158468</v>
       </c>
-      <c r="V50" s="3" t="s">
+      <c r="V50" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="W50" s="3">
-        <v>0</v>
-      </c>
-      <c r="X50" s="4">
+      <c r="W50" s="10">
+        <v>0</v>
+      </c>
+      <c r="X50" s="11">
         <v>674.08510351995005</v>
       </c>
-      <c r="Y50" s="4" t="s">
+      <c r="Y50" s="11" t="s">
         <v>498</v>
       </c>
-      <c r="Z50" s="4">
-        <v>1</v>
-      </c>
-      <c r="AA50" s="5">
+      <c r="Z50" s="11">
+        <v>1</v>
+      </c>
+      <c r="AA50" s="12">
         <v>6748.805228167932</v>
       </c>
-      <c r="AB50" s="5" t="s">
+      <c r="AB50" s="12" t="s">
         <v>551</v>
       </c>
-      <c r="AC50" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD50" s="6">
+      <c r="AC50" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD50" s="13">
         <v>168.89684966294334</v>
       </c>
-      <c r="AE50" s="6" t="s">
+      <c r="AE50" s="13" t="s">
         <v>445</v>
       </c>
-      <c r="AF50" s="6">
-        <v>1</v>
-      </c>
-      <c r="AG50">
+      <c r="AF50" s="13">
+        <v>1</v>
+      </c>
+      <c r="AG50" s="14">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
@@ -7474,61 +7506,61 @@
       <c r="N51" t="s">
         <v>15</v>
       </c>
-      <c r="O51" s="1">
+      <c r="O51" s="8">
         <v>91.562901343210186</v>
       </c>
-      <c r="P51" s="1" t="s">
+      <c r="P51" s="8" t="s">
         <v>418</v>
       </c>
-      <c r="Q51" s="1">
-        <v>1</v>
-      </c>
-      <c r="R51" s="2">
+      <c r="Q51" s="8">
+        <v>1</v>
+      </c>
+      <c r="R51" s="9">
         <v>173.92266077719515</v>
       </c>
-      <c r="S51" s="2" t="s">
+      <c r="S51" s="9" t="s">
         <v>471</v>
       </c>
-      <c r="T51" s="2">
-        <v>1</v>
-      </c>
-      <c r="U51" s="3">
+      <c r="T51" s="9">
+        <v>1</v>
+      </c>
+      <c r="U51" s="10">
         <v>356.18506223477038</v>
       </c>
-      <c r="V51" s="3" t="s">
+      <c r="V51" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="W51" s="3">
-        <v>0</v>
-      </c>
-      <c r="X51" s="4">
+      <c r="W51" s="10">
+        <v>0</v>
+      </c>
+      <c r="X51" s="11">
         <v>64366.5444434702</v>
       </c>
-      <c r="Y51" s="4" t="s">
+      <c r="Y51" s="11" t="s">
         <v>486</v>
       </c>
-      <c r="Z51" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA51" s="5">
+      <c r="Z51" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA51" s="12">
         <v>2365.4748550073109</v>
       </c>
-      <c r="AB51" s="5" t="s">
+      <c r="AB51" s="12" t="s">
         <v>576</v>
       </c>
-      <c r="AC51" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD51" s="6">
+      <c r="AC51" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD51" s="13">
         <v>91.562845659925301</v>
       </c>
-      <c r="AE51" s="6" t="s">
+      <c r="AE51" s="13" t="s">
         <v>599</v>
       </c>
-      <c r="AF51" s="6">
-        <v>1</v>
-      </c>
-      <c r="AG51">
+      <c r="AF51" s="13">
+        <v>1</v>
+      </c>
+      <c r="AG51" s="14">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
@@ -7576,61 +7608,61 @@
       <c r="N52" t="s">
         <v>24</v>
       </c>
-      <c r="O52" s="1">
+      <c r="O52" s="8">
         <v>389.25267906635503</v>
       </c>
-      <c r="P52" s="1" t="s">
+      <c r="P52" s="8" t="s">
         <v>389</v>
       </c>
-      <c r="Q52" s="1">
-        <v>1</v>
-      </c>
-      <c r="R52" s="2">
+      <c r="Q52" s="8">
+        <v>1</v>
+      </c>
+      <c r="R52" s="9">
         <v>188.03252944321719</v>
       </c>
-      <c r="S52" s="2" t="s">
+      <c r="S52" s="9" t="s">
         <v>445</v>
       </c>
-      <c r="T52" s="2">
-        <v>1</v>
-      </c>
-      <c r="U52" s="3">
+      <c r="T52" s="9">
+        <v>1</v>
+      </c>
+      <c r="U52" s="10">
         <v>371.95620607756507</v>
       </c>
-      <c r="V52" s="3" t="s">
+      <c r="V52" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="W52" s="3">
-        <v>0</v>
-      </c>
-      <c r="X52" s="4">
+      <c r="W52" s="10">
+        <v>0</v>
+      </c>
+      <c r="X52" s="11">
         <v>671.36668444230736</v>
       </c>
-      <c r="Y52" s="4" t="s">
+      <c r="Y52" s="11" t="s">
         <v>498</v>
       </c>
-      <c r="Z52" s="4">
-        <v>1</v>
-      </c>
-      <c r="AA52" s="5">
+      <c r="Z52" s="11">
+        <v>1</v>
+      </c>
+      <c r="AA52" s="12">
         <v>6764.6535912273666</v>
       </c>
-      <c r="AB52" s="5" t="s">
+      <c r="AB52" s="12" t="s">
         <v>551</v>
       </c>
-      <c r="AC52" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD52" s="6">
+      <c r="AC52" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD52" s="13">
         <v>188.03255012314864</v>
       </c>
-      <c r="AE52" s="6" t="s">
+      <c r="AE52" s="13" t="s">
         <v>445</v>
       </c>
-      <c r="AF52" s="6">
-        <v>1</v>
-      </c>
-      <c r="AG52">
+      <c r="AF52" s="13">
+        <v>1</v>
+      </c>
+      <c r="AG52" s="14">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
@@ -7678,61 +7710,61 @@
       <c r="N53" t="s">
         <v>24</v>
       </c>
-      <c r="O53" s="1">
+      <c r="O53" s="8">
         <v>3450.8887165856336</v>
       </c>
-      <c r="P53" s="1" t="s">
+      <c r="P53" s="8" t="s">
         <v>370</v>
       </c>
-      <c r="Q53" s="1">
-        <v>0</v>
-      </c>
-      <c r="R53" s="2">
+      <c r="Q53" s="8">
+        <v>0</v>
+      </c>
+      <c r="R53" s="9">
         <v>170.72324165836699</v>
       </c>
-      <c r="S53" s="2" t="s">
+      <c r="S53" s="9" t="s">
         <v>427</v>
       </c>
-      <c r="T53" s="2">
-        <v>1</v>
-      </c>
-      <c r="U53" s="3">
+      <c r="T53" s="9">
+        <v>1</v>
+      </c>
+      <c r="U53" s="10">
         <v>381.37151548621256</v>
       </c>
-      <c r="V53" s="3" t="s">
+      <c r="V53" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="W53" s="3">
-        <v>1</v>
-      </c>
-      <c r="X53" s="4">
+      <c r="W53" s="10">
+        <v>1</v>
+      </c>
+      <c r="X53" s="11">
         <v>488.12834398923212</v>
       </c>
-      <c r="Y53" s="4" t="s">
+      <c r="Y53" s="11" t="s">
         <v>482</v>
       </c>
-      <c r="Z53" s="4">
-        <v>1</v>
-      </c>
-      <c r="AA53" s="5">
+      <c r="Z53" s="11">
+        <v>1</v>
+      </c>
+      <c r="AA53" s="12">
         <v>972.42506004577058</v>
       </c>
-      <c r="AB53" s="5" t="s">
+      <c r="AB53" s="12" t="s">
         <v>532</v>
       </c>
-      <c r="AC53" s="5">
-        <v>1</v>
-      </c>
-      <c r="AD53" s="6">
+      <c r="AC53" s="12">
+        <v>1</v>
+      </c>
+      <c r="AD53" s="13">
         <v>170.72315443116176</v>
       </c>
-      <c r="AE53" s="6" t="s">
+      <c r="AE53" s="13" t="s">
         <v>427</v>
       </c>
-      <c r="AF53" s="6">
-        <v>1</v>
-      </c>
-      <c r="AG53">
+      <c r="AF53" s="13">
+        <v>1</v>
+      </c>
+      <c r="AG53" s="14">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
@@ -7780,61 +7812,61 @@
       <c r="N54" t="s">
         <v>24</v>
       </c>
-      <c r="O54" s="1">
+      <c r="O54" s="8">
         <v>3456.4749083471606</v>
       </c>
-      <c r="P54" s="1" t="s">
+      <c r="P54" s="8" t="s">
         <v>370</v>
       </c>
-      <c r="Q54" s="1">
-        <v>0</v>
-      </c>
-      <c r="R54" s="2">
+      <c r="Q54" s="8">
+        <v>0</v>
+      </c>
+      <c r="R54" s="9">
         <v>177.08042911429953</v>
       </c>
-      <c r="S54" s="2" t="s">
+      <c r="S54" s="9" t="s">
         <v>427</v>
       </c>
-      <c r="T54" s="2">
-        <v>1</v>
-      </c>
-      <c r="U54" s="3">
+      <c r="T54" s="9">
+        <v>1</v>
+      </c>
+      <c r="U54" s="10">
         <v>384.26128317919432</v>
       </c>
-      <c r="V54" s="3" t="s">
+      <c r="V54" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="W54" s="3">
-        <v>1</v>
-      </c>
-      <c r="X54" s="4">
+      <c r="W54" s="10">
+        <v>1</v>
+      </c>
+      <c r="X54" s="11">
         <v>493.37734772610617</v>
       </c>
-      <c r="Y54" s="4" t="s">
+      <c r="Y54" s="11" t="s">
         <v>482</v>
       </c>
-      <c r="Z54" s="4">
-        <v>1</v>
-      </c>
-      <c r="AA54" s="5">
+      <c r="Z54" s="11">
+        <v>1</v>
+      </c>
+      <c r="AA54" s="12">
         <v>972.52224394741154</v>
       </c>
-      <c r="AB54" s="5" t="s">
+      <c r="AB54" s="12" t="s">
         <v>532</v>
       </c>
-      <c r="AC54" s="5">
-        <v>1</v>
-      </c>
-      <c r="AD54" s="6">
+      <c r="AC54" s="12">
+        <v>1</v>
+      </c>
+      <c r="AD54" s="13">
         <v>177.08034130431076</v>
       </c>
-      <c r="AE54" s="6" t="s">
+      <c r="AE54" s="13" t="s">
         <v>427</v>
       </c>
-      <c r="AF54" s="6">
-        <v>1</v>
-      </c>
-      <c r="AG54">
+      <c r="AF54" s="13">
+        <v>1</v>
+      </c>
+      <c r="AG54" s="14">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
@@ -7882,61 +7914,61 @@
       <c r="N55" t="s">
         <v>15</v>
       </c>
-      <c r="O55" s="1">
+      <c r="O55" s="8">
         <v>313.27345963887421</v>
       </c>
-      <c r="P55" s="1" t="s">
+      <c r="P55" s="8" t="s">
         <v>392</v>
       </c>
-      <c r="Q55" s="1">
-        <v>1</v>
-      </c>
-      <c r="R55" s="2">
+      <c r="Q55" s="8">
+        <v>1</v>
+      </c>
+      <c r="R55" s="9">
         <v>497.43098936188068</v>
       </c>
-      <c r="S55" s="2" t="s">
+      <c r="S55" s="9" t="s">
         <v>448</v>
       </c>
-      <c r="T55" s="2">
-        <v>1</v>
-      </c>
-      <c r="U55" s="3">
+      <c r="T55" s="9">
+        <v>1</v>
+      </c>
+      <c r="U55" s="10">
         <v>386.89817668514218</v>
       </c>
-      <c r="V55" s="3" t="s">
+      <c r="V55" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="W55" s="3">
-        <v>1</v>
-      </c>
-      <c r="X55" s="4">
+      <c r="W55" s="10">
+        <v>1</v>
+      </c>
+      <c r="X55" s="11">
         <v>258.93735156466545</v>
       </c>
-      <c r="Y55" s="4" t="s">
+      <c r="Y55" s="11" t="s">
         <v>500</v>
       </c>
-      <c r="Z55" s="4">
-        <v>1</v>
-      </c>
-      <c r="AA55" s="5">
+      <c r="Z55" s="11">
+        <v>1</v>
+      </c>
+      <c r="AA55" s="12">
         <v>1998.4763274920901</v>
       </c>
-      <c r="AB55" s="5" t="s">
+      <c r="AB55" s="12" t="s">
         <v>554</v>
       </c>
-      <c r="AC55" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD55" s="6">
+      <c r="AC55" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD55" s="13">
         <v>258.93727966618326</v>
       </c>
-      <c r="AE55" s="6" t="s">
+      <c r="AE55" s="13" t="s">
         <v>500</v>
       </c>
-      <c r="AF55" s="6">
-        <v>1</v>
-      </c>
-      <c r="AG55">
+      <c r="AF55" s="13">
+        <v>1</v>
+      </c>
+      <c r="AG55" s="14">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
@@ -7984,61 +8016,61 @@
       <c r="N56" t="s">
         <v>24</v>
       </c>
-      <c r="O56" s="1">
+      <c r="O56" s="8">
         <v>3464.3633118011153</v>
       </c>
-      <c r="P56" s="1" t="s">
+      <c r="P56" s="8" t="s">
         <v>370</v>
       </c>
-      <c r="Q56" s="1">
-        <v>0</v>
-      </c>
-      <c r="R56" s="2">
+      <c r="Q56" s="8">
+        <v>0</v>
+      </c>
+      <c r="R56" s="9">
         <v>185.22946168293794</v>
       </c>
-      <c r="S56" s="2" t="s">
+      <c r="S56" s="9" t="s">
         <v>427</v>
       </c>
-      <c r="T56" s="2">
-        <v>1</v>
-      </c>
-      <c r="U56" s="3">
+      <c r="T56" s="9">
+        <v>1</v>
+      </c>
+      <c r="U56" s="10">
         <v>387.30637492269273</v>
       </c>
-      <c r="V56" s="3" t="s">
+      <c r="V56" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="W56" s="3">
-        <v>1</v>
-      </c>
-      <c r="X56" s="4">
+      <c r="W56" s="10">
+        <v>1</v>
+      </c>
+      <c r="X56" s="11">
         <v>500.91856315282229</v>
       </c>
-      <c r="Y56" s="4" t="s">
+      <c r="Y56" s="11" t="s">
         <v>482</v>
       </c>
-      <c r="Z56" s="4">
-        <v>1</v>
-      </c>
-      <c r="AA56" s="5">
+      <c r="Z56" s="11">
+        <v>1</v>
+      </c>
+      <c r="AA56" s="12">
         <v>973.57675884778916</v>
       </c>
-      <c r="AB56" s="5" t="s">
+      <c r="AB56" s="12" t="s">
         <v>532</v>
       </c>
-      <c r="AC56" s="5">
-        <v>1</v>
-      </c>
-      <c r="AD56" s="6">
+      <c r="AC56" s="12">
+        <v>1</v>
+      </c>
+      <c r="AD56" s="13">
         <v>185.22937304323185</v>
       </c>
-      <c r="AE56" s="6" t="s">
+      <c r="AE56" s="13" t="s">
         <v>427</v>
       </c>
-      <c r="AF56" s="6">
-        <v>1</v>
-      </c>
-      <c r="AG56">
+      <c r="AF56" s="13">
+        <v>1</v>
+      </c>
+      <c r="AG56" s="14">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
@@ -8086,61 +8118,61 @@
       <c r="N57" t="s">
         <v>24</v>
       </c>
-      <c r="O57" s="1">
+      <c r="O57" s="8">
         <v>3471.842458191757</v>
       </c>
-      <c r="P57" s="1" t="s">
+      <c r="P57" s="8" t="s">
         <v>370</v>
       </c>
-      <c r="Q57" s="1">
-        <v>0</v>
-      </c>
-      <c r="R57" s="2">
+      <c r="Q57" s="8">
+        <v>0</v>
+      </c>
+      <c r="R57" s="9">
         <v>193.41709594470771</v>
       </c>
-      <c r="S57" s="2" t="s">
+      <c r="S57" s="9" t="s">
         <v>427</v>
       </c>
-      <c r="T57" s="2">
-        <v>1</v>
-      </c>
-      <c r="U57" s="3">
+      <c r="T57" s="9">
+        <v>1</v>
+      </c>
+      <c r="U57" s="10">
         <v>390.64300170971967</v>
       </c>
-      <c r="V57" s="3" t="s">
+      <c r="V57" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="W57" s="3">
-        <v>1</v>
-      </c>
-      <c r="X57" s="4">
+      <c r="W57" s="10">
+        <v>1</v>
+      </c>
+      <c r="X57" s="11">
         <v>508.08642145990831</v>
       </c>
-      <c r="Y57" s="4" t="s">
+      <c r="Y57" s="11" t="s">
         <v>482</v>
       </c>
-      <c r="Z57" s="4">
-        <v>1</v>
-      </c>
-      <c r="AA57" s="5">
+      <c r="Z57" s="11">
+        <v>1</v>
+      </c>
+      <c r="AA57" s="12">
         <v>974.29134299118255</v>
       </c>
-      <c r="AB57" s="5" t="s">
+      <c r="AB57" s="12" t="s">
         <v>532</v>
       </c>
-      <c r="AC57" s="5">
-        <v>1</v>
-      </c>
-      <c r="AD57" s="6">
+      <c r="AC57" s="12">
+        <v>1</v>
+      </c>
+      <c r="AD57" s="13">
         <v>193.41700666646886</v>
       </c>
-      <c r="AE57" s="6" t="s">
+      <c r="AE57" s="13" t="s">
         <v>427</v>
       </c>
-      <c r="AF57" s="6">
-        <v>1</v>
-      </c>
-      <c r="AG57">
+      <c r="AF57" s="13">
+        <v>1</v>
+      </c>
+      <c r="AG57" s="14">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
@@ -8188,61 +8220,61 @@
       <c r="N58" t="s">
         <v>15</v>
       </c>
-      <c r="O58" s="1">
+      <c r="O58" s="8">
         <v>4027.5233371301747</v>
       </c>
-      <c r="P58" s="1" t="s">
+      <c r="P58" s="8" t="s">
         <v>412</v>
       </c>
-      <c r="Q58" s="1">
-        <v>0</v>
-      </c>
-      <c r="R58" s="2">
+      <c r="Q58" s="8">
+        <v>0</v>
+      </c>
+      <c r="R58" s="9">
         <v>3407.3060969976696</v>
       </c>
-      <c r="S58" s="2" t="s">
+      <c r="S58" s="9" t="s">
         <v>467</v>
       </c>
-      <c r="T58" s="2">
-        <v>0</v>
-      </c>
-      <c r="U58" s="3">
+      <c r="T58" s="9">
+        <v>0</v>
+      </c>
+      <c r="U58" s="10">
         <v>406.09280225096597</v>
       </c>
-      <c r="V58" s="3" t="s">
+      <c r="V58" s="10" t="s">
         <v>320</v>
       </c>
-      <c r="W58" s="3">
-        <v>1</v>
-      </c>
-      <c r="X58" s="4">
+      <c r="W58" s="10">
+        <v>1</v>
+      </c>
+      <c r="X58" s="11">
         <v>4222.2719915792704</v>
       </c>
-      <c r="Y58" s="4" t="s">
+      <c r="Y58" s="11" t="s">
         <v>519</v>
       </c>
-      <c r="Z58" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA58" s="5">
+      <c r="Z58" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA58" s="12">
         <v>5100.5603245573639</v>
       </c>
-      <c r="AB58" s="5" t="s">
+      <c r="AB58" s="12" t="s">
         <v>539</v>
       </c>
-      <c r="AC58" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD58" s="6">
+      <c r="AC58" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD58" s="13">
         <v>3407.3062362672404</v>
       </c>
-      <c r="AE58" s="6" t="s">
+      <c r="AE58" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="AF58" s="6">
-        <v>0</v>
-      </c>
-      <c r="AG58">
+      <c r="AF58" s="13">
+        <v>0</v>
+      </c>
+      <c r="AG58" s="14">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -8290,61 +8322,61 @@
       <c r="N59" t="s">
         <v>24</v>
       </c>
-      <c r="O59" s="1">
+      <c r="O59" s="8">
         <v>222.2145072778533</v>
       </c>
-      <c r="P59" s="1" t="s">
+      <c r="P59" s="8" t="s">
         <v>364</v>
       </c>
-      <c r="Q59" s="1">
-        <v>1</v>
-      </c>
-      <c r="R59" s="2">
+      <c r="Q59" s="8">
+        <v>1</v>
+      </c>
+      <c r="R59" s="9">
         <v>143.42702214627073</v>
       </c>
-      <c r="S59" s="2" t="s">
+      <c r="S59" s="9" t="s">
         <v>421</v>
       </c>
-      <c r="T59" s="2">
-        <v>1</v>
-      </c>
-      <c r="U59" s="3">
+      <c r="T59" s="9">
+        <v>1</v>
+      </c>
+      <c r="U59" s="10">
         <v>416.85853716587366</v>
       </c>
-      <c r="V59" s="3" t="s">
+      <c r="V59" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="W59" s="3">
-        <v>0</v>
-      </c>
-      <c r="X59" s="4">
+      <c r="W59" s="10">
+        <v>0</v>
+      </c>
+      <c r="X59" s="11">
         <v>304.02367626894272</v>
       </c>
-      <c r="Y59" s="4" t="s">
+      <c r="Y59" s="11" t="s">
         <v>476</v>
       </c>
-      <c r="Z59" s="4">
-        <v>1</v>
-      </c>
-      <c r="AA59" s="5">
+      <c r="Z59" s="11">
+        <v>1</v>
+      </c>
+      <c r="AA59" s="12">
         <v>2089.5162814162254</v>
       </c>
-      <c r="AB59" s="5" t="s">
+      <c r="AB59" s="12" t="s">
         <v>526</v>
       </c>
-      <c r="AC59" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD59" s="6">
+      <c r="AC59" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD59" s="13">
         <v>143.42706939517464</v>
       </c>
-      <c r="AE59" s="6" t="s">
+      <c r="AE59" s="13" t="s">
         <v>421</v>
       </c>
-      <c r="AF59" s="6">
-        <v>1</v>
-      </c>
-      <c r="AG59">
+      <c r="AF59" s="13">
+        <v>1</v>
+      </c>
+      <c r="AG59" s="14">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
@@ -8392,61 +8424,61 @@
       <c r="N60" t="s">
         <v>15</v>
       </c>
-      <c r="O60" s="1">
+      <c r="O60" s="8">
         <v>718.87996661848695</v>
       </c>
-      <c r="P60" s="1" t="s">
+      <c r="P60" s="8" t="s">
         <v>415</v>
       </c>
-      <c r="Q60" s="1">
-        <v>1</v>
-      </c>
-      <c r="R60" s="2">
+      <c r="Q60" s="8">
+        <v>1</v>
+      </c>
+      <c r="R60" s="9">
         <v>1907.3121390539948</v>
       </c>
-      <c r="S60" s="2" t="s">
+      <c r="S60" s="9" t="s">
         <v>401</v>
       </c>
-      <c r="T60" s="2">
-        <v>0</v>
-      </c>
-      <c r="U60" s="3">
+      <c r="T60" s="9">
+        <v>0</v>
+      </c>
+      <c r="U60" s="10">
         <v>451.45555606026272</v>
       </c>
-      <c r="V60" s="3" t="s">
+      <c r="V60" s="10" t="s">
         <v>335</v>
       </c>
-      <c r="W60" s="3">
-        <v>0</v>
-      </c>
-      <c r="X60" s="4">
+      <c r="W60" s="10">
+        <v>0</v>
+      </c>
+      <c r="X60" s="11">
         <v>4846.5139170008943</v>
       </c>
-      <c r="Y60" s="4" t="s">
+      <c r="Y60" s="11" t="s">
         <v>486</v>
       </c>
-      <c r="Z60" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA60" s="5">
+      <c r="Z60" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA60" s="12">
         <v>1041.7566089662623</v>
       </c>
-      <c r="AB60" s="5" t="s">
+      <c r="AB60" s="12" t="s">
         <v>573</v>
       </c>
-      <c r="AC60" s="5">
-        <v>1</v>
-      </c>
-      <c r="AD60" s="6">
+      <c r="AC60" s="12">
+        <v>1</v>
+      </c>
+      <c r="AD60" s="13">
         <v>155.45475641742243</v>
       </c>
-      <c r="AE60" s="6" t="s">
+      <c r="AE60" s="13" t="s">
         <v>596</v>
       </c>
-      <c r="AF60" s="6">
-        <v>1</v>
-      </c>
-      <c r="AG60">
+      <c r="AF60" s="13">
+        <v>1</v>
+      </c>
+      <c r="AG60" s="14">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
@@ -8494,61 +8526,61 @@
       <c r="N61" t="s">
         <v>24</v>
       </c>
-      <c r="O61" s="1">
+      <c r="O61" s="8">
         <v>14094.862690693088</v>
       </c>
-      <c r="P61" s="1" t="s">
+      <c r="P61" s="8" t="s">
         <v>385</v>
       </c>
-      <c r="Q61" s="1">
-        <v>0</v>
-      </c>
-      <c r="R61" s="2">
+      <c r="Q61" s="8">
+        <v>0</v>
+      </c>
+      <c r="R61" s="9">
         <v>365.61655552954045</v>
       </c>
-      <c r="S61" s="2" t="s">
+      <c r="S61" s="9" t="s">
         <v>441</v>
       </c>
-      <c r="T61" s="2">
-        <v>1</v>
-      </c>
-      <c r="U61" s="3">
+      <c r="T61" s="9">
+        <v>1</v>
+      </c>
+      <c r="U61" s="10">
         <v>458.45955150447918</v>
       </c>
-      <c r="V61" s="3" t="s">
+      <c r="V61" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="W61" s="3">
-        <v>0</v>
-      </c>
-      <c r="X61" s="4">
+      <c r="W61" s="10">
+        <v>0</v>
+      </c>
+      <c r="X61" s="11">
         <v>185.95202774075895</v>
       </c>
-      <c r="Y61" s="4" t="s">
+      <c r="Y61" s="11" t="s">
         <v>482</v>
       </c>
-      <c r="Z61" s="4">
-        <v>1</v>
-      </c>
-      <c r="AA61" s="5">
+      <c r="Z61" s="11">
+        <v>1</v>
+      </c>
+      <c r="AA61" s="12">
         <v>15723.91035133665</v>
       </c>
-      <c r="AB61" s="5" t="s">
+      <c r="AB61" s="12" t="s">
         <v>547</v>
       </c>
-      <c r="AC61" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD61" s="6">
+      <c r="AC61" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD61" s="13">
         <v>185.95201286579666</v>
       </c>
-      <c r="AE61" s="6" t="s">
+      <c r="AE61" s="13" t="s">
         <v>482</v>
       </c>
-      <c r="AF61" s="6">
-        <v>1</v>
-      </c>
-      <c r="AG61">
+      <c r="AF61" s="13">
+        <v>1</v>
+      </c>
+      <c r="AG61" s="14">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
@@ -8596,61 +8628,61 @@
       <c r="N62" t="s">
         <v>24</v>
       </c>
-      <c r="O62" s="1">
+      <c r="O62" s="8">
         <v>14069.89091478736</v>
       </c>
-      <c r="P62" s="1" t="s">
+      <c r="P62" s="8" t="s">
         <v>385</v>
       </c>
-      <c r="Q62" s="1">
-        <v>0</v>
-      </c>
-      <c r="R62" s="2">
+      <c r="Q62" s="8">
+        <v>0</v>
+      </c>
+      <c r="R62" s="9">
         <v>379.52883110620763</v>
       </c>
-      <c r="S62" s="2" t="s">
+      <c r="S62" s="9" t="s">
         <v>441</v>
       </c>
-      <c r="T62" s="2">
-        <v>1</v>
-      </c>
-      <c r="U62" s="3">
+      <c r="T62" s="9">
+        <v>1</v>
+      </c>
+      <c r="U62" s="10">
         <v>459.26834561441598</v>
       </c>
-      <c r="V62" s="3" t="s">
+      <c r="V62" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="W62" s="3">
-        <v>0</v>
-      </c>
-      <c r="X62" s="4">
+      <c r="W62" s="10">
+        <v>0</v>
+      </c>
+      <c r="X62" s="11">
         <v>211.98213729471485</v>
       </c>
-      <c r="Y62" s="4" t="s">
+      <c r="Y62" s="11" t="s">
         <v>482</v>
       </c>
-      <c r="Z62" s="4">
-        <v>1</v>
-      </c>
-      <c r="AA62" s="5">
+      <c r="Z62" s="11">
+        <v>1</v>
+      </c>
+      <c r="AA62" s="12">
         <v>15749.940033114483</v>
       </c>
-      <c r="AB62" s="5" t="s">
+      <c r="AB62" s="12" t="s">
         <v>547</v>
       </c>
-      <c r="AC62" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD62" s="6">
+      <c r="AC62" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD62" s="13">
         <v>211.98212247863242</v>
       </c>
-      <c r="AE62" s="6" t="s">
+      <c r="AE62" s="13" t="s">
         <v>482</v>
       </c>
-      <c r="AF62" s="6">
-        <v>1</v>
-      </c>
-      <c r="AG62">
+      <c r="AF62" s="13">
+        <v>1</v>
+      </c>
+      <c r="AG62" s="14">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
@@ -8698,61 +8730,61 @@
       <c r="N63" t="s">
         <v>24</v>
       </c>
-      <c r="O63" s="1">
+      <c r="O63" s="8">
         <v>14083.671395633432</v>
       </c>
-      <c r="P63" s="1" t="s">
+      <c r="P63" s="8" t="s">
         <v>385</v>
       </c>
-      <c r="Q63" s="1">
-        <v>0</v>
-      </c>
-      <c r="R63" s="2">
+      <c r="Q63" s="8">
+        <v>0</v>
+      </c>
+      <c r="R63" s="9">
         <v>373.03452876891851</v>
       </c>
-      <c r="S63" s="2" t="s">
+      <c r="S63" s="9" t="s">
         <v>441</v>
       </c>
-      <c r="T63" s="2">
-        <v>1</v>
-      </c>
-      <c r="U63" s="3">
+      <c r="T63" s="9">
+        <v>1</v>
+      </c>
+      <c r="U63" s="10">
         <v>460.17321670210214</v>
       </c>
-      <c r="V63" s="3" t="s">
+      <c r="V63" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="W63" s="3">
-        <v>0</v>
-      </c>
-      <c r="X63" s="4">
+      <c r="W63" s="10">
+        <v>0</v>
+      </c>
+      <c r="X63" s="11">
         <v>198.03327168234719</v>
       </c>
-      <c r="Y63" s="4" t="s">
+      <c r="Y63" s="11" t="s">
         <v>482</v>
       </c>
-      <c r="Z63" s="4">
-        <v>1</v>
-      </c>
-      <c r="AA63" s="5">
+      <c r="Z63" s="11">
+        <v>1</v>
+      </c>
+      <c r="AA63" s="12">
         <v>15735.988591877227</v>
       </c>
-      <c r="AB63" s="5" t="s">
+      <c r="AB63" s="12" t="s">
         <v>547</v>
       </c>
-      <c r="AC63" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD63" s="6">
+      <c r="AC63" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD63" s="13">
         <v>198.03325659514169</v>
       </c>
-      <c r="AE63" s="6" t="s">
+      <c r="AE63" s="13" t="s">
         <v>482</v>
       </c>
-      <c r="AF63" s="6">
-        <v>1</v>
-      </c>
-      <c r="AG63">
+      <c r="AF63" s="13">
+        <v>1</v>
+      </c>
+      <c r="AG63" s="14">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
@@ -8800,61 +8832,61 @@
       <c r="N64" t="s">
         <v>24</v>
       </c>
-      <c r="O64" s="1">
+      <c r="O64" s="8">
         <v>14102.869302614672</v>
       </c>
-      <c r="P64" s="1" t="s">
+      <c r="P64" s="8" t="s">
         <v>385</v>
       </c>
-      <c r="Q64" s="1">
-        <v>0</v>
-      </c>
-      <c r="R64" s="2">
+      <c r="Q64" s="8">
+        <v>0</v>
+      </c>
+      <c r="R64" s="9">
         <v>363.57778535223088</v>
       </c>
-      <c r="S64" s="2" t="s">
+      <c r="S64" s="9" t="s">
         <v>441</v>
       </c>
-      <c r="T64" s="2">
-        <v>1</v>
-      </c>
-      <c r="U64" s="3">
+      <c r="T64" s="9">
+        <v>1</v>
+      </c>
+      <c r="U64" s="10">
         <v>460.32356227418683</v>
       </c>
-      <c r="V64" s="3" t="s">
+      <c r="V64" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="W64" s="3">
-        <v>0</v>
-      </c>
-      <c r="X64" s="4">
+      <c r="W64" s="10">
+        <v>0</v>
+      </c>
+      <c r="X64" s="11">
         <v>178.26854822848196</v>
       </c>
-      <c r="Y64" s="4" t="s">
+      <c r="Y64" s="11" t="s">
         <v>482</v>
       </c>
-      <c r="Z64" s="4">
-        <v>1</v>
-      </c>
-      <c r="AA64" s="5">
+      <c r="Z64" s="11">
+        <v>1</v>
+      </c>
+      <c r="AA64" s="12">
         <v>15716.214152862261</v>
       </c>
-      <c r="AB64" s="5" t="s">
+      <c r="AB64" s="12" t="s">
         <v>547</v>
       </c>
-      <c r="AC64" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD64" s="6">
+      <c r="AC64" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD64" s="13">
         <v>178.26853290950547</v>
       </c>
-      <c r="AE64" s="6" t="s">
+      <c r="AE64" s="13" t="s">
         <v>482</v>
       </c>
-      <c r="AF64" s="6">
-        <v>1</v>
-      </c>
-      <c r="AG64">
+      <c r="AF64" s="13">
+        <v>1</v>
+      </c>
+      <c r="AG64" s="14">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
@@ -8902,61 +8934,61 @@
       <c r="N65" t="s">
         <v>15</v>
       </c>
-      <c r="O65" s="1">
+      <c r="O65" s="8">
         <v>417.59170944229879</v>
       </c>
-      <c r="P65" s="1" t="s">
+      <c r="P65" s="8" t="s">
         <v>371</v>
       </c>
-      <c r="Q65" s="1">
-        <v>1</v>
-      </c>
-      <c r="R65" s="2">
+      <c r="Q65" s="8">
+        <v>1</v>
+      </c>
+      <c r="R65" s="9">
         <v>417.59170944229879</v>
       </c>
-      <c r="S65" s="2" t="s">
+      <c r="S65" s="9" t="s">
         <v>428</v>
       </c>
-      <c r="T65" s="2">
-        <v>1</v>
-      </c>
-      <c r="U65" s="3">
+      <c r="T65" s="9">
+        <v>1</v>
+      </c>
+      <c r="U65" s="10">
         <v>511.0281821990506</v>
       </c>
-      <c r="V65" s="3" t="s">
+      <c r="V65" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="W65" s="3">
-        <v>1</v>
-      </c>
-      <c r="X65" s="4">
+      <c r="W65" s="10">
+        <v>1</v>
+      </c>
+      <c r="X65" s="11">
         <v>7572.4951759017113</v>
       </c>
-      <c r="Y65" s="4" t="s">
+      <c r="Y65" s="11" t="s">
         <v>483</v>
       </c>
-      <c r="Z65" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA65" s="5">
+      <c r="Z65" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA65" s="12">
         <v>1523.7084423402114</v>
       </c>
-      <c r="AB65" s="5" t="s">
+      <c r="AB65" s="12" t="s">
         <v>533</v>
       </c>
-      <c r="AC65" s="5">
-        <v>1</v>
-      </c>
-      <c r="AD65" s="6">
+      <c r="AC65" s="12">
+        <v>1</v>
+      </c>
+      <c r="AD65" s="13">
         <v>417.59167431333964</v>
       </c>
-      <c r="AE65" s="6" t="s">
+      <c r="AE65" s="13" t="s">
         <v>428</v>
       </c>
-      <c r="AF65" s="6">
-        <v>1</v>
-      </c>
-      <c r="AG65">
+      <c r="AF65" s="13">
+        <v>1</v>
+      </c>
+      <c r="AG65" s="14">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
@@ -9004,61 +9036,61 @@
       <c r="N66" t="s">
         <v>15</v>
       </c>
-      <c r="O66" s="1">
+      <c r="O66" s="8">
         <v>1407.7075943066793</v>
       </c>
-      <c r="P66" s="1" t="s">
+      <c r="P66" s="8" t="s">
         <v>417</v>
       </c>
-      <c r="Q66" s="1">
-        <v>1</v>
-      </c>
-      <c r="R66" s="2">
+      <c r="Q66" s="8">
+        <v>1</v>
+      </c>
+      <c r="R66" s="9">
         <v>309.01013306196063</v>
       </c>
-      <c r="S66" s="2" t="s">
+      <c r="S66" s="9" t="s">
         <v>470</v>
       </c>
-      <c r="T66" s="2">
-        <v>1</v>
-      </c>
-      <c r="U66" s="3">
+      <c r="T66" s="9">
+        <v>1</v>
+      </c>
+      <c r="U66" s="10">
         <v>596.17485830382941</v>
       </c>
-      <c r="V66" s="3" t="s">
+      <c r="V66" s="10" t="s">
         <v>348</v>
       </c>
-      <c r="W66" s="3">
-        <v>1</v>
-      </c>
-      <c r="X66" s="4">
+      <c r="W66" s="10">
+        <v>1</v>
+      </c>
+      <c r="X66" s="11">
         <v>4061.3610517132802</v>
       </c>
-      <c r="Y66" s="4" t="s">
+      <c r="Y66" s="11" t="s">
         <v>522</v>
       </c>
-      <c r="Z66" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA66" s="5">
+      <c r="Z66" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA66" s="12">
         <v>3311.9044962964558</v>
       </c>
-      <c r="AB66" s="5" t="s">
+      <c r="AB66" s="12" t="s">
         <v>575</v>
       </c>
-      <c r="AC66" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD66" s="6">
+      <c r="AC66" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD66" s="13">
         <v>309.01003125647446</v>
       </c>
-      <c r="AE66" s="6" t="s">
+      <c r="AE66" s="13" t="s">
         <v>470</v>
       </c>
-      <c r="AF66" s="6">
-        <v>1</v>
-      </c>
-      <c r="AG66">
+      <c r="AF66" s="13">
+        <v>1</v>
+      </c>
+      <c r="AG66" s="14">
         <f t="shared" ref="AG66:AG94" si="2">AF66+AC66+Z66+W66+T66+Q66</f>
         <v>4</v>
       </c>
@@ -9106,61 +9138,61 @@
       <c r="N67" t="s">
         <v>24</v>
       </c>
-      <c r="O67" s="1">
+      <c r="O67" s="8">
         <v>197.66635307611654</v>
       </c>
-      <c r="P67" s="1" t="s">
+      <c r="P67" s="8" t="s">
         <v>388</v>
       </c>
-      <c r="Q67" s="1">
-        <v>1</v>
-      </c>
-      <c r="R67" s="2">
+      <c r="Q67" s="8">
+        <v>1</v>
+      </c>
+      <c r="R67" s="9">
         <v>501.75336283424718</v>
       </c>
-      <c r="S67" s="2" t="s">
+      <c r="S67" s="9" t="s">
         <v>444</v>
       </c>
-      <c r="T67" s="2">
-        <v>1</v>
-      </c>
-      <c r="U67" s="3">
+      <c r="T67" s="9">
+        <v>1</v>
+      </c>
+      <c r="U67" s="10">
         <v>610.30856262750103</v>
       </c>
-      <c r="V67" s="3" t="s">
+      <c r="V67" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="W67" s="3">
-        <v>1</v>
-      </c>
-      <c r="X67" s="4">
+      <c r="W67" s="10">
+        <v>1</v>
+      </c>
+      <c r="X67" s="11">
         <v>4435.0571282219416</v>
       </c>
-      <c r="Y67" s="4" t="s">
+      <c r="Y67" s="11" t="s">
         <v>497</v>
       </c>
-      <c r="Z67" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA67" s="5">
+      <c r="Z67" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA67" s="12">
         <v>4705.2101709522485</v>
       </c>
-      <c r="AB67" s="5" t="s">
+      <c r="AB67" s="12" t="s">
         <v>550</v>
       </c>
-      <c r="AC67" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD67" s="6">
+      <c r="AC67" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD67" s="13">
         <v>197.66642059133511</v>
       </c>
-      <c r="AE67" s="6" t="s">
+      <c r="AE67" s="13" t="s">
         <v>388</v>
       </c>
-      <c r="AF67" s="6">
-        <v>1</v>
-      </c>
-      <c r="AG67">
+      <c r="AF67" s="13">
+        <v>1</v>
+      </c>
+      <c r="AG67" s="14">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
@@ -9208,61 +9240,61 @@
       <c r="N68" t="s">
         <v>15</v>
       </c>
-      <c r="O68" s="1">
+      <c r="O68" s="8">
         <v>213.07945587666131</v>
       </c>
-      <c r="P68" s="1" t="s">
+      <c r="P68" s="8" t="s">
         <v>388</v>
       </c>
-      <c r="Q68" s="1">
-        <v>1</v>
-      </c>
-      <c r="R68" s="2">
+      <c r="Q68" s="8">
+        <v>1</v>
+      </c>
+      <c r="R68" s="9">
         <v>515.79264449983327</v>
       </c>
-      <c r="S68" s="2" t="s">
+      <c r="S68" s="9" t="s">
         <v>444</v>
       </c>
-      <c r="T68" s="2">
-        <v>1</v>
-      </c>
-      <c r="U68" s="3">
+      <c r="T68" s="9">
+        <v>1</v>
+      </c>
+      <c r="U68" s="10">
         <v>611.40375890846792</v>
       </c>
-      <c r="V68" s="3" t="s">
+      <c r="V68" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="W68" s="3">
-        <v>1</v>
-      </c>
-      <c r="X68" s="4">
+      <c r="W68" s="10">
+        <v>1</v>
+      </c>
+      <c r="X68" s="11">
         <v>4437.237345796817</v>
       </c>
-      <c r="Y68" s="4" t="s">
+      <c r="Y68" s="11" t="s">
         <v>497</v>
       </c>
-      <c r="Z68" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA68" s="5">
+      <c r="Z68" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA68" s="12">
         <v>4720.1654561308314</v>
       </c>
-      <c r="AB68" s="5" t="s">
+      <c r="AB68" s="12" t="s">
         <v>550</v>
       </c>
-      <c r="AC68" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD68" s="6">
+      <c r="AC68" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD68" s="13">
         <v>213.07952299228825</v>
       </c>
-      <c r="AE68" s="6" t="s">
+      <c r="AE68" s="13" t="s">
         <v>388</v>
       </c>
-      <c r="AF68" s="6">
-        <v>1</v>
-      </c>
-      <c r="AG68">
+      <c r="AF68" s="13">
+        <v>1</v>
+      </c>
+      <c r="AG68" s="14">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
@@ -9310,61 +9342,61 @@
       <c r="N69" t="s">
         <v>24</v>
       </c>
-      <c r="O69" s="1">
+      <c r="O69" s="8">
         <v>350.87696176322152</v>
       </c>
-      <c r="P69" s="1" t="s">
+      <c r="P69" s="8" t="s">
         <v>391</v>
       </c>
-      <c r="Q69" s="1">
-        <v>1</v>
-      </c>
-      <c r="R69" s="2">
+      <c r="Q69" s="8">
+        <v>1</v>
+      </c>
+      <c r="R69" s="9">
         <v>389.89228743954885</v>
       </c>
-      <c r="S69" s="2" t="s">
+      <c r="S69" s="9" t="s">
         <v>447</v>
       </c>
-      <c r="T69" s="2">
-        <v>1</v>
-      </c>
-      <c r="U69" s="3">
+      <c r="T69" s="9">
+        <v>1</v>
+      </c>
+      <c r="U69" s="10">
         <v>615.39997385588151</v>
       </c>
-      <c r="V69" s="3" t="s">
+      <c r="V69" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="W69" s="3">
-        <v>0</v>
-      </c>
-      <c r="X69" s="4">
+      <c r="W69" s="10">
+        <v>0</v>
+      </c>
+      <c r="X69" s="11">
         <v>719.70992201367221</v>
       </c>
-      <c r="Y69" s="4" t="s">
+      <c r="Y69" s="11" t="s">
         <v>499</v>
       </c>
-      <c r="Z69" s="4">
-        <v>1</v>
-      </c>
-      <c r="AA69" s="5">
+      <c r="Z69" s="11">
+        <v>1</v>
+      </c>
+      <c r="AA69" s="12">
         <v>2862.7747704827634</v>
       </c>
-      <c r="AB69" s="5" t="s">
+      <c r="AB69" s="12" t="s">
         <v>553</v>
       </c>
-      <c r="AC69" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD69" s="6">
+      <c r="AC69" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD69" s="13">
         <v>302.16602476409844</v>
       </c>
-      <c r="AE69" s="6" t="s">
+      <c r="AE69" s="13" t="s">
         <v>590</v>
       </c>
-      <c r="AF69" s="6">
-        <v>1</v>
-      </c>
-      <c r="AG69">
+      <c r="AF69" s="13">
+        <v>1</v>
+      </c>
+      <c r="AG69" s="14">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
@@ -9412,61 +9444,61 @@
       <c r="N70" t="s">
         <v>24</v>
       </c>
-      <c r="O70" s="1">
+      <c r="O70" s="8">
         <v>220.26094037563774</v>
       </c>
-      <c r="P70" s="1" t="s">
+      <c r="P70" s="8" t="s">
         <v>388</v>
       </c>
-      <c r="Q70" s="1">
-        <v>1</v>
-      </c>
-      <c r="R70" s="2">
+      <c r="Q70" s="8">
+        <v>1</v>
+      </c>
+      <c r="R70" s="9">
         <v>525.7655134882167</v>
       </c>
-      <c r="S70" s="2" t="s">
+      <c r="S70" s="9" t="s">
         <v>444</v>
       </c>
-      <c r="T70" s="2">
-        <v>1</v>
-      </c>
-      <c r="U70" s="3">
+      <c r="T70" s="9">
+        <v>1</v>
+      </c>
+      <c r="U70" s="10">
         <v>619.77750407698977</v>
       </c>
-      <c r="V70" s="3" t="s">
+      <c r="V70" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="W70" s="3">
-        <v>1</v>
-      </c>
-      <c r="X70" s="4">
+      <c r="W70" s="10">
+        <v>1</v>
+      </c>
+      <c r="X70" s="11">
         <v>4446.0861254556403</v>
       </c>
-      <c r="Y70" s="4" t="s">
+      <c r="Y70" s="11" t="s">
         <v>497</v>
       </c>
-      <c r="Z70" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA70" s="5">
+      <c r="Z70" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA70" s="12">
         <v>4725.3994107802464</v>
       </c>
-      <c r="AB70" s="5" t="s">
+      <c r="AB70" s="12" t="s">
         <v>550</v>
       </c>
-      <c r="AC70" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD70" s="6">
+      <c r="AC70" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD70" s="13">
         <v>220.26100313379345</v>
       </c>
-      <c r="AE70" s="6" t="s">
+      <c r="AE70" s="13" t="s">
         <v>388</v>
       </c>
-      <c r="AF70" s="6">
-        <v>1</v>
-      </c>
-      <c r="AG70">
+      <c r="AF70" s="13">
+        <v>1</v>
+      </c>
+      <c r="AG70" s="14">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
@@ -9514,58 +9546,58 @@
       <c r="N71" t="s">
         <v>15</v>
       </c>
-      <c r="O71" s="1">
+      <c r="O71" s="8">
         <v>305.47928374401027</v>
       </c>
-      <c r="P71" s="1" t="s">
+      <c r="P71" s="8" t="s">
         <v>407</v>
       </c>
-      <c r="Q71" s="1">
-        <v>1</v>
-      </c>
-      <c r="R71" s="2">
+      <c r="Q71" s="8">
+        <v>1</v>
+      </c>
+      <c r="R71" s="9">
         <v>1599.7307814819824</v>
       </c>
-      <c r="S71" s="2" t="s">
+      <c r="S71" s="9" t="s">
         <v>461</v>
       </c>
-      <c r="T71" s="2">
-        <v>0</v>
-      </c>
-      <c r="U71" s="3">
+      <c r="T71" s="9">
+        <v>0</v>
+      </c>
+      <c r="U71" s="10">
         <v>626.52882370455882</v>
       </c>
-      <c r="V71" s="3" t="s">
+      <c r="V71" s="10" t="s">
         <v>290</v>
       </c>
-      <c r="W71" s="3">
-        <v>1</v>
-      </c>
-      <c r="X71" s="4">
+      <c r="W71" s="10">
+        <v>1</v>
+      </c>
+      <c r="X71" s="11">
         <v>6457.0240705170472</v>
       </c>
-      <c r="Y71" s="4" t="s">
+      <c r="Y71" s="11" t="s">
         <v>514</v>
       </c>
-      <c r="Z71" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA71" s="5">
+      <c r="Z71" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA71" s="12">
         <v>192.4013688776561</v>
       </c>
-      <c r="AB71" s="5" t="s">
+      <c r="AB71" s="12" t="s">
         <v>567</v>
       </c>
-      <c r="AC71" s="5">
-        <v>1</v>
-      </c>
-      <c r="AD71" s="6">
+      <c r="AC71" s="12">
+        <v>1</v>
+      </c>
+      <c r="AD71" s="13">
         <v>192.4012394153383</v>
       </c>
-      <c r="AF71" s="6">
-        <v>1</v>
-      </c>
-      <c r="AG71">
+      <c r="AF71" s="13">
+        <v>1</v>
+      </c>
+      <c r="AG71" s="14">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
@@ -9613,61 +9645,61 @@
       <c r="N72" t="s">
         <v>24</v>
       </c>
-      <c r="O72" s="1">
+      <c r="O72" s="8">
         <v>379.44310332687871</v>
       </c>
-      <c r="P72" s="1" t="s">
+      <c r="P72" s="8" t="s">
         <v>391</v>
       </c>
-      <c r="Q72" s="1">
-        <v>1</v>
-      </c>
-      <c r="R72" s="2">
+      <c r="Q72" s="8">
+        <v>1</v>
+      </c>
+      <c r="R72" s="9">
         <v>368.53976877293496</v>
       </c>
-      <c r="S72" s="2" t="s">
+      <c r="S72" s="9" t="s">
         <v>447</v>
       </c>
-      <c r="T72" s="2">
-        <v>1</v>
-      </c>
-      <c r="U72" s="3">
+      <c r="T72" s="9">
+        <v>1</v>
+      </c>
+      <c r="U72" s="10">
         <v>630.0241623372516</v>
       </c>
-      <c r="V72" s="3" t="s">
+      <c r="V72" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="W72" s="3">
-        <v>0</v>
-      </c>
-      <c r="X72" s="4">
+      <c r="W72" s="10">
+        <v>0</v>
+      </c>
+      <c r="X72" s="11">
         <v>699.82145633365462</v>
       </c>
-      <c r="Y72" s="4" t="s">
+      <c r="Y72" s="11" t="s">
         <v>499</v>
       </c>
-      <c r="Z72" s="4">
-        <v>1</v>
-      </c>
-      <c r="AA72" s="5">
+      <c r="Z72" s="11">
+        <v>1</v>
+      </c>
+      <c r="AA72" s="12">
         <v>2835.7014840761481</v>
       </c>
-      <c r="AB72" s="5" t="s">
+      <c r="AB72" s="12" t="s">
         <v>553</v>
       </c>
-      <c r="AC72" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD72" s="6">
+      <c r="AC72" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD72" s="13">
         <v>334.91308430457462</v>
       </c>
-      <c r="AE72" s="6" t="s">
+      <c r="AE72" s="13" t="s">
         <v>590</v>
       </c>
-      <c r="AF72" s="6">
-        <v>1</v>
-      </c>
-      <c r="AG72">
+      <c r="AF72" s="13">
+        <v>1</v>
+      </c>
+      <c r="AG72" s="14">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
@@ -9715,61 +9747,61 @@
       <c r="N73" t="s">
         <v>24</v>
       </c>
-      <c r="O73" s="1">
+      <c r="O73" s="8">
         <v>255.97313875654942</v>
       </c>
-      <c r="P73" s="1" t="s">
+      <c r="P73" s="8" t="s">
         <v>382</v>
       </c>
-      <c r="Q73" s="1">
-        <v>1</v>
-      </c>
-      <c r="R73" s="2">
+      <c r="Q73" s="8">
+        <v>1</v>
+      </c>
+      <c r="R73" s="9">
         <v>255.97313875654942</v>
       </c>
-      <c r="S73" s="2" t="s">
+      <c r="S73" s="9" t="s">
         <v>438</v>
       </c>
-      <c r="T73" s="2">
-        <v>1</v>
-      </c>
-      <c r="U73" s="3">
+      <c r="T73" s="9">
+        <v>1</v>
+      </c>
+      <c r="U73" s="10">
         <v>705.63007223906084</v>
       </c>
-      <c r="V73" s="3" t="s">
+      <c r="V73" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="W73" s="3">
-        <v>1</v>
-      </c>
-      <c r="X73" s="4">
+      <c r="W73" s="10">
+        <v>1</v>
+      </c>
+      <c r="X73" s="11">
         <v>58607.89336521001</v>
       </c>
-      <c r="Y73" s="4" t="s">
+      <c r="Y73" s="11" t="s">
         <v>492</v>
       </c>
-      <c r="Z73" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA73" s="5">
+      <c r="Z73" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA73" s="12">
         <v>57276.463047264049</v>
       </c>
-      <c r="AB73" s="5" t="s">
+      <c r="AB73" s="12" t="s">
         <v>544</v>
       </c>
-      <c r="AC73" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD73" s="6">
+      <c r="AC73" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD73" s="13">
         <v>255.97314453624821</v>
       </c>
-      <c r="AE73" s="6" t="s">
+      <c r="AE73" s="13" t="s">
         <v>382</v>
       </c>
-      <c r="AF73" s="6">
-        <v>1</v>
-      </c>
-      <c r="AG73">
+      <c r="AF73" s="13">
+        <v>1</v>
+      </c>
+      <c r="AG73" s="14">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
@@ -9817,61 +9849,61 @@
       <c r="N74" t="s">
         <v>15</v>
       </c>
-      <c r="O74" s="1">
+      <c r="O74" s="8">
         <v>22.870419051980551</v>
       </c>
-      <c r="P74" s="1" t="s">
+      <c r="P74" s="8" t="s">
         <v>367</v>
       </c>
-      <c r="Q74" s="1">
-        <v>1</v>
-      </c>
-      <c r="R74" s="2">
+      <c r="Q74" s="8">
+        <v>1</v>
+      </c>
+      <c r="R74" s="9">
         <v>559.81048559656779</v>
       </c>
-      <c r="S74" s="2" t="s">
+      <c r="S74" s="9" t="s">
         <v>424</v>
       </c>
-      <c r="T74" s="2">
-        <v>1</v>
-      </c>
-      <c r="U74" s="3">
+      <c r="T74" s="9">
+        <v>1</v>
+      </c>
+      <c r="U74" s="10">
         <v>716.72112999068531</v>
       </c>
-      <c r="V74" s="3" t="s">
+      <c r="V74" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="W74" s="3">
-        <v>1</v>
-      </c>
-      <c r="X74" s="4">
+      <c r="W74" s="10">
+        <v>1</v>
+      </c>
+      <c r="X74" s="11">
         <v>470.23874890602173</v>
       </c>
-      <c r="Y74" s="4" t="s">
+      <c r="Y74" s="11" t="s">
         <v>479</v>
       </c>
-      <c r="Z74" s="4">
-        <v>1</v>
-      </c>
-      <c r="AA74" s="5">
+      <c r="Z74" s="11">
+        <v>1</v>
+      </c>
+      <c r="AA74" s="12">
         <v>3862.3191167322393</v>
       </c>
-      <c r="AB74" s="5" t="s">
+      <c r="AB74" s="12" t="s">
         <v>529</v>
       </c>
-      <c r="AC74" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD74" s="6">
+      <c r="AC74" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD74" s="13">
         <v>22.870539863049391</v>
       </c>
-      <c r="AE74" s="6" t="s">
+      <c r="AE74" s="13" t="s">
         <v>367</v>
       </c>
-      <c r="AF74" s="6">
-        <v>1</v>
-      </c>
-      <c r="AG74">
+      <c r="AF74" s="13">
+        <v>1</v>
+      </c>
+      <c r="AG74" s="14">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
@@ -9919,61 +9951,61 @@
       <c r="N75" t="s">
         <v>15</v>
       </c>
-      <c r="O75" s="1">
+      <c r="O75" s="8">
         <v>622.67786823068889</v>
       </c>
-      <c r="P75" s="1" t="s">
+      <c r="P75" s="8" t="s">
         <v>372</v>
       </c>
-      <c r="Q75" s="1">
-        <v>1</v>
-      </c>
-      <c r="R75" s="2">
+      <c r="Q75" s="8">
+        <v>1</v>
+      </c>
+      <c r="R75" s="9">
         <v>622.67786823068889</v>
       </c>
-      <c r="S75" s="2" t="s">
+      <c r="S75" s="9" t="s">
         <v>429</v>
       </c>
-      <c r="T75" s="2">
-        <v>1</v>
-      </c>
-      <c r="U75" s="3">
+      <c r="T75" s="9">
+        <v>1</v>
+      </c>
+      <c r="U75" s="10">
         <v>740.69316778981579</v>
       </c>
-      <c r="V75" s="3" t="s">
+      <c r="V75" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="W75" s="3">
-        <v>1</v>
-      </c>
-      <c r="X75" s="4">
+      <c r="W75" s="10">
+        <v>1</v>
+      </c>
+      <c r="X75" s="11">
         <v>825.02094018015453</v>
       </c>
-      <c r="Y75" s="4" t="s">
+      <c r="Y75" s="11" t="s">
         <v>484</v>
       </c>
-      <c r="Z75" s="4">
-        <v>1</v>
-      </c>
-      <c r="AA75" s="5">
+      <c r="Z75" s="11">
+        <v>1</v>
+      </c>
+      <c r="AA75" s="12">
         <v>2511.8475944374754</v>
       </c>
-      <c r="AB75" s="5" t="s">
+      <c r="AB75" s="12" t="s">
         <v>534</v>
       </c>
-      <c r="AC75" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD75" s="6">
+      <c r="AC75" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD75" s="13">
         <v>622.67789303965753</v>
       </c>
-      <c r="AE75" s="6" t="s">
+      <c r="AE75" s="13" t="s">
         <v>429</v>
       </c>
-      <c r="AF75" s="6">
-        <v>1</v>
-      </c>
-      <c r="AG75">
+      <c r="AF75" s="13">
+        <v>1</v>
+      </c>
+      <c r="AG75" s="14">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
@@ -10021,61 +10053,61 @@
       <c r="N76" t="s">
         <v>15</v>
       </c>
-      <c r="O76" s="1">
+      <c r="O76" s="8">
         <v>679.93467998636322</v>
       </c>
-      <c r="P76" s="1" t="s">
+      <c r="P76" s="8" t="s">
         <v>386</v>
       </c>
-      <c r="Q76" s="1">
-        <v>1</v>
-      </c>
-      <c r="R76" s="2">
+      <c r="Q76" s="8">
+        <v>1</v>
+      </c>
+      <c r="R76" s="9">
         <v>1087.4967764742969</v>
       </c>
-      <c r="S76" s="2" t="s">
+      <c r="S76" s="9" t="s">
         <v>442</v>
       </c>
-      <c r="T76" s="2">
-        <v>1</v>
-      </c>
-      <c r="U76" s="3">
+      <c r="T76" s="9">
+        <v>1</v>
+      </c>
+      <c r="U76" s="10">
         <v>758.46566626181493</v>
       </c>
-      <c r="V76" s="3" t="s">
+      <c r="V76" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="W76" s="3">
-        <v>1</v>
-      </c>
-      <c r="X76" s="4">
+      <c r="W76" s="10">
+        <v>1</v>
+      </c>
+      <c r="X76" s="11">
         <v>5632.9076380530323</v>
       </c>
-      <c r="Y76" s="4" t="s">
+      <c r="Y76" s="11" t="s">
         <v>495</v>
       </c>
-      <c r="Z76" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA76" s="5">
+      <c r="Z76" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA76" s="12">
         <v>1302.4541311118232</v>
       </c>
-      <c r="AB76" s="5" t="s">
+      <c r="AB76" s="12" t="s">
         <v>548</v>
       </c>
-      <c r="AC76" s="5">
-        <v>1</v>
-      </c>
-      <c r="AD76" s="6">
+      <c r="AC76" s="12">
+        <v>1</v>
+      </c>
+      <c r="AD76" s="13">
         <v>309.74608744336649</v>
       </c>
-      <c r="AE76" s="6" t="s">
+      <c r="AE76" s="13" t="s">
         <v>587</v>
       </c>
-      <c r="AF76" s="6">
-        <v>1</v>
-      </c>
-      <c r="AG76">
+      <c r="AF76" s="13">
+        <v>1</v>
+      </c>
+      <c r="AG76" s="14">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
@@ -10123,61 +10155,61 @@
       <c r="N77" t="s">
         <v>15</v>
       </c>
-      <c r="O77" s="1">
+      <c r="O77" s="8">
         <v>153.11949196494791</v>
       </c>
-      <c r="P77" s="1" t="s">
+      <c r="P77" s="8" t="s">
         <v>411</v>
       </c>
-      <c r="Q77" s="1">
-        <v>1</v>
-      </c>
-      <c r="R77" s="2">
+      <c r="Q77" s="8">
+        <v>1</v>
+      </c>
+      <c r="R77" s="9">
         <v>1017.0189376278144</v>
       </c>
-      <c r="S77" s="2" t="s">
+      <c r="S77" s="9" t="s">
         <v>466</v>
       </c>
-      <c r="T77" s="2">
-        <v>1</v>
-      </c>
-      <c r="U77" s="3">
+      <c r="T77" s="9">
+        <v>1</v>
+      </c>
+      <c r="U77" s="10">
         <v>799.59628922554145</v>
       </c>
-      <c r="V77" s="3" t="s">
+      <c r="V77" s="10" t="s">
         <v>314</v>
       </c>
-      <c r="W77" s="3">
-        <v>0</v>
-      </c>
-      <c r="X77" s="4">
+      <c r="W77" s="10">
+        <v>0</v>
+      </c>
+      <c r="X77" s="11">
         <v>338.87467941439724</v>
       </c>
-      <c r="Y77" s="4" t="s">
+      <c r="Y77" s="11" t="s">
         <v>518</v>
       </c>
-      <c r="Z77" s="4">
-        <v>1</v>
-      </c>
-      <c r="AA77" s="5">
+      <c r="Z77" s="11">
+        <v>1</v>
+      </c>
+      <c r="AA77" s="12">
         <v>4472.7512380477228</v>
       </c>
-      <c r="AB77" s="5" t="s">
+      <c r="AB77" s="12" t="s">
         <v>571</v>
       </c>
-      <c r="AC77" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD77" s="6">
+      <c r="AC77" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD77" s="13">
         <v>153.11940311430689</v>
       </c>
-      <c r="AE77" s="6" t="s">
+      <c r="AE77" s="13" t="s">
         <v>411</v>
       </c>
-      <c r="AF77" s="6">
-        <v>1</v>
-      </c>
-      <c r="AG77">
+      <c r="AF77" s="13">
+        <v>1</v>
+      </c>
+      <c r="AG77" s="14">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
@@ -10225,61 +10257,61 @@
       <c r="N78" t="s">
         <v>24</v>
       </c>
-      <c r="O78" s="1">
+      <c r="O78" s="8">
         <v>639.71678298188715</v>
       </c>
-      <c r="P78" s="1" t="s">
+      <c r="P78" s="8" t="s">
         <v>365</v>
       </c>
-      <c r="Q78" s="1">
-        <v>1</v>
-      </c>
-      <c r="R78" s="2">
+      <c r="Q78" s="8">
+        <v>1</v>
+      </c>
+      <c r="R78" s="9">
         <v>544.30593542016538</v>
       </c>
-      <c r="S78" s="2" t="s">
+      <c r="S78" s="9" t="s">
         <v>422</v>
       </c>
-      <c r="T78" s="2">
-        <v>1</v>
-      </c>
-      <c r="U78" s="3">
+      <c r="T78" s="9">
+        <v>1</v>
+      </c>
+      <c r="U78" s="10">
         <v>874.77118917420137</v>
       </c>
-      <c r="V78" s="3" t="s">
+      <c r="V78" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="W78" s="3">
-        <v>1</v>
-      </c>
-      <c r="X78" s="4">
+      <c r="W78" s="10">
+        <v>1</v>
+      </c>
+      <c r="X78" s="11">
         <v>2366.8644491749146</v>
       </c>
-      <c r="Y78" s="4" t="s">
+      <c r="Y78" s="11" t="s">
         <v>477</v>
       </c>
-      <c r="Z78" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA78" s="5">
+      <c r="Z78" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA78" s="12">
         <v>10500.317895564604</v>
       </c>
-      <c r="AB78" s="5" t="s">
+      <c r="AB78" s="12" t="s">
         <v>527</v>
       </c>
-      <c r="AC78" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD78" s="6">
+      <c r="AC78" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD78" s="13">
         <v>156.15612327245759</v>
       </c>
-      <c r="AE78" s="6" t="s">
+      <c r="AE78" s="13" t="s">
         <v>579</v>
       </c>
-      <c r="AF78" s="6">
-        <v>1</v>
-      </c>
-      <c r="AG78">
+      <c r="AF78" s="13">
+        <v>1</v>
+      </c>
+      <c r="AG78" s="14">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
@@ -10327,61 +10359,61 @@
       <c r="N79" t="s">
         <v>24</v>
       </c>
-      <c r="O79" s="1">
+      <c r="O79" s="8">
         <v>660.3039486900193</v>
       </c>
-      <c r="P79" s="1" t="s">
+      <c r="P79" s="8" t="s">
         <v>365</v>
       </c>
-      <c r="Q79" s="1">
-        <v>1</v>
-      </c>
-      <c r="R79" s="2">
+      <c r="Q79" s="8">
+        <v>1</v>
+      </c>
+      <c r="R79" s="9">
         <v>545.01220876267951</v>
       </c>
-      <c r="S79" s="2" t="s">
+      <c r="S79" s="9" t="s">
         <v>422</v>
       </c>
-      <c r="T79" s="2">
-        <v>1</v>
-      </c>
-      <c r="U79" s="3">
+      <c r="T79" s="9">
+        <v>1</v>
+      </c>
+      <c r="U79" s="10">
         <v>896.14678917232652</v>
       </c>
-      <c r="V79" s="3" t="s">
+      <c r="V79" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="W79" s="3">
-        <v>1</v>
-      </c>
-      <c r="X79" s="4">
+      <c r="W79" s="10">
+        <v>1</v>
+      </c>
+      <c r="X79" s="11">
         <v>2388.3958119698605</v>
       </c>
-      <c r="Y79" s="4" t="s">
+      <c r="Y79" s="11" t="s">
         <v>477</v>
       </c>
-      <c r="Z79" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA79" s="5">
+      <c r="Z79" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA79" s="12">
         <v>10527.528602628596</v>
       </c>
-      <c r="AB79" s="5" t="s">
+      <c r="AB79" s="12" t="s">
         <v>527</v>
       </c>
-      <c r="AC79" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD79" s="6">
+      <c r="AC79" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD79" s="13">
         <v>155.02191743229255</v>
       </c>
-      <c r="AE79" s="6" t="s">
+      <c r="AE79" s="13" t="s">
         <v>579</v>
       </c>
-      <c r="AF79" s="6">
-        <v>1</v>
-      </c>
-      <c r="AG79">
+      <c r="AF79" s="13">
+        <v>1</v>
+      </c>
+      <c r="AG79" s="14">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
@@ -10429,61 +10461,61 @@
       <c r="N80" t="s">
         <v>24</v>
       </c>
-      <c r="O80" s="1">
+      <c r="O80" s="8">
         <v>671.4923514769373</v>
       </c>
-      <c r="P80" s="1" t="s">
+      <c r="P80" s="8" t="s">
         <v>365</v>
       </c>
-      <c r="Q80" s="1">
-        <v>1</v>
-      </c>
-      <c r="R80" s="2">
+      <c r="Q80" s="8">
+        <v>1</v>
+      </c>
+      <c r="R80" s="9">
         <v>548.17479700899844</v>
       </c>
-      <c r="S80" s="2" t="s">
+      <c r="S80" s="9" t="s">
         <v>422</v>
       </c>
-      <c r="T80" s="2">
-        <v>1</v>
-      </c>
-      <c r="U80" s="3">
+      <c r="T80" s="9">
+        <v>1</v>
+      </c>
+      <c r="U80" s="10">
         <v>907.55771023331351</v>
       </c>
-      <c r="V80" s="3" t="s">
+      <c r="V80" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="W80" s="3">
-        <v>1</v>
-      </c>
-      <c r="X80" s="4">
+      <c r="W80" s="10">
+        <v>1</v>
+      </c>
+      <c r="X80" s="11">
         <v>2402.6186383250124</v>
       </c>
-      <c r="Y80" s="4" t="s">
+      <c r="Y80" s="11" t="s">
         <v>477</v>
       </c>
-      <c r="Z80" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA80" s="5">
+      <c r="Z80" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA80" s="12">
         <v>10544.29616002786</v>
       </c>
-      <c r="AB80" s="5" t="s">
+      <c r="AB80" s="12" t="s">
         <v>527</v>
       </c>
-      <c r="AC80" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD80" s="6">
+      <c r="AC80" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD80" s="13">
         <v>154.74291150736758</v>
       </c>
-      <c r="AE80" s="6" t="s">
+      <c r="AE80" s="13" t="s">
         <v>579</v>
       </c>
-      <c r="AF80" s="6">
-        <v>1</v>
-      </c>
-      <c r="AG80">
+      <c r="AF80" s="13">
+        <v>1</v>
+      </c>
+      <c r="AG80" s="14">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
@@ -10531,61 +10563,61 @@
       <c r="N81" t="s">
         <v>24</v>
       </c>
-      <c r="O81" s="1">
+      <c r="O81" s="8">
         <v>681.82956146021161</v>
       </c>
-      <c r="P81" s="1" t="s">
+      <c r="P81" s="8" t="s">
         <v>365</v>
       </c>
-      <c r="Q81" s="1">
-        <v>1</v>
-      </c>
-      <c r="R81" s="2">
+      <c r="Q81" s="8">
+        <v>1</v>
+      </c>
+      <c r="R81" s="9">
         <v>546.73978237081974</v>
       </c>
-      <c r="S81" s="2" t="s">
+      <c r="S81" s="9" t="s">
         <v>422</v>
       </c>
-      <c r="T81" s="2">
-        <v>1</v>
-      </c>
-      <c r="U81" s="3">
+      <c r="T81" s="9">
+        <v>1</v>
+      </c>
+      <c r="U81" s="10">
         <v>917.91710738869199</v>
       </c>
-      <c r="V81" s="3" t="s">
+      <c r="V81" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="W81" s="3">
-        <v>1</v>
-      </c>
-      <c r="X81" s="4">
+      <c r="W81" s="10">
+        <v>1</v>
+      </c>
+      <c r="X81" s="11">
         <v>2409.8843066081695</v>
       </c>
-      <c r="Y81" s="4" t="s">
+      <c r="Y81" s="11" t="s">
         <v>477</v>
       </c>
-      <c r="Z81" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA81" s="5">
+      <c r="Z81" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA81" s="12">
         <v>10554.75954307858</v>
       </c>
-      <c r="AB81" s="5" t="s">
+      <c r="AB81" s="12" t="s">
         <v>527</v>
       </c>
-      <c r="AC81" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD81" s="6">
+      <c r="AC81" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD81" s="13">
         <v>159.42389006581143</v>
       </c>
-      <c r="AE81" s="6" t="s">
+      <c r="AE81" s="13" t="s">
         <v>579</v>
       </c>
-      <c r="AF81" s="6">
-        <v>1</v>
-      </c>
-      <c r="AG81">
+      <c r="AF81" s="13">
+        <v>1</v>
+      </c>
+      <c r="AG81" s="14">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
@@ -10633,61 +10665,61 @@
       <c r="N82" t="s">
         <v>15</v>
       </c>
-      <c r="O82" s="1">
+      <c r="O82" s="8">
         <v>574.71842758753962</v>
       </c>
-      <c r="P82" s="1" t="s">
+      <c r="P82" s="8" t="s">
         <v>393</v>
       </c>
-      <c r="Q82" s="1">
-        <v>1</v>
-      </c>
-      <c r="R82" s="2">
+      <c r="Q82" s="8">
+        <v>1</v>
+      </c>
+      <c r="R82" s="9">
         <v>645.27658302146688</v>
       </c>
-      <c r="S82" s="2" t="s">
+      <c r="S82" s="9" t="s">
         <v>449</v>
       </c>
-      <c r="T82" s="2">
-        <v>1</v>
-      </c>
-      <c r="U82" s="3">
+      <c r="T82" s="9">
+        <v>1</v>
+      </c>
+      <c r="U82" s="10">
         <v>1116.9807873881832</v>
       </c>
-      <c r="V82" s="3" t="s">
+      <c r="V82" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="W82" s="3">
-        <v>0</v>
-      </c>
-      <c r="X82" s="4">
+      <c r="W82" s="10">
+        <v>0</v>
+      </c>
+      <c r="X82" s="11">
         <v>6074.0006333252941</v>
       </c>
-      <c r="Y82" s="4" t="s">
+      <c r="Y82" s="11" t="s">
         <v>501</v>
       </c>
-      <c r="Z82" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA82" s="5">
+      <c r="Z82" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA82" s="12">
         <v>1470.828288254193</v>
       </c>
-      <c r="AB82" s="5" t="s">
+      <c r="AB82" s="12" t="s">
         <v>555</v>
       </c>
-      <c r="AC82" s="5">
-        <v>1</v>
-      </c>
-      <c r="AD82" s="6">
+      <c r="AC82" s="12">
+        <v>1</v>
+      </c>
+      <c r="AD82" s="13">
         <v>154.725649524587</v>
       </c>
-      <c r="AE82" s="6" t="s">
+      <c r="AE82" s="13" t="s">
         <v>591</v>
       </c>
-      <c r="AF82" s="6">
-        <v>1</v>
-      </c>
-      <c r="AG82">
+      <c r="AF82" s="13">
+        <v>1</v>
+      </c>
+      <c r="AG82" s="14">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
@@ -10735,61 +10767,61 @@
       <c r="N83" t="s">
         <v>15</v>
       </c>
-      <c r="O83" s="1">
+      <c r="O83" s="8">
         <v>318.62163545426125</v>
       </c>
-      <c r="P83" s="1" t="s">
+      <c r="P83" s="8" t="s">
         <v>419</v>
       </c>
-      <c r="Q83" s="1">
-        <v>1</v>
-      </c>
-      <c r="R83" s="2">
+      <c r="Q83" s="8">
+        <v>1</v>
+      </c>
+      <c r="R83" s="9">
         <v>411.55490560851734</v>
       </c>
-      <c r="S83" s="2" t="s">
+      <c r="S83" s="9" t="s">
         <v>472</v>
       </c>
-      <c r="T83" s="2">
-        <v>1</v>
-      </c>
-      <c r="U83" s="3">
+      <c r="T83" s="9">
+        <v>1</v>
+      </c>
+      <c r="U83" s="10">
         <v>1238.9089715535813</v>
       </c>
-      <c r="V83" s="3" t="s">
+      <c r="V83" s="10" t="s">
         <v>359</v>
       </c>
-      <c r="W83" s="3">
-        <v>0</v>
-      </c>
-      <c r="X83" s="4">
+      <c r="W83" s="10">
+        <v>0</v>
+      </c>
+      <c r="X83" s="11">
         <v>1178.0432352867094</v>
       </c>
-      <c r="Y83" s="4" t="s">
+      <c r="Y83" s="11" t="s">
         <v>523</v>
       </c>
-      <c r="Z83" s="4">
-        <v>1</v>
-      </c>
-      <c r="AA83" s="5">
+      <c r="Z83" s="11">
+        <v>1</v>
+      </c>
+      <c r="AA83" s="12">
         <v>112512.39493930752</v>
       </c>
-      <c r="AB83" s="5" t="s">
+      <c r="AB83" s="12" t="s">
         <v>574</v>
       </c>
-      <c r="AC83" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD83" s="6">
+      <c r="AC83" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD83" s="13">
         <v>202.86084808123508</v>
       </c>
-      <c r="AE83" s="6" t="s">
+      <c r="AE83" s="13" t="s">
         <v>600</v>
       </c>
-      <c r="AF83" s="6">
-        <v>1</v>
-      </c>
-      <c r="AG83">
+      <c r="AF83" s="13">
+        <v>1</v>
+      </c>
+      <c r="AG83" s="14">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
@@ -10837,61 +10869,61 @@
       <c r="N84" t="s">
         <v>15</v>
       </c>
-      <c r="O84" s="1">
+      <c r="O84" s="8">
         <v>1263.4650469547914</v>
       </c>
-      <c r="P84" s="1" t="s">
+      <c r="P84" s="8" t="s">
         <v>395</v>
       </c>
-      <c r="Q84" s="1">
-        <v>1</v>
-      </c>
-      <c r="R84" s="2">
+      <c r="Q84" s="8">
+        <v>1</v>
+      </c>
+      <c r="R84" s="9">
         <v>1467.7859506415996</v>
       </c>
-      <c r="S84" s="2" t="s">
+      <c r="S84" s="9" t="s">
         <v>451</v>
       </c>
-      <c r="T84" s="2">
-        <v>1</v>
-      </c>
-      <c r="U84" s="3">
+      <c r="T84" s="9">
+        <v>1</v>
+      </c>
+      <c r="U84" s="10">
         <v>1461.5157604253125</v>
       </c>
-      <c r="V84" s="3" t="s">
+      <c r="V84" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="W84" s="3">
-        <v>1</v>
-      </c>
-      <c r="X84" s="4">
+      <c r="W84" s="10">
+        <v>1</v>
+      </c>
+      <c r="X84" s="11">
         <v>425.8083024333331</v>
       </c>
-      <c r="Y84" s="4" t="s">
+      <c r="Y84" s="11" t="s">
         <v>503</v>
       </c>
-      <c r="Z84" s="4">
-        <v>1</v>
-      </c>
-      <c r="AA84" s="5">
+      <c r="Z84" s="11">
+        <v>1</v>
+      </c>
+      <c r="AA84" s="12">
         <v>5305.3066034071389</v>
       </c>
-      <c r="AB84" s="5" t="s">
+      <c r="AB84" s="12" t="s">
         <v>557</v>
       </c>
-      <c r="AC84" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD84" s="6">
+      <c r="AC84" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD84" s="13">
         <v>425.80834599534012</v>
       </c>
-      <c r="AE84" s="6" t="s">
+      <c r="AE84" s="13" t="s">
         <v>503</v>
       </c>
-      <c r="AF84" s="6">
-        <v>1</v>
-      </c>
-      <c r="AG84">
+      <c r="AF84" s="13">
+        <v>1</v>
+      </c>
+      <c r="AG84" s="14">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
@@ -10939,61 +10971,61 @@
       <c r="N85" t="s">
         <v>15</v>
       </c>
-      <c r="O85" s="1">
+      <c r="O85" s="8">
         <v>1278.225903823818</v>
       </c>
-      <c r="P85" s="1" t="s">
+      <c r="P85" s="8" t="s">
         <v>395</v>
       </c>
-      <c r="Q85" s="1">
-        <v>1</v>
-      </c>
-      <c r="R85" s="2">
+      <c r="Q85" s="8">
+        <v>1</v>
+      </c>
+      <c r="R85" s="9">
         <v>1476.3471596569734</v>
       </c>
-      <c r="S85" s="2" t="s">
+      <c r="S85" s="9" t="s">
         <v>451</v>
       </c>
-      <c r="T85" s="2">
-        <v>1</v>
-      </c>
-      <c r="U85" s="3">
+      <c r="T85" s="9">
+        <v>1</v>
+      </c>
+      <c r="U85" s="10">
         <v>1476.8531978763863</v>
       </c>
-      <c r="V85" s="3" t="s">
+      <c r="V85" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="W85" s="3">
-        <v>1</v>
-      </c>
-      <c r="X85" s="4">
+      <c r="W85" s="10">
+        <v>1</v>
+      </c>
+      <c r="X85" s="11">
         <v>432.80965086612264</v>
       </c>
-      <c r="Y85" s="4" t="s">
+      <c r="Y85" s="11" t="s">
         <v>503</v>
       </c>
-      <c r="Z85" s="4">
-        <v>1</v>
-      </c>
-      <c r="AA85" s="5">
+      <c r="Z85" s="11">
+        <v>1</v>
+      </c>
+      <c r="AA85" s="12">
         <v>5301.984281689397</v>
       </c>
-      <c r="AB85" s="5" t="s">
+      <c r="AB85" s="12" t="s">
         <v>557</v>
       </c>
-      <c r="AC85" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD85" s="6">
+      <c r="AC85" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD85" s="13">
         <v>432.80969321956388</v>
       </c>
-      <c r="AE85" s="6" t="s">
+      <c r="AE85" s="13" t="s">
         <v>503</v>
       </c>
-      <c r="AF85" s="6">
-        <v>1</v>
-      </c>
-      <c r="AG85">
+      <c r="AF85" s="13">
+        <v>1</v>
+      </c>
+      <c r="AG85" s="14">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
@@ -11041,61 +11073,61 @@
       <c r="N86" t="s">
         <v>15</v>
       </c>
-      <c r="O86" s="1">
+      <c r="O86" s="8">
         <v>1309.5828493035506</v>
       </c>
-      <c r="P86" s="1" t="s">
+      <c r="P86" s="8" t="s">
         <v>395</v>
       </c>
-      <c r="Q86" s="1">
-        <v>1</v>
-      </c>
-      <c r="R86" s="2">
+      <c r="Q86" s="8">
+        <v>1</v>
+      </c>
+      <c r="R86" s="9">
         <v>1493.1052374740409</v>
       </c>
-      <c r="S86" s="2" t="s">
+      <c r="S86" s="9" t="s">
         <v>451</v>
       </c>
-      <c r="T86" s="2">
-        <v>1</v>
-      </c>
-      <c r="U86" s="3">
+      <c r="T86" s="9">
+        <v>1</v>
+      </c>
+      <c r="U86" s="10">
         <v>1509.4243584417013</v>
       </c>
-      <c r="V86" s="3" t="s">
+      <c r="V86" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="W86" s="3">
-        <v>1</v>
-      </c>
-      <c r="X86" s="4">
+      <c r="W86" s="10">
+        <v>1</v>
+      </c>
+      <c r="X86" s="11">
         <v>447.47733820857093</v>
       </c>
-      <c r="Y86" s="4" t="s">
+      <c r="Y86" s="11" t="s">
         <v>503</v>
       </c>
-      <c r="Z86" s="4">
-        <v>1</v>
-      </c>
-      <c r="AA86" s="5">
+      <c r="Z86" s="11">
+        <v>1</v>
+      </c>
+      <c r="AA86" s="12">
         <v>5291.6164136094922</v>
       </c>
-      <c r="AB86" s="5" t="s">
+      <c r="AB86" s="12" t="s">
         <v>557</v>
       </c>
-      <c r="AC86" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD86" s="6">
+      <c r="AC86" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD86" s="13">
         <v>447.47737771018018</v>
       </c>
-      <c r="AE86" s="6" t="s">
+      <c r="AE86" s="13" t="s">
         <v>503</v>
       </c>
-      <c r="AF86" s="6">
-        <v>1</v>
-      </c>
-      <c r="AG86">
+      <c r="AF86" s="13">
+        <v>1</v>
+      </c>
+      <c r="AG86" s="14">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
@@ -11143,61 +11175,61 @@
       <c r="N87" t="s">
         <v>15</v>
       </c>
-      <c r="O87" s="1">
+      <c r="O87" s="8">
         <v>1322.0489561311381</v>
       </c>
-      <c r="P87" s="1" t="s">
+      <c r="P87" s="8" t="s">
         <v>395</v>
       </c>
-      <c r="Q87" s="1">
-        <v>1</v>
-      </c>
-      <c r="R87" s="2">
+      <c r="Q87" s="8">
+        <v>1</v>
+      </c>
+      <c r="R87" s="9">
         <v>1501.5584762301603</v>
       </c>
-      <c r="S87" s="2" t="s">
+      <c r="S87" s="9" t="s">
         <v>451</v>
       </c>
-      <c r="T87" s="2">
-        <v>0</v>
-      </c>
-      <c r="U87" s="3">
+      <c r="T87" s="9">
+        <v>0</v>
+      </c>
+      <c r="U87" s="10">
         <v>1522.1197333814055</v>
       </c>
-      <c r="V87" s="3" t="s">
+      <c r="V87" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="W87" s="3">
-        <v>1</v>
-      </c>
-      <c r="X87" s="4">
+      <c r="W87" s="10">
+        <v>1</v>
+      </c>
+      <c r="X87" s="11">
         <v>455.68332284271855</v>
       </c>
-      <c r="Y87" s="4" t="s">
+      <c r="Y87" s="11" t="s">
         <v>503</v>
       </c>
-      <c r="Z87" s="4">
-        <v>1</v>
-      </c>
-      <c r="AA87" s="5">
+      <c r="Z87" s="11">
+        <v>1</v>
+      </c>
+      <c r="AA87" s="12">
         <v>5290.8018981416062</v>
       </c>
-      <c r="AB87" s="5" t="s">
+      <c r="AB87" s="12" t="s">
         <v>557</v>
       </c>
-      <c r="AC87" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD87" s="6">
+      <c r="AC87" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD87" s="13">
         <v>455.68336145377651</v>
       </c>
-      <c r="AE87" s="6" t="s">
+      <c r="AE87" s="13" t="s">
         <v>503</v>
       </c>
-      <c r="AF87" s="6">
-        <v>1</v>
-      </c>
-      <c r="AG87">
+      <c r="AF87" s="13">
+        <v>1</v>
+      </c>
+      <c r="AG87" s="14">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
@@ -11245,61 +11277,61 @@
       <c r="N88" t="s">
         <v>15</v>
       </c>
-      <c r="O88" s="1">
+      <c r="O88" s="8">
         <v>581.73654593623792</v>
       </c>
-      <c r="P88" s="1" t="s">
+      <c r="P88" s="8" t="s">
         <v>381</v>
       </c>
-      <c r="Q88" s="1">
-        <v>1</v>
-      </c>
-      <c r="R88" s="2">
+      <c r="Q88" s="8">
+        <v>1</v>
+      </c>
+      <c r="R88" s="9">
         <v>6949.3264348912307</v>
       </c>
-      <c r="S88" s="2" t="s">
+      <c r="S88" s="9" t="s">
         <v>401</v>
       </c>
-      <c r="T88" s="2">
-        <v>0</v>
-      </c>
-      <c r="U88" s="3">
+      <c r="T88" s="9">
+        <v>0</v>
+      </c>
+      <c r="U88" s="10">
         <v>1615.4993572914952</v>
       </c>
-      <c r="V88" s="3" t="s">
+      <c r="V88" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="W88" s="3">
-        <v>1</v>
-      </c>
-      <c r="X88" s="4">
+      <c r="W88" s="10">
+        <v>1</v>
+      </c>
+      <c r="X88" s="11">
         <v>1842.5876440575357</v>
       </c>
-      <c r="Y88" s="4" t="s">
+      <c r="Y88" s="11" t="s">
         <v>481</v>
       </c>
-      <c r="Z88" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA88" s="5">
+      <c r="Z88" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA88" s="12">
         <v>12346.764622781409</v>
       </c>
-      <c r="AB88" s="5" t="s">
+      <c r="AB88" s="12" t="s">
         <v>543</v>
       </c>
-      <c r="AC88" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD88" s="6">
+      <c r="AC88" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD88" s="13">
         <v>581.73650889245118</v>
       </c>
-      <c r="AE88" s="6" t="s">
+      <c r="AE88" s="13" t="s">
         <v>381</v>
       </c>
-      <c r="AF88" s="6">
-        <v>1</v>
-      </c>
-      <c r="AG88">
+      <c r="AF88" s="13">
+        <v>1</v>
+      </c>
+      <c r="AG88" s="14">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
@@ -11347,61 +11379,61 @@
       <c r="N89" t="s">
         <v>15</v>
       </c>
-      <c r="O89" s="1">
+      <c r="O89" s="8">
         <v>820.64963555700172</v>
       </c>
-      <c r="P89" s="1" t="s">
+      <c r="P89" s="8" t="s">
         <v>381</v>
       </c>
-      <c r="Q89" s="1">
-        <v>1</v>
-      </c>
-      <c r="R89" s="2">
+      <c r="Q89" s="8">
+        <v>1</v>
+      </c>
+      <c r="R89" s="9">
         <v>6911.806195877095</v>
       </c>
-      <c r="S89" s="2" t="s">
+      <c r="S89" s="9" t="s">
         <v>401</v>
       </c>
-      <c r="T89" s="2">
-        <v>0</v>
-      </c>
-      <c r="U89" s="3">
+      <c r="T89" s="9">
+        <v>0</v>
+      </c>
+      <c r="U89" s="10">
         <v>1857.4261489638488</v>
       </c>
-      <c r="V89" s="3" t="s">
+      <c r="V89" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="W89" s="3">
-        <v>1</v>
-      </c>
-      <c r="X89" s="4">
+      <c r="W89" s="10">
+        <v>1</v>
+      </c>
+      <c r="X89" s="11">
         <v>2044.8220472786829</v>
       </c>
-      <c r="Y89" s="4" t="s">
+      <c r="Y89" s="11" t="s">
         <v>481</v>
       </c>
-      <c r="Z89" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA89" s="5">
+      <c r="Z89" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA89" s="12">
         <v>12533.838762976444</v>
       </c>
-      <c r="AB89" s="5" t="s">
+      <c r="AB89" s="12" t="s">
         <v>543</v>
       </c>
-      <c r="AC89" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD89" s="6">
+      <c r="AC89" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD89" s="13">
         <v>820.6496009508553</v>
       </c>
-      <c r="AE89" s="6" t="s">
+      <c r="AE89" s="13" t="s">
         <v>381</v>
       </c>
-      <c r="AF89" s="6">
-        <v>1</v>
-      </c>
-      <c r="AG89">
+      <c r="AF89" s="13">
+        <v>1</v>
+      </c>
+      <c r="AG89" s="14">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
@@ -11449,61 +11481,61 @@
       <c r="N90" t="s">
         <v>15</v>
       </c>
-      <c r="O90" s="1">
+      <c r="O90" s="8">
         <v>1818.9828818949386</v>
       </c>
-      <c r="P90" s="1" t="s">
+      <c r="P90" s="8" t="s">
         <v>369</v>
       </c>
-      <c r="Q90" s="1">
-        <v>0</v>
-      </c>
-      <c r="R90" s="2">
+      <c r="Q90" s="8">
+        <v>0</v>
+      </c>
+      <c r="R90" s="9">
         <v>1818.9828818949386</v>
       </c>
-      <c r="S90" s="2" t="s">
+      <c r="S90" s="9" t="s">
         <v>426</v>
       </c>
-      <c r="T90" s="2">
-        <v>0</v>
-      </c>
-      <c r="U90" s="3">
+      <c r="T90" s="9">
+        <v>0</v>
+      </c>
+      <c r="U90" s="10">
         <v>1996.3376051318435</v>
       </c>
-      <c r="V90" s="3" t="s">
+      <c r="V90" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="W90" s="3">
-        <v>0</v>
-      </c>
-      <c r="X90" s="4">
+      <c r="W90" s="10">
+        <v>0</v>
+      </c>
+      <c r="X90" s="11">
         <v>6693.0928611660838</v>
       </c>
-      <c r="Y90" s="4" t="s">
+      <c r="Y90" s="11" t="s">
         <v>481</v>
       </c>
-      <c r="Z90" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA90" s="5">
+      <c r="Z90" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA90" s="12">
         <v>7654.4805500971461</v>
       </c>
-      <c r="AB90" s="5" t="s">
+      <c r="AB90" s="12" t="s">
         <v>531</v>
       </c>
-      <c r="AC90" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD90" s="6">
+      <c r="AC90" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD90" s="13">
         <v>337.50682218258345</v>
       </c>
-      <c r="AE90" s="6" t="s">
+      <c r="AE90" s="13" t="s">
         <v>581</v>
       </c>
-      <c r="AF90" s="6">
-        <v>1</v>
-      </c>
-      <c r="AG90">
+      <c r="AF90" s="13">
+        <v>1</v>
+      </c>
+      <c r="AG90" s="14">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -11551,61 +11583,61 @@
       <c r="N91" t="s">
         <v>15</v>
       </c>
-      <c r="O91" s="1">
+      <c r="O91" s="8">
         <v>1153.729271037301</v>
       </c>
-      <c r="P91" s="1" t="s">
+      <c r="P91" s="8" t="s">
         <v>375</v>
       </c>
-      <c r="Q91" s="1">
-        <v>1</v>
-      </c>
-      <c r="R91" s="2">
+      <c r="Q91" s="8">
+        <v>1</v>
+      </c>
+      <c r="R91" s="9">
         <v>2605.5510907238686</v>
       </c>
-      <c r="S91" s="2" t="s">
+      <c r="S91" s="9" t="s">
         <v>432</v>
       </c>
-      <c r="T91" s="2">
-        <v>0</v>
-      </c>
-      <c r="U91" s="3">
+      <c r="T91" s="9">
+        <v>0</v>
+      </c>
+      <c r="U91" s="10">
         <v>3842.4810049790467</v>
       </c>
-      <c r="V91" s="3" t="s">
+      <c r="V91" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="W91" s="3">
-        <v>0</v>
-      </c>
-      <c r="X91" s="4">
+      <c r="W91" s="10">
+        <v>0</v>
+      </c>
+      <c r="X91" s="11">
         <v>6069.306887706085</v>
       </c>
-      <c r="Y91" s="4" t="s">
+      <c r="Y91" s="11" t="s">
         <v>487</v>
       </c>
-      <c r="Z91" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA91" s="5">
+      <c r="Z91" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA91" s="12">
         <v>1488.6645927906748</v>
       </c>
-      <c r="AB91" s="5" t="s">
+      <c r="AB91" s="12" t="s">
         <v>537</v>
       </c>
-      <c r="AC91" s="5">
-        <v>1</v>
-      </c>
-      <c r="AD91" s="6">
+      <c r="AC91" s="12">
+        <v>1</v>
+      </c>
+      <c r="AD91" s="13">
         <v>924.42916655500142</v>
       </c>
-      <c r="AE91" s="6" t="s">
+      <c r="AE91" s="13" t="s">
         <v>584</v>
       </c>
-      <c r="AF91" s="6">
-        <v>1</v>
-      </c>
-      <c r="AG91">
+      <c r="AF91" s="13">
+        <v>1</v>
+      </c>
+      <c r="AG91" s="14">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
@@ -11653,61 +11685,61 @@
       <c r="N92" t="s">
         <v>15</v>
       </c>
-      <c r="O92" s="1">
+      <c r="O92" s="8">
         <v>3724.3900511718621</v>
       </c>
-      <c r="P92" s="1" t="s">
+      <c r="P92" s="8" t="s">
         <v>413</v>
       </c>
-      <c r="Q92" s="1">
-        <v>0</v>
-      </c>
-      <c r="R92" s="2">
+      <c r="Q92" s="8">
+        <v>0</v>
+      </c>
+      <c r="R92" s="9">
         <v>1966.6274775278898</v>
       </c>
-      <c r="S92" s="2" t="s">
+      <c r="S92" s="9" t="s">
         <v>469</v>
       </c>
-      <c r="T92" s="2">
-        <v>0</v>
-      </c>
-      <c r="U92" s="3">
+      <c r="T92" s="9">
+        <v>0</v>
+      </c>
+      <c r="U92" s="10">
         <v>5877.363812687312</v>
       </c>
-      <c r="V92" s="3" t="s">
+      <c r="V92" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="W92" s="3">
-        <v>0</v>
-      </c>
-      <c r="X92" s="4">
+      <c r="W92" s="10">
+        <v>0</v>
+      </c>
+      <c r="X92" s="11">
         <v>3735.1993075576011</v>
       </c>
-      <c r="Y92" s="4" t="s">
+      <c r="Y92" s="11" t="s">
         <v>520</v>
       </c>
-      <c r="Z92" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA92" s="5">
+      <c r="Z92" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA92" s="12">
         <v>5020.0532094323007</v>
       </c>
-      <c r="AB92" s="5" t="s">
+      <c r="AB92" s="12" t="s">
         <v>557</v>
       </c>
-      <c r="AC92" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD92" s="6">
+      <c r="AC92" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD92" s="13">
         <v>1177.1267090742058</v>
       </c>
-      <c r="AE92" s="6" t="s">
+      <c r="AE92" s="13" t="s">
         <v>597</v>
       </c>
-      <c r="AF92" s="6">
-        <v>1</v>
-      </c>
-      <c r="AG92">
+      <c r="AF92" s="13">
+        <v>1</v>
+      </c>
+      <c r="AG92" s="14">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -11755,61 +11787,61 @@
       <c r="N93" t="s">
         <v>15</v>
       </c>
-      <c r="O93" s="1">
+      <c r="O93" s="8">
         <v>4771.5041249385367</v>
       </c>
-      <c r="P93" s="1" t="s">
+      <c r="P93" s="8" t="s">
         <v>413</v>
       </c>
-      <c r="Q93" s="1">
-        <v>0</v>
-      </c>
-      <c r="R93" s="2">
+      <c r="Q93" s="8">
+        <v>0</v>
+      </c>
+      <c r="R93" s="9">
         <v>2155.9798431156332</v>
       </c>
-      <c r="S93" s="2" t="s">
+      <c r="S93" s="9" t="s">
         <v>455</v>
       </c>
-      <c r="T93" s="2">
-        <v>0</v>
-      </c>
-      <c r="U93" s="3">
+      <c r="T93" s="9">
+        <v>0</v>
+      </c>
+      <c r="U93" s="10">
         <v>7352.5696410965211</v>
       </c>
-      <c r="V93" s="3" t="s">
+      <c r="V93" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="W93" s="3">
-        <v>0</v>
-      </c>
-      <c r="X93" s="4">
+      <c r="W93" s="10">
+        <v>0</v>
+      </c>
+      <c r="X93" s="11">
         <v>2155.9798431156332</v>
       </c>
-      <c r="Y93" s="4" t="s">
+      <c r="Y93" s="11" t="s">
         <v>520</v>
       </c>
-      <c r="Z93" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA93" s="5">
+      <c r="Z93" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA93" s="12">
         <v>6516.9484820325451</v>
       </c>
-      <c r="AB93" s="5" t="s">
+      <c r="AB93" s="12" t="s">
         <v>557</v>
       </c>
-      <c r="AC93" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD93" s="6">
+      <c r="AC93" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD93" s="13">
         <v>2155.979953835686</v>
       </c>
-      <c r="AE93" s="6" t="s">
+      <c r="AE93" s="13" t="s">
         <v>520</v>
       </c>
-      <c r="AF93" s="6">
-        <v>0</v>
-      </c>
-      <c r="AG93">
+      <c r="AF93" s="13">
+        <v>0</v>
+      </c>
+      <c r="AG93" s="14">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -11857,61 +11889,61 @@
       <c r="N94" t="s">
         <v>15</v>
       </c>
-      <c r="O94" s="1">
+      <c r="O94" s="8">
         <v>3382.3190724540164</v>
       </c>
-      <c r="P94" s="1" t="s">
+      <c r="P94" s="8" t="s">
         <v>400</v>
       </c>
-      <c r="Q94" s="1">
-        <v>0</v>
-      </c>
-      <c r="R94" s="2">
+      <c r="Q94" s="8">
+        <v>0</v>
+      </c>
+      <c r="R94" s="9">
         <v>6723.446527782653</v>
       </c>
-      <c r="S94" s="2" t="s">
+      <c r="S94" s="9" t="s">
         <v>455</v>
       </c>
-      <c r="T94" s="2">
-        <v>0</v>
-      </c>
-      <c r="U94" s="3">
+      <c r="T94" s="9">
+        <v>0</v>
+      </c>
+      <c r="U94" s="10">
         <v>10010.27552823845</v>
       </c>
-      <c r="V94" s="3" t="s">
+      <c r="V94" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="W94" s="3">
-        <v>0</v>
-      </c>
-      <c r="X94" s="4">
+      <c r="W94" s="10">
+        <v>0</v>
+      </c>
+      <c r="X94" s="11">
         <v>2865.256484856317</v>
       </c>
-      <c r="Y94" s="4" t="s">
+      <c r="Y94" s="11" t="s">
         <v>508</v>
       </c>
-      <c r="Z94" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA94" s="5">
+      <c r="Z94" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA94" s="12">
         <v>10177.722434763522</v>
       </c>
-      <c r="AB94" s="5" t="s">
+      <c r="AB94" s="12" t="s">
         <v>557</v>
       </c>
-      <c r="AC94" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD94" s="6">
+      <c r="AC94" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD94" s="13">
         <v>1706.7534010186653</v>
       </c>
-      <c r="AE94" s="6" t="s">
+      <c r="AE94" s="13" t="s">
         <v>593</v>
       </c>
-      <c r="AF94" s="6">
-        <v>1</v>
-      </c>
-      <c r="AG94">
+      <c r="AF94" s="13">
+        <v>1</v>
+      </c>
+      <c r="AG94" s="14">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
